--- a/FOREX/data/FOREX_4M.xlsx
+++ b/FOREX/data/FOREX_4M.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="781">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -182,6 +182,9 @@
     <t>2022M02</t>
   </si>
   <si>
+    <t>2022M03</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -410,90 +416,279 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Belize</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Cambodia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bermuda</t>
+    <t>Cameroon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bhutan</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bolivia</t>
+    <t>Cayman Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Central African Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Botswana</t>
+    <t>Chad</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Chile</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
+    <t>China, P.R.: Hong Kong</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bulgaria</t>
+    <t>China, P.R.: Macao</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
+    <t>China, P.R.: Mainland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Burundi</t>
+    <t>Colombia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Comoros, Union of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Congo, Dem. Rep. of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Croatia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao and Sint Maarten</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Czech Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -506,82 +701,154 @@
     <t>...</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>Gambia, The</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Units</t>
@@ -590,117 +857,186 @@
     <t>...</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
+    <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Croatia, Rep. of</t>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao and Sint Maarten</t>
+    <t>India</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Czech Rep.</t>
+    <t>Iran, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Israel</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominican Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t>Jersey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep. of</t>
+    <t>Jordan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>Kazakhstan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Kenya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>Kiribati</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>Korea, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Kosovo, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -722,60 +1058,204 @@
     <t>...</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -788,36 +1268,69 @@
     <t>...</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>Nepal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>New Zealand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -827,6 +1340,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -842,69 +1367,126 @@
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Peru</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>Philippines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>Poland, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>Qatar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>Romania</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Russian Federation</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep. of</t>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>San Marino, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -917,27 +1499,66 @@
     <t>...</t>
   </si>
   <si>
-    <t>Isle of Man</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>Senegal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jamaica</t>
+    <t>Serbia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -953,67 +1574,250 @@
     <t>...</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jersey</t>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>Solomon Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kazakhstan, Rep. of</t>
+    <t>Somalia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kenya</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kiribati</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Korea, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kosovo, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kuwait</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kyrgyz Rep.</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Lao People's Dem. Rep.</t>
+    <t>Sudan</t>
   </si>
   <si>
     <t>Units</t>
@@ -1028,24 +1832,51 @@
     <t>...</t>
   </si>
   <si>
-    <t>Lebanon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Lesotho, Kingdom of</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Liberia</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -1064,7 +1895,115 @@
     <t>...</t>
   </si>
   <si>
-    <t>Libya</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
@@ -1073,12 +2012,114 @@
     <t>...</t>
   </si>
   <si>
+    <t>Tajikistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tanzania, United Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Timor-Leste, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -1091,1063 +2132,13 @@
     <t>...</t>
   </si>
   <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>...</t>
@@ -2869,7 +2860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BB196"/>
+  <dimension ref="A1:BC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2931,6 +2922,7 @@
     <col min="52" max="52" width="9.710938" customWidth="1"/>
     <col min="53" max="53" width="9.710938" customWidth="1"/>
     <col min="54" max="54" width="9.710938" customWidth="1"/>
+    <col min="55" max="55" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2988,6 +2980,7 @@
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -3046,6 +3039,7 @@
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -3104,6 +3098,7 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -3160,6 +3155,7 @@
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -3218,6 +3214,7 @@
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -3274,6 +3271,7 @@
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -3433,17 +3431,20 @@
       <c r="BA7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BB7" s="10" t="s">
+      <c r="BB7" s="9" t="s">
         <v>55</v>
+      </c>
+      <c r="BC7" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -3572,40 +3573,43 @@
         <v>111.60884510278601</v>
       </c>
       <c r="AT8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW8" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY8" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AZ8" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BB8" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="BC8" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3759,15 +3763,18 @@
       </c>
       <c r="BB9" s="20">
         <v>149.94014960873599</v>
+      </c>
+      <c r="BC9" s="20">
+        <v>154.23936090333501</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3921,117 +3928,120 @@
       </c>
       <c r="BB10" s="22">
         <v>196.911822658609</v>
+      </c>
+      <c r="BC10" s="22">
+        <v>196.965239719332</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AH11" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AJ11" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AK11" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AL11" s="20">
         <v>1.2007745785770401</v>
@@ -4083,15 +4093,18 @@
       </c>
       <c r="BB11" s="20">
         <v>1.2352850327629701</v>
+      </c>
+      <c r="BC11" s="20">
+        <v>1.2544934281194899</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -4245,15 +4258,18 @@
       </c>
       <c r="BB12" s="22">
         <v>725.00377174272103</v>
+      </c>
+      <c r="BC12" s="22">
+        <v>638.155261157626</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -4407,15 +4423,18 @@
       </c>
       <c r="BB13" s="20">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC13" s="20">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -4569,15 +4588,18 @@
       </c>
       <c r="BB14" s="22">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC14" s="22">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -4731,15 +4753,18 @@
       </c>
       <c r="BB15" s="20">
         <v>148.797875230339</v>
+      </c>
+      <c r="BC15" s="20">
+        <v>151.163973467076</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -4893,15 +4918,18 @@
       </c>
       <c r="BB16" s="22">
         <v>672.84416219980199</v>
+      </c>
+      <c r="BC16" s="22">
+        <v>686.95314499470499</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -5055,15 +5083,18 @@
       </c>
       <c r="BB17" s="20">
         <v>2.5078757970438899</v>
+      </c>
+      <c r="BC17" s="20">
+        <v>2.47435432888483</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -5217,15 +5248,18 @@
       </c>
       <c r="BB18" s="22">
         <v>1.95741330088708</v>
+      </c>
+      <c r="BC18" s="22">
+        <v>1.87594803160798</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -5379,15 +5413,18 @@
       </c>
       <c r="BB19" s="20">
         <v>2.3817814832260402</v>
+      </c>
+      <c r="BC19" s="20">
+        <v>2.3499454520135199</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -5541,15 +5578,18 @@
       </c>
       <c r="BB20" s="22">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC20" s="22">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -5703,15 +5743,18 @@
       </c>
       <c r="BB21" s="20">
         <v>0.52679402217234705</v>
+      </c>
+      <c r="BC21" s="20">
+        <v>0.51975264115122599</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -5865,15 +5908,18 @@
       </c>
       <c r="BB22" s="22">
         <v>120.490122092611</v>
+      </c>
+      <c r="BC22" s="22">
+        <v>118.961508764676</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -6027,15 +6073,18 @@
       </c>
       <c r="BB23" s="20">
         <v>2.8020958626188701</v>
+      </c>
+      <c r="BC23" s="20">
+        <v>2.7646417082512</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -6187,17 +6236,20 @@
       <c r="BA24" s="22">
         <v>3.6191829988081401</v>
       </c>
-      <c r="BB24" s="22" t="s">
-        <v>132</v>
+      <c r="BB24" s="22">
+        <v>3.6490293370954201</v>
+      </c>
+      <c r="BC24" s="22">
+        <v>4.4172062893583597</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -6351,15 +6403,18 @@
       </c>
       <c r="BB25" s="20">
         <v>2.8020958626188701</v>
+      </c>
+      <c r="BC25" s="20">
+        <v>2.7646417082512</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -6513,15 +6568,18 @@
       </c>
       <c r="BB26" s="22">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC26" s="22">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -6675,15 +6733,18 @@
       </c>
       <c r="BB27" s="20">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC27" s="20">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -6836,16 +6897,19 @@
         <v>104.199324382765</v>
       </c>
       <c r="BB28" s="22">
-        <v>105.123716375195</v>
+        <v>105.082974966477</v>
+      </c>
+      <c r="BC28" s="22">
+        <v>105.394322867498</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -6999,15 +7063,18 @@
       </c>
       <c r="BB29" s="20">
         <v>9.68124120534819</v>
+      </c>
+      <c r="BC29" s="20">
+        <v>9.5518371020079105</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -7161,15 +7228,18 @@
       </c>
       <c r="BB30" s="22">
         <v>2.4152153905348399</v>
+      </c>
+      <c r="BC30" s="22">
+        <v>2.4550824128555702</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -7323,15 +7393,18 @@
       </c>
       <c r="BB31" s="20">
         <v>16.1766395196919</v>
+      </c>
+      <c r="BC31" s="20">
+        <v>16.00409615281</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -7485,15 +7558,18 @@
       </c>
       <c r="BB32" s="22">
         <v>7.2798155553378896</v>
+      </c>
+      <c r="BC32" s="22">
+        <v>6.9060212302894</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -7647,15 +7723,18 @@
       </c>
       <c r="BB33" s="20">
         <v>1.8853201487665401</v>
+      </c>
+      <c r="BC33" s="20">
+        <v>1.8790548480103</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -7809,15 +7888,18 @@
       </c>
       <c r="BB34" s="22">
         <v>2.4161071575431201</v>
+      </c>
+      <c r="BC34" s="22">
+        <v>2.4543106765000098</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -7971,15 +8053,18 @@
       </c>
       <c r="BB35" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC35" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -8133,15 +8218,18 @@
       </c>
       <c r="BB36" s="22">
         <v>2820.7459121564898</v>
+      </c>
+      <c r="BC36" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -8281,29 +8369,32 @@
       <c r="AW37" s="20">
         <v>132.975793873946</v>
       </c>
-      <c r="AX37" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY37" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ37" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA37" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB37" s="20" t="s">
-        <v>163</v>
+      <c r="AX37" s="20">
+        <v>134.30041511728601</v>
+      </c>
+      <c r="AY37" s="20">
+        <v>135.587062147002</v>
+      </c>
+      <c r="AZ37" s="20">
+        <v>136.3537968258</v>
+      </c>
+      <c r="BA37" s="20">
+        <v>136.37111080813</v>
+      </c>
+      <c r="BB37" s="20">
+        <v>136.242594351099</v>
+      </c>
+      <c r="BC37" s="20">
+        <v>138.280106037015</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -8457,15 +8548,18 @@
       </c>
       <c r="BB38" s="22">
         <v>5734.0388460144504</v>
+      </c>
+      <c r="BC38" s="22">
+        <v>5620.1152739170602</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -8619,15 +8713,18 @@
       </c>
       <c r="BB39" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC39" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -8781,15 +8878,18 @@
       </c>
       <c r="BB40" s="22">
         <v>1.7818371918400999</v>
+      </c>
+      <c r="BC40" s="22">
+        <v>1.7497237068801801</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -8943,15 +9043,18 @@
       </c>
       <c r="BB41" s="20">
         <v>1.1675352725980901</v>
+      </c>
+      <c r="BC41" s="20">
+        <v>1.1519294373684901</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -9105,15 +9208,18 @@
       </c>
       <c r="BB42" s="22">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC42" s="22">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -9267,15 +9373,18 @@
       </c>
       <c r="BB43" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC43" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -9429,15 +9538,18 @@
       </c>
       <c r="BB44" s="22">
         <v>1132.0132590196599</v>
+      </c>
+      <c r="BC44" s="22">
+        <v>1104.73339735424</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -9591,15 +9703,18 @@
       </c>
       <c r="BB45" s="20">
         <v>10.929574912144901</v>
+      </c>
+      <c r="BC45" s="20">
+        <v>10.815278362678701</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -9753,15 +9868,18 @@
       </c>
       <c r="BB46" s="22">
         <v>11.255673021301</v>
+      </c>
+      <c r="BC46" s="22">
+        <v>11.1372443890591</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -9915,15 +10033,18 @@
       </c>
       <c r="BB47" s="20">
         <v>8.8845679903274704</v>
+      </c>
+      <c r="BC47" s="20">
+        <v>8.7706755671601897</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -10075,17 +10196,20 @@
       <c r="BA48" s="22">
         <v>5600.6309255972701</v>
       </c>
-      <c r="BB48" s="22" t="s">
-        <v>186</v>
+      <c r="BB48" s="22">
+        <v>5518.3573020860304</v>
+      </c>
+      <c r="BC48" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -10239,15 +10363,18 @@
       </c>
       <c r="BB49" s="20">
         <v>607.72039817707503</v>
+      </c>
+      <c r="BC49" s="20">
+        <v>617.17030922173501</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -10399,17 +10526,20 @@
       <c r="BA50" s="22">
         <v>2798.6634228299999</v>
       </c>
-      <c r="BB50" s="22" t="s">
-        <v>191</v>
+      <c r="BB50" s="22">
+        <v>2802.5752381737998</v>
+      </c>
+      <c r="BC50" s="22">
+        <v>2764.5199257839599</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -10563,15 +10693,18 @@
       </c>
       <c r="BB51" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC51" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -10725,15 +10858,18 @@
       </c>
       <c r="BB52" s="22">
         <v>900.06896783285504</v>
+      </c>
+      <c r="BC52" s="22">
+        <v>898.63876088790096</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -10887,15 +11023,18 @@
       </c>
       <c r="BB53" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC53" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -11049,15 +11188,18 @@
       </c>
       <c r="BB54" s="22">
         <v>9.3012307717953409</v>
+      </c>
+      <c r="BC54" s="22">
+        <v>9.4899395388018792</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -11211,15 +11353,18 @@
       </c>
       <c r="BB55" s="20">
         <v>2.5078757970438899</v>
+      </c>
+      <c r="BC55" s="20">
+        <v>2.47435432888483</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -11373,15 +11518,18 @@
       </c>
       <c r="BB56" s="22">
         <v>2.5078757970438899</v>
+      </c>
+      <c r="BC56" s="22">
+        <v>2.47435432888483</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -11533,17 +11681,20 @@
       <c r="BA57" s="20">
         <v>30.273704323260599</v>
       </c>
-      <c r="BB57" s="20" t="s">
-        <v>206</v>
+      <c r="BB57" s="20">
+        <v>30.192582919718301</v>
+      </c>
+      <c r="BC57" s="20">
+        <v>31.377301067796999</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -11697,15 +11848,18 @@
       </c>
       <c r="BB58" s="22">
         <v>9.1919882624952791</v>
+      </c>
+      <c r="BC58" s="22">
+        <v>9.3342597995685406</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -11859,15 +12013,18 @@
       </c>
       <c r="BB59" s="20">
         <v>248.99563940024399</v>
+      </c>
+      <c r="BC59" s="20">
+        <v>245.66744451605601</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -12021,15 +12178,18 @@
       </c>
       <c r="BB60" s="22">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC60" s="22">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -12183,15 +12343,18 @@
       </c>
       <c r="BB61" s="20">
         <v>79.557245836267995</v>
+      </c>
+      <c r="BC61" s="20">
+        <v>76.192281390634506</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -12345,15 +12508,18 @@
       </c>
       <c r="BB62" s="22">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC62" s="22">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -12507,15 +12673,18 @@
       </c>
       <c r="BB63" s="20">
         <v>21.941622510766301</v>
+      </c>
+      <c r="BC63" s="20" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -12669,15 +12838,18 @@
       </c>
       <c r="BB64" s="22">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC64" s="22">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -12831,15 +13003,18 @@
       </c>
       <c r="BB65" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC65" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -12993,15 +13168,18 @@
       </c>
       <c r="BB66" s="22">
         <v>21.120797564489699</v>
+      </c>
+      <c r="BC66" s="22">
+        <v>20.838486875943499</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -13154,16 +13332,19 @@
         <v>21.683702826108</v>
       </c>
       <c r="BB67" s="20">
-        <v>21.336435324035101</v>
+        <v>21.314678652872701</v>
+      </c>
+      <c r="BC67" s="20">
+        <v>20.705235383801501</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -13292,40 +13473,43 @@
         <v>61.273317781734001</v>
       </c>
       <c r="AT68" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU68" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV68" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW68" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX68" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="AU68" s="22" t="s">
+      <c r="AY68" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="AV68" s="22" t="s">
+      <c r="AZ68" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="AW68" s="22" t="s">
+      <c r="BA68" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="AX68" s="22" t="s">
+      <c r="BB68" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="AY68" s="22" t="s">
+      <c r="BC68" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AZ68" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA68" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="BB68" s="22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -13479,15 +13663,18 @@
       </c>
       <c r="BB69" s="20">
         <v>1.2352850327629701</v>
+      </c>
+      <c r="BC69" s="20">
+        <v>1.2544934281194899</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -13641,15 +13828,18 @@
       </c>
       <c r="BB70" s="22">
         <v>2.9971217346571399</v>
+      </c>
+      <c r="BC70" s="22" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -13803,15 +13993,18 @@
       </c>
       <c r="BB71" s="20">
         <v>147.40866294416099</v>
+      </c>
+      <c r="BC71" s="20">
+        <v>149.70083341632699</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -13965,15 +14158,18 @@
       </c>
       <c r="BB72" s="22">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC72" s="22">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -14122,20 +14318,23 @@
       <c r="AZ73" s="20">
         <v>73.536740185879694</v>
       </c>
-      <c r="BA73" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="BB73" s="20" t="s">
-        <v>249</v>
+      <c r="BA73" s="20">
+        <v>73.604313662574896</v>
+      </c>
+      <c r="BB73" s="20">
+        <v>73.929887793488305</v>
+      </c>
+      <c r="BC73" s="20" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -14289,15 +14488,18 @@
       </c>
       <c r="BB74" s="22">
         <v>4.2144922821719097</v>
+      </c>
+      <c r="BC74" s="22">
+        <v>4.4816224411606198</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -14441,25 +14643,28 @@
         <v>8.3097337506708993</v>
       </c>
       <c r="AY75" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ75" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="BA75" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB75" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AZ75" s="20" t="s">
+      <c r="BC75" s="20" t="s">
         <v>255</v>
-      </c>
-      <c r="BA75" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="BB75" s="20" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -14613,15 +14818,18 @@
       </c>
       <c r="BB76" s="22">
         <v>1.03516382805332</v>
+      </c>
+      <c r="BC76" s="22">
+        <v>1.0491341074196801</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -14775,15 +14983,18 @@
       </c>
       <c r="BB77" s="20">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC77" s="20">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -14937,15 +15148,18 @@
       </c>
       <c r="BB78" s="22">
         <v>10.7869552379772</v>
+      </c>
+      <c r="BC78" s="22">
+        <v>10.631740711272201</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -15099,15 +15313,18 @@
       </c>
       <c r="BB79" s="20">
         <v>1.03516382805332</v>
+      </c>
+      <c r="BC79" s="20">
+        <v>1.0491341074196801</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -15236,40 +15453,43 @@
         <v>14111.720714393399</v>
       </c>
       <c r="AT80" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU80" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV80" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="AU80" s="22" t="s">
+      <c r="AW80" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="AV80" s="22" t="s">
+      <c r="AX80" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="AW80" s="22" t="s">
+      <c r="AY80" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="AX80" s="22" t="s">
+      <c r="AZ80" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="AY80" s="22" t="s">
+      <c r="BA80" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="AZ80" s="22" t="s">
+      <c r="BB80" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="BA80" s="22" t="s">
+      <c r="BC80" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="BB80" s="22" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -15423,15 +15643,18 @@
       </c>
       <c r="BB81" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC81" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -15585,6 +15808,9 @@
       </c>
       <c r="BB82" s="22">
         <v>292.11849367801699</v>
+      </c>
+      <c r="BC82" s="22" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
@@ -15748,14 +15974,17 @@
       <c r="BB83" s="20">
         <v>143.022895762275</v>
       </c>
+      <c r="BC83" s="20" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -15909,15 +16138,18 @@
       </c>
       <c r="BB84" s="22">
         <v>34.313387126723498</v>
+      </c>
+      <c r="BC84" s="22">
+        <v>33.694323243119598</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -16071,15 +16303,18 @@
       </c>
       <c r="BB85" s="20">
         <v>441.10593069346203</v>
+      </c>
+      <c r="BC85" s="20">
+        <v>472.56020719137803</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -16233,15 +16468,18 @@
       </c>
       <c r="BB86" s="22">
         <v>175.42661252718599</v>
+      </c>
+      <c r="BC86" s="22">
+        <v>179.88742283803501</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -16394,16 +16632,19 @@
         <v>104.199324382765</v>
       </c>
       <c r="BB87" s="20">
-        <v>105.123716375195</v>
+        <v>105.082974966477</v>
+      </c>
+      <c r="BC87" s="20">
+        <v>105.394322867498</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -16557,15 +16798,18 @@
       </c>
       <c r="BB88" s="22">
         <v>20106.5202008378</v>
+      </c>
+      <c r="BC88" s="22">
+        <v>19834.4230436855</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -16719,15 +16963,18 @@
       </c>
       <c r="BB89" s="20">
         <v>58844.013114996204</v>
+      </c>
+      <c r="BC89" s="20">
+        <v>58057.475873275303</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -16870,26 +17117,29 @@
       <c r="AX90" s="22">
         <v>2048.33298287651</v>
       </c>
-      <c r="AY90" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="AZ90" s="22" t="s">
+      <c r="AY90" s="22">
+        <v>2035.93112336286</v>
+      </c>
+      <c r="AZ90" s="22">
+        <v>2026.7610254860199</v>
+      </c>
+      <c r="BA90" s="22">
+        <v>2029.6315548699699</v>
+      </c>
+      <c r="BB90" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="BA90" s="22" t="s">
+      <c r="BC90" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="BB90" s="22" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -17043,15 +17293,18 @@
       </c>
       <c r="BB91" s="20">
         <v>1.03516382805332</v>
+      </c>
+      <c r="BC91" s="20">
+        <v>1.0491341074196801</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -17205,15 +17458,18 @@
       </c>
       <c r="BB92" s="22">
         <v>4.5027578940388198</v>
+      </c>
+      <c r="BC92" s="22">
+        <v>4.4832614787447902</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -17351,21 +17607,24 @@
         <v>218.40300610627901</v>
       </c>
       <c r="AW93" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AX93" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AX93" s="20" t="s">
+      <c r="AY93" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="AY93" s="20" t="s">
+      <c r="AZ93" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="AZ93" s="20" t="s">
+      <c r="BA93" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="BA93" s="20" t="s">
+      <c r="BB93" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="BB93" s="20" t="s">
+      <c r="BC93" s="20" t="s">
         <v>312</v>
       </c>
     </row>
@@ -17530,6 +17789,9 @@
       <c r="BB94" s="22">
         <v>161.41473216616001</v>
       </c>
+      <c r="BC94" s="22">
+        <v>163.81821609476401</v>
+      </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
@@ -17692,6 +17954,9 @@
       <c r="BB95" s="20">
         <v>1.03516382805332</v>
       </c>
+      <c r="BC95" s="20">
+        <v>1.0491341074196801</v>
+      </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
@@ -17854,6 +18119,9 @@
       <c r="BB96" s="22">
         <v>0.99474403122969801</v>
       </c>
+      <c r="BC96" s="22">
+        <v>0.98144780642917795</v>
+      </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
@@ -18016,6 +18284,9 @@
       <c r="BB97" s="20">
         <v>608.67126327807</v>
       </c>
+      <c r="BC97" s="20">
+        <v>687.26228225416696</v>
+      </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
@@ -18178,6 +18449,9 @@
       <c r="BB98" s="22">
         <v>159.245539102864</v>
       </c>
+      <c r="BC98" s="22">
+        <v>158.021066834012</v>
+      </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
@@ -18340,6 +18614,9 @@
       <c r="BB99" s="20">
         <v>1.95741330088708</v>
       </c>
+      <c r="BC99" s="20">
+        <v>1.87594803160798</v>
+      </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
@@ -18502,6 +18779,9 @@
       <c r="BB100" s="22">
         <v>1678.93177800535</v>
       </c>
+      <c r="BC100" s="22">
+        <v>1687.8552325129799</v>
+      </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
@@ -18664,6 +18944,9 @@
       <c r="BB101" s="20">
         <v>1.2352850327629701</v>
       </c>
+      <c r="BC101" s="20">
+        <v>1.2544934281194899</v>
+      </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
@@ -18826,6 +19109,9 @@
       <c r="BB102" s="22">
         <v>0.42370236802672401</v>
       </c>
+      <c r="BC102" s="22">
+        <v>0.420091147348921</v>
+      </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
@@ -18988,6 +19274,9 @@
       <c r="BB103" s="20">
         <v>119.73259549112301</v>
       </c>
+      <c r="BC103" s="20">
+        <v>136.51836874050599</v>
+      </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
@@ -19141,23 +19430,26 @@
       <c r="AY104" s="22">
         <v>14738.2904866713</v>
       </c>
-      <c r="AZ104" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="BA104" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="BB104" s="22" t="s">
-        <v>337</v>
+      <c r="AZ104" s="22">
+        <v>15250.137787628701</v>
+      </c>
+      <c r="BA104" s="22">
+        <v>15619.2745860344</v>
+      </c>
+      <c r="BB104" s="22">
+        <v>15811.8766907754</v>
+      </c>
+      <c r="BC104" s="22">
+        <v>15745.1371906193</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -19311,15 +19603,18 @@
       </c>
       <c r="BB105" s="20">
         <v>2112.0797564489699</v>
+      </c>
+      <c r="BC105" s="20">
+        <v>2083.8486875943499</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -19472,16 +19767,19 @@
         <v>21.683702826108</v>
       </c>
       <c r="BB106" s="22">
-        <v>21.336435324035101</v>
+        <v>21.314678652872701</v>
+      </c>
+      <c r="BC106" s="22">
+        <v>20.705235383801501</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -19619,31 +19917,34 @@
         <v>244.12468651827299</v>
       </c>
       <c r="AW107" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX107" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="AY107" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ107" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="AX107" s="20" t="s">
+      <c r="BA107" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="AY107" s="20" t="s">
+      <c r="BB107" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="AZ107" s="20" t="s">
+      <c r="BC107" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="BA107" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="BB107" s="20" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -19754,58 +20055,61 @@
         <v>1.9381163522996301</v>
       </c>
       <c r="AN108" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO108" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP108" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="AO108" s="22" t="s">
+      <c r="AQ108" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="AP108" s="22" t="s">
+      <c r="AR108" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="AQ108" s="22" t="s">
+      <c r="AS108" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="AR108" s="22" t="s">
+      <c r="AT108" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="AS108" s="22" t="s">
+      <c r="AU108" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="AT108" s="22" t="s">
+      <c r="AV108" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="AU108" s="22" t="s">
+      <c r="AW108" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="AV108" s="22" t="s">
+      <c r="AX108" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="AW108" s="22" t="s">
+      <c r="AY108" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="AX108" s="22" t="s">
+      <c r="AZ108" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="AY108" s="22" t="s">
+      <c r="BA108" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="AZ108" s="22" t="s">
+      <c r="BB108" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="BA108" s="22" t="s">
+      <c r="BC108" s="22" t="s">
         <v>365</v>
-      </c>
-      <c r="BB108" s="22" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -19959,15 +20263,18 @@
       </c>
       <c r="BB109" s="20">
         <v>5565.4660598923801</v>
+      </c>
+      <c r="BC109" s="20">
+        <v>5511.4030962542902</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>369</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>370</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -20108,18 +20415,21 @@
         <v>1165.7044779849</v>
       </c>
       <c r="AX110" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY110" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="AY110" s="22" t="s">
+      <c r="AZ110" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AZ110" s="22" t="s">
+      <c r="BA110" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="BA110" s="22" t="s">
+      <c r="BB110" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="BB110" s="22" t="s">
+      <c r="BC110" s="22" t="s">
         <v>375</v>
       </c>
     </row>
@@ -20284,6 +20594,9 @@
       <c r="BB111" s="20">
         <v>5.8672073399426097</v>
       </c>
+      <c r="BC111" s="20">
+        <v>5.8065529394773199</v>
+      </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
@@ -20446,6 +20759,9 @@
       <c r="BB112" s="22">
         <v>21.544614563710802</v>
       </c>
+      <c r="BC112" s="22">
+        <v>21.273917944992998</v>
+      </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
@@ -20608,6 +20924,9 @@
       <c r="BB113" s="20">
         <v>810.29386423610003</v>
       </c>
+      <c r="BC113" s="20">
+        <v>822.89374562897899</v>
+      </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
@@ -20770,14 +21089,17 @@
       <c r="BB114" s="22" t="s">
         <v>392</v>
       </c>
+      <c r="BC114" s="22" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -20931,15 +21253,18 @@
       </c>
       <c r="BB115" s="20">
         <v>61.316722608964199</v>
+      </c>
+      <c r="BC115" s="20">
+        <v>60.9907607257298</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -21093,15 +21418,18 @@
       </c>
       <c r="BB116" s="22">
         <v>28.6966840434592</v>
+      </c>
+      <c r="BC116" s="22">
+        <v>28.484241752197601</v>
       </c>
     </row>
     <row r="117" ht="24.000000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -21255,15 +21583,18 @@
       </c>
       <c r="BB117" s="20">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC117" s="20">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -21417,15 +21748,18 @@
       </c>
       <c r="BB118" s="22">
         <v>25.162180367263201</v>
+      </c>
+      <c r="BC118" s="22">
+        <v>25.398611764319799</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -21579,15 +21913,18 @@
       </c>
       <c r="BB119" s="20">
         <v>4003.0296454618501</v>
+      </c>
+      <c r="BC119" s="20">
+        <v>4011.2601241273001</v>
       </c>
     </row>
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -21741,15 +22078,18 @@
       </c>
       <c r="BB120" s="22">
         <v>1.2352850327629701</v>
+      </c>
+      <c r="BC120" s="22">
+        <v>1.2544934281194899</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -21903,15 +22243,18 @@
       </c>
       <c r="BB121" s="20">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC121" s="20">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -22065,15 +22408,18 @@
       </c>
       <c r="BB122" s="22">
         <v>13.154915383360899</v>
+      </c>
+      <c r="BC122" s="22">
+        <v>12.443886722374801</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -22227,15 +22573,18 @@
       </c>
       <c r="BB123" s="20">
         <v>89.428889455481198</v>
+      </c>
+      <c r="BC123" s="20">
+        <v>88.233540118837197</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -22358,46 +22707,49 @@
         <v>2044.2286967290399</v>
       </c>
       <c r="AR124" s="22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AS124" s="22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AT124" s="22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AU124" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AV124" s="22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AW124" s="22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AX124" s="22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AY124" s="22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AZ124" s="22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BA124" s="22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BB124" s="22" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="BC124" s="22" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -22551,15 +22903,18 @@
       </c>
       <c r="BB125" s="20">
         <v>21.314702598182901</v>
+      </c>
+      <c r="BC125" s="20">
+        <v>20.959716414850298</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -22713,15 +23068,18 @@
       </c>
       <c r="BB126" s="22">
         <v>1.95741330088708</v>
+      </c>
+      <c r="BC126" s="22">
+        <v>1.87594803160798</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -22875,15 +23233,18 @@
       </c>
       <c r="BB127" s="20">
         <v>167.40058867268499</v>
+      </c>
+      <c r="BC127" s="20" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -23037,15 +23398,18 @@
       </c>
       <c r="BB128" s="22">
         <v>147.40866294416099</v>
+      </c>
+      <c r="BC128" s="22">
+        <v>149.70083341632699</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -23199,15 +23563,18 @@
       </c>
       <c r="BB129" s="20">
         <v>2.1008713729984998</v>
+      </c>
+      <c r="BC129" s="20">
+        <v>2.0152855732297201</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -23357,19 +23724,22 @@
         <v>49.609658615622301</v>
       </c>
       <c r="BA130" s="22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="BB130" s="22" t="s">
-        <v>437</v>
+        <v>440</v>
+      </c>
+      <c r="BC130" s="22" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -23523,15 +23893,18 @@
       </c>
       <c r="BB131" s="20">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC131" s="20">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -23675,25 +24048,28 @@
         <v>581.30277410599001</v>
       </c>
       <c r="AY132" s="22" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AZ132" s="22" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="BA132" s="22" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="BB132" s="22" t="s">
-        <v>445</v>
+        <v>449</v>
+      </c>
+      <c r="BC132" s="22" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -23847,15 +24223,18 @@
       </c>
       <c r="BB133" s="20">
         <v>76.1863245135375</v>
+      </c>
+      <c r="BC133" s="20">
+        <v>77.443696459874403</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -24009,15 +24388,18 @@
       </c>
       <c r="BB134" s="22">
         <v>12.4272951507147</v>
+      </c>
+      <c r="BC134" s="22">
+        <v>12.2197163504703</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -24171,15 +24553,18 @@
       </c>
       <c r="BB135" s="20">
         <v>0.53870292958847699</v>
+      </c>
+      <c r="BC135" s="20">
+        <v>0.53150236841129395</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -24333,15 +24718,18 @@
       </c>
       <c r="BB136" s="22">
         <v>246.13889566306401</v>
+      </c>
+      <c r="BC136" s="22">
+        <v>248.680640080432</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -24495,15 +24883,18 @@
       </c>
       <c r="BB137" s="20">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC137" s="20">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -24657,15 +25048,18 @@
       </c>
       <c r="BB138" s="22">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC138" s="22">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -24818,16 +25212,19 @@
         <v>4.9113891224923698</v>
       </c>
       <c r="BB139" s="20" t="s">
-        <v>460</v>
+        <v>465</v>
+      </c>
+      <c r="BC139" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -24981,15 +25378,18 @@
       </c>
       <c r="BB140" s="22">
         <v>9759.91189017533</v>
+      </c>
+      <c r="BC140" s="22">
+        <v>9625.0228776114509</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -25143,15 +25543,18 @@
       </c>
       <c r="BB141" s="20">
         <v>5.3110924980077998</v>
+      </c>
+      <c r="BC141" s="20">
+        <v>5.16819716904212</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -25305,15 +25708,18 @@
       </c>
       <c r="BB142" s="22">
         <v>71.846671949501996</v>
+      </c>
+      <c r="BC142" s="22">
+        <v>71.982916056829893</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -25467,15 +25873,18 @@
       </c>
       <c r="BB143" s="20">
         <v>5.6260480729661602</v>
+      </c>
+      <c r="BC143" s="20">
+        <v>5.9725937144204897</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -25629,15 +26038,18 @@
       </c>
       <c r="BB144" s="22">
         <v>5.0998144699663399</v>
+      </c>
+      <c r="BC144" s="22">
+        <v>5.0316479090171899</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -25791,15 +26203,18 @@
       </c>
       <c r="BB145" s="20">
         <v>6.1099700284404399</v>
+      </c>
+      <c r="BC145" s="20">
+        <v>6.2078647237926701</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -25952,16 +26367,19 @@
         <v>106.196201883577</v>
       </c>
       <c r="BB146" s="22" t="s">
-        <v>475</v>
+        <v>481</v>
+      </c>
+      <c r="BC146" s="22" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -26115,15 +26533,18 @@
       </c>
       <c r="BB147" s="20">
         <v>1420.92471039476</v>
+      </c>
+      <c r="BC147" s="20">
+        <v>1408.0254241949001</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -26277,15 +26698,18 @@
       </c>
       <c r="BB148" s="22">
         <v>3.6841082089152799</v>
+      </c>
+      <c r="BC148" s="22">
+        <v>3.5829985850845101</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -26439,15 +26863,18 @@
       </c>
       <c r="BB149" s="20">
         <v>1.2352850327629701</v>
+      </c>
+      <c r="BC149" s="20">
+        <v>1.2544934281194899</v>
       </c>
     </row>
     <row r="150" ht="24.000000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -26567,49 +26994,52 @@
         <v>29.153641875437401</v>
       </c>
       <c r="AQ150" s="22" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AR150" s="22" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AS150" s="22" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AT150" s="22" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AU150" s="22" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AV150" s="22" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AW150" s="22" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AX150" s="22" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AY150" s="22" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AZ150" s="22" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="BA150" s="22" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="BB150" s="22" t="s">
-        <v>495</v>
+        <v>502</v>
+      </c>
+      <c r="BC150" s="22" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -26763,15 +27193,18 @@
       </c>
       <c r="BB151" s="20">
         <v>5.2539297424103797</v>
+      </c>
+      <c r="BC151" s="20">
+        <v>5.1837032029710102</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -26925,15 +27358,18 @@
       </c>
       <c r="BB152" s="22">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC152" s="22">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -27087,15 +27523,18 @@
       </c>
       <c r="BB153" s="20">
         <v>145.32818002845099</v>
+      </c>
+      <c r="BC153" s="20">
+        <v>147.62937904307699</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -27249,15 +27688,18 @@
       </c>
       <c r="BB154" s="22">
         <v>20.078549942882301</v>
+      </c>
+      <c r="BC154" s="22" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -27401,25 +27843,28 @@
         <v>15090.916670913201</v>
       </c>
       <c r="AY155" s="20" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AZ155" s="20" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="BA155" s="20" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="BB155" s="20" t="s">
-        <v>509</v>
+        <v>518</v>
+      </c>
+      <c r="BC155" s="20" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -27573,15 +28018,18 @@
       </c>
       <c r="BB156" s="22">
         <v>1.8867912490944101</v>
+      </c>
+      <c r="BC156" s="22">
+        <v>1.8789887370129299</v>
       </c>
     </row>
     <row r="157" ht="24.000000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -27735,15 +28183,18 @@
       </c>
       <c r="BB157" s="20">
         <v>2.5078757970438899</v>
+      </c>
+      <c r="BC157" s="20">
+        <v>2.47435432888483</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -27897,15 +28348,18 @@
       </c>
       <c r="BB158" s="22">
         <v>11.3427080038149</v>
+      </c>
+      <c r="BC158" s="22">
+        <v>11.131803675202899</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -27929,145 +28383,148 @@
         <v>33343.625668374101</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="L159" s="20" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="P159" s="20" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="R159" s="20" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="S159" s="20" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="T159" s="20" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="U159" s="20" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="V159" s="20" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="W159" s="20" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="X159" s="20" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="Y159" s="20" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="Z159" s="20" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="AA159" s="20" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="AB159" s="20" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="AC159" s="20" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AD159" s="20" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="AE159" s="20" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="AF159" s="20" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="AG159" s="20" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AH159" s="20" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="AI159" s="20" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="AJ159" s="20" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AK159" s="20" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AL159" s="20" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="AM159" s="20" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="AN159" s="20" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="AO159" s="20" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="AP159" s="20" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="AQ159" s="20" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="AR159" s="20" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="AS159" s="20" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="AT159" s="20" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="AU159" s="20" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="AV159" s="20" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="AW159" s="20" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="AX159" s="20" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AY159" s="20" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="AZ159" s="20" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="BA159" s="20" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="BB159" s="20" t="s">
-        <v>561</v>
+        <v>571</v>
+      </c>
+      <c r="BC159" s="20" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -28220,16 +28677,19 @@
         <v>21.683702826108</v>
       </c>
       <c r="BB160" s="22">
-        <v>21.336435324035101</v>
+        <v>21.314678652872701</v>
+      </c>
+      <c r="BC160" s="22">
+        <v>20.705235383801501</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -28379,19 +28839,22 @@
         <v>587.89376473551499</v>
       </c>
       <c r="BA161" s="20" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="BB161" s="20" t="s">
-        <v>567</v>
+        <v>578</v>
+      </c>
+      <c r="BC161" s="20" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -28511,49 +28974,52 @@
         <v>279.45170558869</v>
       </c>
       <c r="AQ162" s="22" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AR162" s="22" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="AS162" s="22" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="AT162" s="22" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="AU162" s="22" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AV162" s="22" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AW162" s="22" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AX162" s="22" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="AY162" s="22" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AZ162" s="22" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="BA162" s="22" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="BB162" s="22" t="s">
-        <v>581</v>
+        <v>593</v>
+      </c>
+      <c r="BC162" s="22" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -28707,15 +29173,18 @@
       </c>
       <c r="BB163" s="20">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC163" s="20">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -28869,15 +29338,18 @@
       </c>
       <c r="BB164" s="22">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC164" s="22">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -29031,15 +29503,18 @@
       </c>
       <c r="BB165" s="20">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC165" s="20">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -29168,40 +29643,43 @@
         <v>585.57667243982996</v>
       </c>
       <c r="AT166" s="22" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="AU166" s="22" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="AV166" s="22" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="AW166" s="22" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="AX166" s="22" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="AY166" s="22" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="AZ166" s="22" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="BA166" s="22" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="BB166" s="22" t="s">
-        <v>598</v>
+        <v>611</v>
+      </c>
+      <c r="BC166" s="22" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -29348,22 +29826,25 @@
         <v>30.2679071929497</v>
       </c>
       <c r="AZ167" s="20">
-        <v>30.117836570669201</v>
-      </c>
-      <c r="BA167" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="BB167" s="20" t="s">
-        <v>602</v>
+        <v>30.117841462851001</v>
+      </c>
+      <c r="BA167" s="20">
+        <v>30.068011663268699</v>
+      </c>
+      <c r="BB167" s="20">
+        <v>30.0818237760326</v>
+      </c>
+      <c r="BC167" s="20">
+        <v>29.695140997203101</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -29517,15 +29998,18 @@
       </c>
       <c r="BB168" s="22">
         <v>13.0137527990418</v>
+      </c>
+      <c r="BC168" s="22">
+        <v>13.231148499252701</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -29679,15 +30163,18 @@
       </c>
       <c r="BB169" s="20">
         <v>1.29269088430196</v>
+      </c>
+      <c r="BC169" s="20">
+        <v>1.28510222845495</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -29720,136 +30207,139 @@
         <v>611.21222523736901</v>
       </c>
       <c r="N170" s="22" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="O170" s="22" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="P170" s="22" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="Q170" s="22" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="R170" s="22" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="S170" s="22" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="T170" s="22" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="U170" s="22" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="V170" s="22" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="W170" s="22" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="X170" s="22" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="Y170" s="22" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="Z170" s="22" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AA170" s="22" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AB170" s="22" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AC170" s="22" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AD170" s="22" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AE170" s="22" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AF170" s="22" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AG170" s="22" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AH170" s="22" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AI170" s="22" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AJ170" s="22" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AK170" s="22" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AL170" s="22" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AM170" s="22" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AN170" s="22" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AO170" s="22" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AP170" s="22" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AQ170" s="22" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AR170" s="22" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AS170" s="22" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AT170" s="22" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AU170" s="22" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AV170" s="22" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AW170" s="22" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AX170" s="22" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AY170" s="22" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AZ170" s="22" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BA170" s="22" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BB170" s="22" t="s">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="BC170" s="22" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -30001,17 +30491,20 @@
       <c r="BA171" s="20">
         <v>38.742167017718003</v>
       </c>
-      <c r="BB171" s="20" t="s">
-        <v>652</v>
+      <c r="BB171" s="20">
+        <v>39.062617372838297</v>
+      </c>
+      <c r="BC171" s="20" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -30160,20 +30653,23 @@
       <c r="AZ172" s="22">
         <v>15.7904252612503</v>
       </c>
-      <c r="BA172" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="BB172" s="22" t="s">
-        <v>656</v>
+      <c r="BA172" s="22">
+        <v>15.817128668986699</v>
+      </c>
+      <c r="BB172" s="22">
+        <v>15.831841623796601</v>
+      </c>
+      <c r="BC172" s="22">
+        <v>17.337897544955801</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -30292,50 +30788,53 @@
       <c r="AP173" s="20">
         <v>3309.8222282216302</v>
       </c>
-      <c r="AQ173" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="AR173" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="AS173" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="AT173" s="20" t="s">
-        <v>662</v>
-      </c>
-      <c r="AU173" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="AV173" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="AW173" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="AX173" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="AY173" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="AZ173" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="BA173" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="BB173" s="20" t="s">
-        <v>670</v>
+      <c r="AQ173" s="20">
+        <v>3280.9975802783802</v>
+      </c>
+      <c r="AR173" s="20">
+        <v>3284.4261089504598</v>
+      </c>
+      <c r="AS173" s="20">
+        <v>3310.40889511042</v>
+      </c>
+      <c r="AT173" s="20">
+        <v>3299.7865571770099</v>
+      </c>
+      <c r="AU173" s="20">
+        <v>3272.2099786088302</v>
+      </c>
+      <c r="AV173" s="20">
+        <v>3269.1484933985098</v>
+      </c>
+      <c r="AW173" s="20">
+        <v>3266.2760265121301</v>
+      </c>
+      <c r="AX173" s="20">
+        <v>3242.3547604590799</v>
+      </c>
+      <c r="AY173" s="20">
+        <v>3219.7073131500902</v>
+      </c>
+      <c r="AZ173" s="20">
+        <v>3209.2145017355901</v>
+      </c>
+      <c r="BA173" s="20">
+        <v>3216.48120346822</v>
+      </c>
+      <c r="BB173" s="20">
+        <v>3219.8530416980102</v>
+      </c>
+      <c r="BC173" s="20">
+        <v>3177.1955635342802</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="C174" s="17" t="s">
         <v>671</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>672</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -30489,15 +30988,18 @@
       </c>
       <c r="BB174" s="22">
         <v>45.777744246430203</v>
+      </c>
+      <c r="BC174" s="22">
+        <v>45.954775988152001</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="C175" s="17" t="s">
         <v>673</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>674</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -30651,15 +31153,18 @@
       </c>
       <c r="BB175" s="20">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC175" s="20">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>675</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>676</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -30813,15 +31318,18 @@
       </c>
       <c r="BB176" s="22">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC176" s="22">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="C177" s="17" t="s">
         <v>677</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>678</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -30944,16 +31452,16 @@
         <v>3.2522030186566102</v>
       </c>
       <c r="AR177" s="20">
-        <v>3.2520146181954801</v>
+        <v>3.2476169575451901</v>
       </c>
       <c r="AS177" s="20">
-        <v>3.2451698528945201</v>
+        <v>3.24123998113765</v>
       </c>
       <c r="AT177" s="20">
-        <v>3.20476346633169</v>
+        <v>3.2075938064860399</v>
       </c>
       <c r="AU177" s="20">
-        <v>3.2088264692142601</v>
+        <v>3.2120335714349602</v>
       </c>
       <c r="AV177" s="20">
         <v>3.2182028488972101</v>
@@ -30962,28 +31470,31 @@
         <v>3.2009131752235298</v>
       </c>
       <c r="AX177" s="20">
-        <v>3.1801317563662002</v>
+        <v>3.1811175986057298</v>
       </c>
       <c r="AY177" s="20">
-        <v>3.1715805604242502</v>
+        <v>3.1700836472336</v>
       </c>
       <c r="AZ177" s="20">
-        <v>3.1590567475126301</v>
-      </c>
-      <c r="BA177" s="20" t="s">
+        <v>3.1928508028532998</v>
+      </c>
+      <c r="BA177" s="20">
+        <v>3.19455131208138</v>
+      </c>
+      <c r="BB177" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="BC177" s="20" t="s">
         <v>679</v>
-      </c>
-      <c r="BB177" s="20" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C178" s="17" t="s">
         <v>681</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>682</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -31137,15 +31648,18 @@
       </c>
       <c r="BB178" s="22">
         <v>9.4637985664089594</v>
+      </c>
+      <c r="BC178" s="22">
+        <v>9.3419819465218197</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C179" s="17" t="s">
         <v>683</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>684</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -31299,15 +31813,18 @@
       </c>
       <c r="BB179" s="20">
         <v>4.0420232818277197</v>
+      </c>
+      <c r="BC179" s="20">
+        <v>4.0967843153720498</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="C180" s="17" t="s">
         <v>685</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>686</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -31453,23 +31970,26 @@
       <c r="AY180" s="22">
         <v>14.8472570518938</v>
       </c>
-      <c r="AZ180" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="BA180" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="BB180" s="22" t="s">
-        <v>689</v>
+      <c r="AZ180" s="22">
+        <v>19.058876131015499</v>
+      </c>
+      <c r="BA180" s="22">
+        <v>18.940512639427901</v>
+      </c>
+      <c r="BB180" s="22">
+        <v>19.120441373077501</v>
+      </c>
+      <c r="BC180" s="22">
+        <v>20.187213094171501</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -31623,15 +32143,18 @@
       </c>
       <c r="BB181" s="20">
         <v>4923.9925407044302</v>
+      </c>
+      <c r="BC181" s="20">
+        <v>4962.3138366125504</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -31785,15 +32308,18 @@
       </c>
       <c r="BB182" s="22">
         <v>39.808905588435699</v>
+      </c>
+      <c r="BC182" s="22">
+        <v>40.4396583553591</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -31947,15 +32473,18 @@
       </c>
       <c r="BB183" s="20">
         <v>5.1453485277339004</v>
+      </c>
+      <c r="BC183" s="20">
+        <v>5.0765733367762804</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -32109,15 +32638,18 @@
       </c>
       <c r="BB184" s="22">
         <v>1.03516382805332</v>
+      </c>
+      <c r="BC184" s="22">
+        <v>1.0491341074196801</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -32271,15 +32803,18 @@
       </c>
       <c r="BB185" s="20">
         <v>1.40104793130943</v>
+      </c>
+      <c r="BC185" s="20">
+        <v>1.3823208541256</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -32431,17 +32966,20 @@
       <c r="BA186" s="22">
         <v>62.3096887345082</v>
       </c>
-      <c r="BB186" s="22" t="s">
-        <v>702</v>
+      <c r="BB186" s="22">
+        <v>60.495848626010002</v>
+      </c>
+      <c r="BC186" s="22">
+        <v>58.393379840827798</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -32595,15 +33133,18 @@
       </c>
       <c r="BB187" s="20">
         <v>15196.0445714456</v>
+      </c>
+      <c r="BC187" s="20">
+        <v>15497.1803673841</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -32750,22 +33291,25 @@
         <v>155.83999681520299</v>
       </c>
       <c r="AZ188" s="22" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="BA188" s="22" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="BB188" s="22" t="s">
-        <v>709</v>
+        <v>704</v>
+      </c>
+      <c r="BC188" s="22" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -32789,145 +33333,148 @@
         <v>118479.385723806</v>
       </c>
       <c r="K189" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="L189" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="M189" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="N189" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="O189" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="L189" s="20" t="s">
+      <c r="P189" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="M189" s="20" t="s">
+      <c r="Q189" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="N189" s="20" t="s">
+      <c r="R189" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="O189" s="20" t="s">
+      <c r="S189" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="P189" s="20" t="s">
+      <c r="T189" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="Q189" s="20" t="s">
+      <c r="U189" s="20" t="s">
         <v>718</v>
       </c>
-      <c r="R189" s="20" t="s">
+      <c r="V189" s="20" t="s">
         <v>719</v>
       </c>
-      <c r="S189" s="20" t="s">
+      <c r="W189" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="T189" s="20" t="s">
+      <c r="X189" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="U189" s="20" t="s">
+      <c r="Y189" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="V189" s="20" t="s">
+      <c r="Z189" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="W189" s="20" t="s">
+      <c r="AA189" s="20" t="s">
         <v>724</v>
       </c>
-      <c r="X189" s="20" t="s">
+      <c r="AB189" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="Y189" s="20" t="s">
+      <c r="AC189" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="Z189" s="20" t="s">
+      <c r="AD189" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="AA189" s="20" t="s">
+      <c r="AE189" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="AB189" s="20" t="s">
+      <c r="AF189" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="AC189" s="20" t="s">
+      <c r="AG189" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="AD189" s="20" t="s">
+      <c r="AH189" s="20" t="s">
         <v>731</v>
       </c>
-      <c r="AE189" s="20" t="s">
+      <c r="AI189" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="AF189" s="20" t="s">
+      <c r="AJ189" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="AG189" s="20" t="s">
+      <c r="AK189" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="AH189" s="20" t="s">
+      <c r="AL189" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="AI189" s="20" t="s">
+      <c r="AM189" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="AJ189" s="20" t="s">
+      <c r="AN189" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="AK189" s="20" t="s">
+      <c r="AO189" s="20" t="s">
         <v>738</v>
       </c>
-      <c r="AL189" s="20" t="s">
+      <c r="AP189" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="AM189" s="20" t="s">
+      <c r="AQ189" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="AN189" s="20" t="s">
+      <c r="AR189" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="AO189" s="20" t="s">
+      <c r="AS189" s="20" t="s">
         <v>742</v>
       </c>
-      <c r="AP189" s="20" t="s">
+      <c r="AT189" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="AQ189" s="20" t="s">
+      <c r="AU189" s="20" t="s">
         <v>744</v>
       </c>
-      <c r="AR189" s="20" t="s">
+      <c r="AV189" s="20" t="s">
         <v>745</v>
       </c>
-      <c r="AS189" s="20" t="s">
+      <c r="AW189" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="AT189" s="20" t="s">
+      <c r="AX189" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="AU189" s="20" t="s">
+      <c r="AY189" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="AV189" s="20" t="s">
+      <c r="AZ189" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="AW189" s="20" t="s">
+      <c r="BA189" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="AX189" s="20" t="s">
+      <c r="BB189" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="AY189" s="20" t="s">
+      <c r="BC189" s="20" t="s">
         <v>752</v>
-      </c>
-      <c r="AZ189" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="BA189" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="BB189" s="20" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -33081,15 +33628,18 @@
       </c>
       <c r="BB190" s="22">
         <v>32385.222932217599</v>
+      </c>
+      <c r="BC190" s="22">
+        <v>32004.7226802761</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -33243,15 +33793,18 @@
       </c>
       <c r="BB191" s="20">
         <v>1574.70281865263</v>
+      </c>
+      <c r="BC191" s="20">
+        <v>1715.12574750517</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -33403,59 +33956,62 @@
       <c r="BA192" s="22">
         <v>24.164503344917001</v>
       </c>
-      <c r="BB192" s="22" t="s">
-        <v>762</v>
+      <c r="BB192" s="22">
+        <v>25.354343295843702</v>
+      </c>
+      <c r="BC192" s="22" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
       </c>
       <c r="E193" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="F193" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="G193" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="H193" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="F193" s="20" t="s">
+      <c r="I193" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G193" s="20" t="s">
+      <c r="J193" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="H193" s="20" t="s">
+      <c r="K193" s="20" t="s">
         <v>768</v>
       </c>
-      <c r="I193" s="20" t="s">
+      <c r="L193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="J193" s="20" t="s">
+      <c r="M193" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="K193" s="20" t="s">
+      <c r="N193" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="L193" s="20" t="s">
+      <c r="O193" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="M193" s="20" t="s">
+      <c r="P193" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="N193" s="20" t="s">
+      <c r="Q193" s="20" t="s">
         <v>774</v>
-      </c>
-      <c r="O193" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="P193" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q193" s="20" t="s">
-        <v>777</v>
       </c>
       <c r="R193" s="20">
         <v>3.4824096119743699</v>
@@ -33567,15 +34123,18 @@
       </c>
       <c r="BB193" s="20">
         <v>167.022551868146</v>
+      </c>
+      <c r="BC193" s="20">
+        <v>183.978052820561</v>
       </c>
     </row>
     <row r="194" ht="24.000000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -33729,15 +34288,18 @@
       </c>
       <c r="BB194" s="22">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC194" s="22">
+        <v>822.89374562897899</v>
       </c>
     </row>
     <row r="195" ht="24.000000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -33891,15 +34453,18 @@
       </c>
       <c r="BB195" s="20">
         <v>3.7828294145354699</v>
+      </c>
+      <c r="BC195" s="20">
+        <v>3.7322663061391301</v>
       </c>
     </row>
     <row r="196" ht="24.000000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="23" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D196" s="25" t="str">
         <v/>
@@ -34053,6 +34618,9 @@
       </c>
       <c r="BB196" s="22">
         <v>810.29386423610003</v>
+      </c>
+      <c r="BC196" s="22">
+        <v>822.89374562897899</v>
       </c>
     </row>
   </sheetData>

--- a/FOREX/data/FOREX_4M.xlsx
+++ b/FOREX/data/FOREX_4M.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="820">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -185,6 +185,9 @@
     <t>2022M03</t>
   </si>
   <si>
+    <t>2022M04</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -233,6 +239,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Andorra, Principality of</t>
   </si>
   <si>
@@ -344,6 +353,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Anguilla</t>
   </si>
   <si>
@@ -386,6 +398,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Bahamas, The</t>
   </si>
   <si>
@@ -416,6 +431,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -446,12 +464,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -491,6 +515,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
@@ -566,6 +593,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Comoros, Union of the</t>
   </si>
   <si>
@@ -578,6 +608,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Congo, Rep. of</t>
   </si>
   <si>
@@ -719,6 +752,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -731,9 +767,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -755,6 +788,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -770,18 +806,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -842,6 +866,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -863,9 +890,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -914,6 +938,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -953,6 +980,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -983,6 +1013,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Kiribati</t>
   </si>
   <si>
@@ -1019,6 +1052,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -1058,6 +1094,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -1112,12 +1151,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -1142,6 +1187,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -1196,6 +1244,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -1226,6 +1277,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1244,6 +1298,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mozambique, Rep. of</t>
   </si>
   <si>
@@ -1292,6 +1349,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -1313,6 +1373,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -1340,6 +1403,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -1367,6 +1433,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>North Macedonia, Republic of</t>
   </si>
   <si>
@@ -1415,18 +1484,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -1463,12 +1541,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -1526,6 +1610,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1550,30 +1637,12 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -1592,6 +1661,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1733,6 +1805,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -1754,6 +1829,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -1799,6 +1877,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>St. Kitts and Nevis</t>
   </si>
   <si>
@@ -1853,12 +1934,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2003,6 +2090,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Taiwan Province of China</t>
   </si>
   <si>
@@ -2018,12 +2108,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -2072,6 +2168,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -2108,6 +2207,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Uzbekistan, Rep. of</t>
   </si>
   <si>
@@ -2132,6 +2234,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
@@ -2273,12 +2378,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Yemen, Rep. of</t>
   </si>
   <si>
@@ -2294,10 +2405,16 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -2860,9 +2977,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BC196"/>
+  <dimension ref="A1:BD196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -2923,6 +3040,7 @@
     <col min="53" max="53" width="9.710938" customWidth="1"/>
     <col min="54" max="54" width="9.710938" customWidth="1"/>
     <col min="55" max="55" width="9.710938" customWidth="1"/>
+    <col min="56" max="56" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2981,6 +3099,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -3040,6 +3159,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -3099,6 +3219,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -3156,6 +3277,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -3215,6 +3337,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -3272,6 +3395,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -3434,17 +3558,20 @@
       <c r="BB7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BC7" s="10" t="s">
+      <c r="BC7" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="BD7" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -3573,43 +3700,46 @@
         <v>111.60884510278601</v>
       </c>
       <c r="AT8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU8" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW8" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AY8" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AZ8" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BB8" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BC8" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="BD8" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3766,15 +3896,18 @@
       </c>
       <c r="BC9" s="20">
         <v>154.23936090333501</v>
+      </c>
+      <c r="BD9" s="20">
+        <v>152.40151790846201</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3931,117 +4064,120 @@
       </c>
       <c r="BC10" s="22">
         <v>196.965239719332</v>
+      </c>
+      <c r="BD10" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AH11" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AJ11" s="20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AK11" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AL11" s="20">
         <v>1.2007745785770401</v>
@@ -4096,15 +4232,18 @@
       </c>
       <c r="BC11" s="20">
         <v>1.2544934281194899</v>
+      </c>
+      <c r="BD11" s="20">
+        <v>1.26124205825958</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -4261,15 +4400,18 @@
       </c>
       <c r="BC12" s="22">
         <v>638.155261157626</v>
+      </c>
+      <c r="BD12" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -4426,15 +4568,18 @@
       </c>
       <c r="BC13" s="20">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD13" s="20">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -4591,15 +4736,18 @@
       </c>
       <c r="BC14" s="22">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD14" s="22">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -4756,15 +4904,18 @@
       </c>
       <c r="BC15" s="20">
         <v>151.163973467076</v>
+      </c>
+      <c r="BD15" s="20">
+        <v>154.51295231450999</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -4921,15 +5072,18 @@
       </c>
       <c r="BC16" s="22">
         <v>686.95314499470499</v>
+      </c>
+      <c r="BD16" s="22">
+        <v>642.67321601680896</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -5086,15 +5240,18 @@
       </c>
       <c r="BC17" s="20">
         <v>2.47435432888483</v>
+      </c>
+      <c r="BD17" s="20">
+        <v>2.4424632201284502</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -5251,15 +5408,18 @@
       </c>
       <c r="BC18" s="22">
         <v>1.87594803160798</v>
+      </c>
+      <c r="BD18" s="22">
+        <v>1.84454828286655</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -5416,15 +5576,18 @@
       </c>
       <c r="BC19" s="20">
         <v>2.3499454520135199</v>
+      </c>
+      <c r="BD19" s="20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -5581,15 +5744,18 @@
       </c>
       <c r="BC20" s="22">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD20" s="22">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -5746,15 +5912,18 @@
       </c>
       <c r="BC21" s="20">
         <v>0.51975264115122599</v>
+      </c>
+      <c r="BD21" s="20">
+        <v>0.51305372668619897</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -5911,15 +6080,18 @@
       </c>
       <c r="BC22" s="22">
         <v>118.961508764676</v>
+      </c>
+      <c r="BD22" s="22">
+        <v>117.66095808884501</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -6076,15 +6248,18 @@
       </c>
       <c r="BC23" s="20">
         <v>2.7646417082512</v>
+      </c>
+      <c r="BD23" s="20">
+        <v>2.7290091845010598</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -6241,15 +6416,18 @@
       </c>
       <c r="BC24" s="22">
         <v>4.4172062893583597</v>
+      </c>
+      <c r="BD24" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -6406,15 +6584,18 @@
       </c>
       <c r="BC25" s="20">
         <v>2.7646417082512</v>
+      </c>
+      <c r="BD25" s="20">
+        <v>2.7290091845010598</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -6571,15 +6752,18 @@
       </c>
       <c r="BC26" s="22">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD26" s="22">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -6736,15 +6920,18 @@
       </c>
       <c r="BC27" s="20">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD27" s="20">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -6901,15 +7088,18 @@
       </c>
       <c r="BC28" s="22">
         <v>105.394322867498</v>
+      </c>
+      <c r="BD28" s="22">
+        <v>103.950355301263</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -7066,15 +7256,18 @@
       </c>
       <c r="BC29" s="20">
         <v>9.5518371020079105</v>
+      </c>
+      <c r="BD29" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -7231,15 +7424,18 @@
       </c>
       <c r="BC30" s="22">
         <v>2.4550824128555702</v>
+      </c>
+      <c r="BD30" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -7396,15 +7592,18 @@
       </c>
       <c r="BC31" s="20">
         <v>16.00409615281</v>
+      </c>
+      <c r="BD31" s="20">
+        <v>15.9659317834642</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -7560,16 +7759,19 @@
         <v>7.2798155553378896</v>
       </c>
       <c r="BC32" s="22">
-        <v>6.9060212302894</v>
+        <v>6.8670684060187304</v>
+      </c>
+      <c r="BD32" s="22">
+        <v>6.4998327863475396</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -7726,15 +7928,18 @@
       </c>
       <c r="BC33" s="20">
         <v>1.8790548480103</v>
+      </c>
+      <c r="BD33" s="20">
+        <v>1.8641861739326699</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -7891,15 +8096,18 @@
       </c>
       <c r="BC34" s="22">
         <v>2.4543106765000098</v>
+      </c>
+      <c r="BD34" s="22">
+        <v>2.46497754590058</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -8056,15 +8264,18 @@
       </c>
       <c r="BC35" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD35" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -8220,16 +8431,19 @@
         <v>2820.7459121564898</v>
       </c>
       <c r="BC36" s="22" t="s">
-        <v>158</v>
+        <v>166</v>
+      </c>
+      <c r="BD36" s="22" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -8386,15 +8600,18 @@
       </c>
       <c r="BC37" s="20">
         <v>138.280106037015</v>
+      </c>
+      <c r="BD37" s="20">
+        <v>138.730819299622</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -8551,15 +8768,18 @@
       </c>
       <c r="BC38" s="22">
         <v>5620.1152739170602</v>
+      </c>
+      <c r="BD38" s="22">
+        <v>5553.3744982572198</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -8716,15 +8936,18 @@
       </c>
       <c r="BC39" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD39" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -8881,15 +9104,18 @@
       </c>
       <c r="BC40" s="22">
         <v>1.7497237068801801</v>
+      </c>
+      <c r="BD40" s="22">
+        <v>1.7233764816155399</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -9046,15 +9272,18 @@
       </c>
       <c r="BC41" s="20">
         <v>1.1519294373684901</v>
+      </c>
+      <c r="BD41" s="20">
+        <v>1.13708261186013</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -9211,15 +9440,18 @@
       </c>
       <c r="BC42" s="22">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD42" s="22">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -9376,15 +9608,18 @@
       </c>
       <c r="BC43" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD43" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -9541,15 +9776,18 @@
       </c>
       <c r="BC44" s="22">
         <v>1104.73339735424</v>
+      </c>
+      <c r="BD44" s="22">
+        <v>1112.2390767490299</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -9706,15 +9944,18 @@
       </c>
       <c r="BC45" s="20">
         <v>10.815278362678701</v>
+      </c>
+      <c r="BD45" s="20">
+        <v>10.7018095170209</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -9871,15 +10112,18 @@
       </c>
       <c r="BC46" s="22">
         <v>11.1372443890591</v>
+      </c>
+      <c r="BD46" s="22">
+        <v>11.0205045740915</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -10036,15 +10280,18 @@
       </c>
       <c r="BC47" s="20">
         <v>8.7706755671601897</v>
+      </c>
+      <c r="BD47" s="20">
+        <v>8.7785690206562492</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -10200,16 +10447,19 @@
         <v>5518.3573020860304</v>
       </c>
       <c r="BC48" s="22" t="s">
-        <v>183</v>
+        <v>192</v>
+      </c>
+      <c r="BD48" s="22" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -10366,15 +10616,18 @@
       </c>
       <c r="BC49" s="20">
         <v>617.17030922173501</v>
+      </c>
+      <c r="BD49" s="20">
+        <v>620.49041760733598</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -10531,15 +10784,18 @@
       </c>
       <c r="BC50" s="22">
         <v>2764.5199257839599</v>
+      </c>
+      <c r="BD50" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -10696,15 +10952,18 @@
       </c>
       <c r="BC51" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD51" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -10861,15 +11120,18 @@
       </c>
       <c r="BC52" s="22">
         <v>898.63876088790096</v>
+      </c>
+      <c r="BD52" s="22">
+        <v>898.70093058478199</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -11026,15 +11288,18 @@
       </c>
       <c r="BC53" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD53" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -11191,15 +11456,18 @@
       </c>
       <c r="BC54" s="22">
         <v>9.4899395388018792</v>
+      </c>
+      <c r="BD54" s="22">
+        <v>9.4976574109378795</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -11356,15 +11624,18 @@
       </c>
       <c r="BC55" s="20">
         <v>2.47435432888483</v>
+      </c>
+      <c r="BD55" s="20">
+        <v>2.4424632201284502</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -11521,15 +11792,18 @@
       </c>
       <c r="BC56" s="22">
         <v>2.47435432888483</v>
+      </c>
+      <c r="BD56" s="22">
+        <v>2.4424632201284502</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -11686,15 +11960,18 @@
       </c>
       <c r="BC57" s="20">
         <v>31.377301067796999</v>
+      </c>
+      <c r="BD57" s="20">
+        <v>30.828252252716201</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -11851,15 +12128,18 @@
       </c>
       <c r="BC58" s="22">
         <v>9.3342597995685406</v>
+      </c>
+      <c r="BD58" s="22">
+        <v>9.3872839989753292</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -12016,15 +12296,18 @@
       </c>
       <c r="BC59" s="20">
         <v>245.66744451605601</v>
+      </c>
+      <c r="BD59" s="20">
+        <v>242.501120639356</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -12181,15 +12464,18 @@
       </c>
       <c r="BC60" s="22">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD60" s="22">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -12346,15 +12632,18 @@
       </c>
       <c r="BC61" s="20">
         <v>76.192281390634506</v>
+      </c>
+      <c r="BD61" s="20">
+        <v>75.321881546362306</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -12511,15 +12800,18 @@
       </c>
       <c r="BC62" s="22">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD62" s="22">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -12674,17 +12966,20 @@
       <c r="BB63" s="20">
         <v>21.941622510766301</v>
       </c>
-      <c r="BC63" s="20" t="s">
-        <v>214</v>
+      <c r="BC63" s="20">
+        <v>23.0622144137939</v>
+      </c>
+      <c r="BD63" s="20" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -12841,15 +13136,18 @@
       </c>
       <c r="BC64" s="22">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD64" s="22">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -13006,15 +13304,18 @@
       </c>
       <c r="BC65" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD65" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -13171,15 +13472,18 @@
       </c>
       <c r="BC66" s="22">
         <v>20.838486875943499</v>
+      </c>
+      <c r="BD66" s="22">
+        <v>20.569906728176701</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -13336,15 +13640,18 @@
       </c>
       <c r="BC67" s="20">
         <v>20.705235383801501</v>
+      </c>
+      <c r="BD67" s="20">
+        <v>20.527939683811301</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -13473,43 +13780,46 @@
         <v>61.273317781734001</v>
       </c>
       <c r="AT68" s="22" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AU68" s="22" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AV68" s="22" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AW68" s="22" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AY68" s="22" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AZ68" s="22" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="BA68" s="22" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="BB68" s="22" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="BC68" s="22" t="s">
-        <v>234</v>
+        <v>245</v>
+      </c>
+      <c r="BD68" s="22" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -13666,15 +13976,18 @@
       </c>
       <c r="BC69" s="20">
         <v>1.2544934281194899</v>
+      </c>
+      <c r="BD69" s="20">
+        <v>1.26124205825958</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -13829,17 +14142,20 @@
       <c r="BB70" s="22">
         <v>2.9971217346571399</v>
       </c>
-      <c r="BC70" s="22" t="s">
-        <v>239</v>
+      <c r="BC70" s="22">
+        <v>2.9182175551445599</v>
+      </c>
+      <c r="BD70" s="22">
+        <v>2.8969796998070998</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -13996,15 +14312,18 @@
       </c>
       <c r="BC71" s="20">
         <v>149.70083341632699</v>
+      </c>
+      <c r="BD71" s="20">
+        <v>150.506158923615</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -14161,15 +14480,18 @@
       </c>
       <c r="BC72" s="22">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD72" s="22">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -14325,16 +14647,19 @@
         <v>73.929887793488305</v>
       </c>
       <c r="BC73" s="20" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="BD73" s="20" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -14491,15 +14816,18 @@
       </c>
       <c r="BC74" s="22">
         <v>4.4816224411606198</v>
+      </c>
+      <c r="BD74" s="22">
+        <v>4.1839804312178002</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -14634,37 +14962,40 @@
         <v>8.2331401255506798</v>
       </c>
       <c r="AV75" s="20">
-        <v>8.2806037243834094</v>
+        <v>8.2837315922783397</v>
       </c>
       <c r="AW75" s="20">
-        <v>8.3236277331806097</v>
+        <v>8.3239118645249803</v>
       </c>
       <c r="AX75" s="20">
-        <v>8.3097337506708993</v>
-      </c>
-      <c r="AY75" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AZ75" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA75" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="BB75" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="BC75" s="20" t="s">
-        <v>255</v>
+        <v>8.3088861646090209</v>
+      </c>
+      <c r="AY75" s="20">
+        <v>8.2939621694513193</v>
+      </c>
+      <c r="AZ75" s="20">
+        <v>8.3123759603191694</v>
+      </c>
+      <c r="BA75" s="20">
+        <v>8.4130327568210301</v>
+      </c>
+      <c r="BB75" s="20">
+        <v>8.8372499315273796</v>
+      </c>
+      <c r="BC75" s="20">
+        <v>9.7405238985960594</v>
+      </c>
+      <c r="BD75" s="20" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -14821,15 +15152,18 @@
       </c>
       <c r="BC76" s="22">
         <v>1.0491341074196801</v>
+      </c>
+      <c r="BD76" s="22">
+        <v>1.0544578969790499</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -14986,15 +15320,18 @@
       </c>
       <c r="BC77" s="20">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD77" s="20">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -15151,15 +15488,18 @@
       </c>
       <c r="BC78" s="22">
         <v>10.631740711272201</v>
+      </c>
+      <c r="BD78" s="22">
+        <v>10.4532854731114</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -15316,15 +15656,18 @@
       </c>
       <c r="BC79" s="20">
         <v>1.0491341074196801</v>
+      </c>
+      <c r="BD79" s="20">
+        <v>1.0544578969790499</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -15453,43 +15796,46 @@
         <v>14111.720714393399</v>
       </c>
       <c r="AT80" s="22" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AU80" s="22" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AV80" s="22" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AW80" s="22" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AX80" s="22" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AY80" s="22" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AZ80" s="22" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="BA80" s="22" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="BB80" s="22" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="BC80" s="22" t="s">
-        <v>275</v>
+        <v>283</v>
+      </c>
+      <c r="BD80" s="22" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -15646,15 +15992,18 @@
       </c>
       <c r="BC81" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD81" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -15809,17 +16158,20 @@
       <c r="BB82" s="22">
         <v>292.11849367801699</v>
       </c>
-      <c r="BC82" s="22" t="s">
-        <v>280</v>
+      <c r="BC82" s="22">
+        <v>288.21389808518802</v>
+      </c>
+      <c r="BD82" s="22" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -15972,19 +16324,22 @@
         <v>141.665203088944</v>
       </c>
       <c r="BB83" s="20">
-        <v>143.022895762275</v>
-      </c>
-      <c r="BC83" s="20" t="s">
-        <v>283</v>
+        <v>143.26006700516601</v>
+      </c>
+      <c r="BC83" s="20">
+        <v>144.30448814907001</v>
+      </c>
+      <c r="BD83" s="20">
+        <v>144.949413884504</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -16141,15 +16496,18 @@
       </c>
       <c r="BC84" s="22">
         <v>33.694323243119598</v>
+      </c>
+      <c r="BD84" s="22">
+        <v>33.208395515884199</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -16306,15 +16664,18 @@
       </c>
       <c r="BC85" s="20">
         <v>472.56020719137803</v>
+      </c>
+      <c r="BD85" s="20">
+        <v>472.95093671995602</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -16471,15 +16832,18 @@
       </c>
       <c r="BC86" s="22">
         <v>179.88742283803501</v>
+      </c>
+      <c r="BD86" s="22">
+        <v>176.512314053529</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -16636,15 +17000,18 @@
       </c>
       <c r="BC87" s="20">
         <v>105.394322867498</v>
+      </c>
+      <c r="BD87" s="20">
+        <v>103.950355301263</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -16801,15 +17168,18 @@
       </c>
       <c r="BC88" s="22">
         <v>19834.4230436855</v>
+      </c>
+      <c r="BD88" s="22">
+        <v>19606.210278533199</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -16966,15 +17336,18 @@
       </c>
       <c r="BC89" s="20">
         <v>58057.475873275303</v>
+      </c>
+      <c r="BD89" s="20">
+        <v>57309.192874522298</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -17127,19 +17500,22 @@
         <v>2029.6315548699699</v>
       </c>
       <c r="BB90" s="22" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BC90" s="22" t="s">
-        <v>299</v>
+        <v>307</v>
+      </c>
+      <c r="BD90" s="22" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -17296,15 +17672,18 @@
       </c>
       <c r="BC91" s="20">
         <v>1.0491341074196801</v>
+      </c>
+      <c r="BD91" s="20">
+        <v>1.0544578969790499</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -17461,15 +17840,18 @@
       </c>
       <c r="BC92" s="22">
         <v>4.4832614787447902</v>
+      </c>
+      <c r="BD92" s="22">
+        <v>4.4240271113189404</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -17607,34 +17989,37 @@
         <v>218.40300610627901</v>
       </c>
       <c r="AW93" s="20" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AX93" s="20" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AY93" s="20" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AZ93" s="20" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="BA93" s="20" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="BB93" s="20" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC93" s="20" t="s">
-        <v>312</v>
+        <v>321</v>
+      </c>
+      <c r="BD93" s="20" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -17791,15 +18176,18 @@
       </c>
       <c r="BC94" s="22">
         <v>163.81821609476401</v>
+      </c>
+      <c r="BD94" s="22">
+        <v>172.23426727477701</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -17956,15 +18344,18 @@
       </c>
       <c r="BC95" s="20">
         <v>1.0491341074196801</v>
+      </c>
+      <c r="BD95" s="20">
+        <v>1.0544578969790499</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -18121,15 +18512,18 @@
       </c>
       <c r="BC96" s="22">
         <v>0.98144780642917795</v>
+      </c>
+      <c r="BD96" s="22">
+        <v>0.96879826049787598</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -18286,15 +18680,18 @@
       </c>
       <c r="BC97" s="20">
         <v>687.26228225416696</v>
+      </c>
+      <c r="BD97" s="20">
+        <v>618.55722175900996</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -18451,15 +18848,18 @@
       </c>
       <c r="BC98" s="22">
         <v>158.021066834012</v>
+      </c>
+      <c r="BD98" s="22" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -18616,15 +19016,18 @@
       </c>
       <c r="BC99" s="20">
         <v>1.87594803160798</v>
+      </c>
+      <c r="BD99" s="20">
+        <v>1.84454828286655</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -18781,15 +19184,18 @@
       </c>
       <c r="BC100" s="22">
         <v>1687.8552325129799</v>
+      </c>
+      <c r="BD100" s="22">
+        <v>1681.53099015765</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -18946,15 +19352,18 @@
       </c>
       <c r="BC101" s="20">
         <v>1.2544934281194899</v>
+      </c>
+      <c r="BD101" s="20">
+        <v>1.26124205825958</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -19111,15 +19520,18 @@
       </c>
       <c r="BC102" s="22">
         <v>0.420091147348921</v>
+      </c>
+      <c r="BD102" s="22">
+        <v>0.41659930500928999</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -19276,15 +19688,18 @@
       </c>
       <c r="BC103" s="20">
         <v>136.51836874050599</v>
+      </c>
+      <c r="BD103" s="20">
+        <v>114.74830023127301</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -19441,15 +19856,18 @@
       </c>
       <c r="BC104" s="22">
         <v>15745.1371906193</v>
+      </c>
+      <c r="BD104" s="22" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -19606,15 +20024,18 @@
       </c>
       <c r="BC105" s="20">
         <v>2083.8486875943499</v>
+      </c>
+      <c r="BD105" s="20">
+        <v>2056.9906728176702</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -19771,15 +20192,18 @@
       </c>
       <c r="BC106" s="22">
         <v>20.705235383801501</v>
+      </c>
+      <c r="BD106" s="22">
+        <v>20.527939683811301</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -19917,34 +20341,37 @@
         <v>244.12468651827299</v>
       </c>
       <c r="AW107" s="20" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="AX107" s="20" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="AY107" s="20" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="AZ107" s="20" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BA107" s="20" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BB107" s="20" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BC107" s="20" t="s">
-        <v>347</v>
+        <v>359</v>
+      </c>
+      <c r="BD107" s="20" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -20055,61 +20482,64 @@
         <v>1.9381163522996301</v>
       </c>
       <c r="AN108" s="22" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AO108" s="22" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AP108" s="22" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="AQ108" s="22" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="AR108" s="22" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="AS108" s="22" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AT108" s="22" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="AU108" s="22" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="AV108" s="22" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="AW108" s="22" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="AX108" s="22" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="AY108" s="22" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="AZ108" s="22" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="BA108" s="22" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="BB108" s="22" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="BC108" s="22" t="s">
-        <v>365</v>
+        <v>378</v>
+      </c>
+      <c r="BD108" s="22" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -20266,15 +20696,18 @@
       </c>
       <c r="BC109" s="20">
         <v>5511.4030962542902</v>
+      </c>
+      <c r="BD109" s="20" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -20415,31 +20848,34 @@
         <v>1165.7044779849</v>
       </c>
       <c r="AX110" s="22" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="AY110" s="22" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AZ110" s="22" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="BA110" s="22" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="BB110" s="22" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="BC110" s="22" t="s">
-        <v>375</v>
+        <v>390</v>
+      </c>
+      <c r="BD110" s="22" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -20596,15 +21032,18 @@
       </c>
       <c r="BC111" s="20">
         <v>5.8065529394773199</v>
+      </c>
+      <c r="BD111" s="20">
+        <v>5.8218225833879602</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -20761,15 +21200,18 @@
       </c>
       <c r="BC112" s="22">
         <v>21.273917944992998</v>
+      </c>
+      <c r="BD112" s="22">
+        <v>20.995632160958898</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -20926,15 +21368,18 @@
       </c>
       <c r="BC113" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD113" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -21063,43 +21508,46 @@
         <v>51.80477936554</v>
       </c>
       <c r="AT114" s="22" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AU114" s="22" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="AV114" s="22" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="AW114" s="22" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="AX114" s="22" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="AY114" s="22" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="AZ114" s="22" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="BA114" s="22" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="BB114" s="22" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="BC114" s="22" t="s">
-        <v>393</v>
+        <v>409</v>
+      </c>
+      <c r="BD114" s="22" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -21256,15 +21704,18 @@
       </c>
       <c r="BC115" s="20">
         <v>60.9907607257298</v>
+      </c>
+      <c r="BD115" s="20">
+        <v>59.568539578370697</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -21421,15 +21872,18 @@
       </c>
       <c r="BC116" s="22">
         <v>28.484241752197601</v>
+      </c>
+      <c r="BD116" s="22">
+        <v>27.354905813142501</v>
       </c>
     </row>
     <row r="117" ht="24.000000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -21586,15 +22040,18 @@
       </c>
       <c r="BC117" s="20">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD117" s="20">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -21751,15 +22208,18 @@
       </c>
       <c r="BC118" s="22">
         <v>25.398611764319799</v>
+      </c>
+      <c r="BD118" s="22">
+        <v>25.1443037616779</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -21916,15 +22376,18 @@
       </c>
       <c r="BC119" s="20">
         <v>4011.2601241273001</v>
+      </c>
+      <c r="BD119" s="20" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -22081,15 +22544,18 @@
       </c>
       <c r="BC120" s="22">
         <v>1.2544934281194899</v>
+      </c>
+      <c r="BD120" s="22">
+        <v>1.26124205825958</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -22246,15 +22712,18 @@
       </c>
       <c r="BC121" s="20">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD121" s="20">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -22410,16 +22879,19 @@
         <v>13.154915383360899</v>
       </c>
       <c r="BC122" s="22">
-        <v>12.443886722374801</v>
+        <v>13.4560701324909</v>
+      </c>
+      <c r="BD122" s="22" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -22576,15 +23048,18 @@
       </c>
       <c r="BC123" s="20">
         <v>88.233540118837197</v>
+      </c>
+      <c r="BD123" s="20">
+        <v>87.096328123351299</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -22707,49 +23182,52 @@
         <v>2044.2286967290399</v>
       </c>
       <c r="AR124" s="22" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="AS124" s="22" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="AT124" s="22" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="AU124" s="22" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="AV124" s="22" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="AW124" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="AX124" s="22" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="AY124" s="22" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="AZ124" s="22" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="BA124" s="22" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="BB124" s="22" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="BC124" s="22" t="s">
-        <v>425</v>
+        <v>444</v>
+      </c>
+      <c r="BD124" s="22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -22905,16 +23383,19 @@
         <v>21.314702598182901</v>
       </c>
       <c r="BC125" s="20">
-        <v>20.959716414850298</v>
+        <v>20.705231145605701</v>
+      </c>
+      <c r="BD125" s="20">
+        <v>20.515872346323601</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -23071,15 +23552,18 @@
       </c>
       <c r="BC126" s="22">
         <v>1.87594803160798</v>
+      </c>
+      <c r="BD126" s="22">
+        <v>1.84454828286655</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -23235,16 +23719,19 @@
         <v>167.40058867268499</v>
       </c>
       <c r="BC127" s="20" t="s">
-        <v>432</v>
+        <v>452</v>
+      </c>
+      <c r="BD127" s="20" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -23401,15 +23888,18 @@
       </c>
       <c r="BC128" s="22">
         <v>149.70083341632699</v>
+      </c>
+      <c r="BD128" s="22">
+        <v>150.506158923615</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -23566,15 +24056,18 @@
       </c>
       <c r="BC129" s="20">
         <v>2.0152855732297201</v>
+      </c>
+      <c r="BD129" s="20">
+        <v>2.0119620212734102</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -23724,22 +24217,25 @@
         <v>49.609658615622301</v>
       </c>
       <c r="BA130" s="22" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="BB130" s="22" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="BC130" s="22" t="s">
-        <v>441</v>
+        <v>462</v>
+      </c>
+      <c r="BD130" s="22" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -23896,15 +24392,18 @@
       </c>
       <c r="BC131" s="20">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD131" s="20">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -24048,28 +24547,31 @@
         <v>581.30277410599001</v>
       </c>
       <c r="AY132" s="22" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="AZ132" s="22" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="BA132" s="22" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="BB132" s="22" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="BC132" s="22" t="s">
-        <v>450</v>
+        <v>472</v>
+      </c>
+      <c r="BD132" s="22" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -24226,15 +24728,18 @@
       </c>
       <c r="BC133" s="20">
         <v>77.443696459874403</v>
+      </c>
+      <c r="BD133" s="20">
+        <v>77.464699558032507</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -24391,15 +24896,18 @@
       </c>
       <c r="BC134" s="22">
         <v>12.2197163504703</v>
+      </c>
+      <c r="BD134" s="22">
+        <v>12.1583780367603</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -24556,15 +25064,18 @@
       </c>
       <c r="BC135" s="20">
         <v>0.53150236841129395</v>
+      </c>
+      <c r="BD135" s="20">
+        <v>0.52465201572032905</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -24721,15 +25232,18 @@
       </c>
       <c r="BC136" s="22">
         <v>248.680640080432</v>
+      </c>
+      <c r="BD136" s="22">
+        <v>252.222776844621</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -24886,15 +25400,18 @@
       </c>
       <c r="BC137" s="20">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD137" s="20">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -25051,15 +25568,18 @@
       </c>
       <c r="BC138" s="22">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD138" s="22">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -25212,19 +25732,22 @@
         <v>4.9113891224923698</v>
       </c>
       <c r="BB139" s="20" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="BC139" s="20" t="s">
-        <v>466</v>
+        <v>489</v>
+      </c>
+      <c r="BD139" s="20" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -25381,15 +25904,18 @@
       </c>
       <c r="BC140" s="22">
         <v>9625.0228776114509</v>
+      </c>
+      <c r="BD140" s="22" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -25546,15 +26072,18 @@
       </c>
       <c r="BC141" s="20">
         <v>5.16819716904212</v>
+      </c>
+      <c r="BD141" s="20" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -25711,15 +26240,18 @@
       </c>
       <c r="BC142" s="22">
         <v>71.982916056829893</v>
+      </c>
+      <c r="BD142" s="22">
+        <v>70.921490686813499</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -25876,15 +26408,18 @@
       </c>
       <c r="BC143" s="20">
         <v>5.9725937144204897</v>
+      </c>
+      <c r="BD143" s="20">
+        <v>5.8535882502955499</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -26041,15 +26576,18 @@
       </c>
       <c r="BC144" s="22">
         <v>5.0316479090171899</v>
+      </c>
+      <c r="BD144" s="22">
+        <v>4.9667967157919302</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -26206,15 +26744,18 @@
       </c>
       <c r="BC145" s="20">
         <v>6.2078647237926701</v>
+      </c>
+      <c r="BD145" s="20">
+        <v>6.2273260581129701</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -26367,19 +26908,22 @@
         <v>106.196201883577</v>
       </c>
       <c r="BB146" s="22" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="BC146" s="22" t="s">
-        <v>482</v>
+        <v>508</v>
+      </c>
+      <c r="BD146" s="22" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -26536,15 +27080,18 @@
       </c>
       <c r="BC147" s="20">
         <v>1408.0254241949001</v>
+      </c>
+      <c r="BD147" s="20" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -26701,15 +27248,18 @@
       </c>
       <c r="BC148" s="22">
         <v>3.5829985850845101</v>
+      </c>
+      <c r="BD148" s="22">
+        <v>3.54926240711344</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -26866,15 +27416,18 @@
       </c>
       <c r="BC149" s="20">
         <v>1.2544934281194899</v>
+      </c>
+      <c r="BD149" s="20">
+        <v>1.26124205825958</v>
       </c>
     </row>
     <row r="150" ht="24.000000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -26994,52 +27547,55 @@
         <v>29.153641875437401</v>
       </c>
       <c r="AQ150" s="22" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="AR150" s="22" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="AS150" s="22" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="AT150" s="22" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="AU150" s="22" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="AV150" s="22" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="AW150" s="22" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="AX150" s="22" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="AY150" s="22" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="AZ150" s="22" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="BA150" s="22" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="BB150" s="22" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="BC150" s="22" t="s">
-        <v>503</v>
+        <v>531</v>
+      </c>
+      <c r="BD150" s="22" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -27196,15 +27752,18 @@
       </c>
       <c r="BC151" s="20">
         <v>5.1837032029710102</v>
+      </c>
+      <c r="BD151" s="20">
+        <v>5.1168922209394898</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -27361,15 +27920,18 @@
       </c>
       <c r="BC152" s="22">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD152" s="22">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -27526,15 +28088,18 @@
       </c>
       <c r="BC153" s="20">
         <v>147.62937904307699</v>
+      </c>
+      <c r="BD153" s="20">
+        <v>148.39151181275599</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -27689,17 +28254,20 @@
       <c r="BB154" s="22">
         <v>20.078549942882301</v>
       </c>
-      <c r="BC154" s="22" t="s">
-        <v>512</v>
+      <c r="BC154" s="22">
+        <v>19.811693625663601</v>
+      </c>
+      <c r="BD154" s="22">
+        <v>19.554162260985201</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -27840,31 +28408,34 @@
         <v>14884.604051889601</v>
       </c>
       <c r="AX155" s="20">
-        <v>15090.916670913201</v>
-      </c>
-      <c r="AY155" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="AZ155" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA155" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="BB155" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="BC155" s="20" t="s">
-        <v>519</v>
+        <v>15090.9205556826</v>
+      </c>
+      <c r="AY155" s="20">
+        <v>15440.560356092799</v>
+      </c>
+      <c r="AZ155" s="20">
+        <v>15689.373752052101</v>
+      </c>
+      <c r="BA155" s="20">
+        <v>15890.6058804472</v>
+      </c>
+      <c r="BB155" s="20">
+        <v>16169.1398575943</v>
+      </c>
+      <c r="BC155" s="20">
+        <v>16233.9380970276</v>
+      </c>
+      <c r="BD155" s="20">
+        <v>16701.413403733201</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -28021,15 +28592,18 @@
       </c>
       <c r="BC156" s="22">
         <v>1.8789887370129299</v>
+      </c>
+      <c r="BD156" s="22">
+        <v>1.86336747117732</v>
       </c>
     </row>
     <row r="157" ht="24.000000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -28186,15 +28760,18 @@
       </c>
       <c r="BC157" s="20">
         <v>2.47435432888483</v>
+      </c>
+      <c r="BD157" s="20">
+        <v>2.4424632201284502</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -28351,15 +28928,18 @@
       </c>
       <c r="BC158" s="22">
         <v>11.131803675202899</v>
+      </c>
+      <c r="BD158" s="22" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -28383,148 +28963,151 @@
         <v>33343.625668374101</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="L159" s="20" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="P159" s="20" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="R159" s="20" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="S159" s="20" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="T159" s="20" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="U159" s="20" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="V159" s="20" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="W159" s="20" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="X159" s="20" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="Y159" s="20" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="Z159" s="20" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="AA159" s="20" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="AB159" s="20" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="AC159" s="20" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="AD159" s="20" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="AE159" s="20" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="AF159" s="20" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="AG159" s="20" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="AH159" s="20" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="AI159" s="20" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="AJ159" s="20" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="AK159" s="20" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="AL159" s="20" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="AM159" s="20" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="AN159" s="20" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="AO159" s="20" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="AP159" s="20" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="AQ159" s="20" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="AR159" s="20" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="AS159" s="20" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="AT159" s="20" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="AU159" s="20" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="AV159" s="20" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="AW159" s="20" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="AX159" s="20" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="AY159" s="20" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="AZ159" s="20" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="BA159" s="20" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="BB159" s="20" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="BC159" s="20" t="s">
-        <v>572</v>
+        <v>596</v>
+      </c>
+      <c r="BD159" s="20" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -28681,15 +29264,18 @@
       </c>
       <c r="BC160" s="22">
         <v>20.705235383801501</v>
+      </c>
+      <c r="BD160" s="22">
+        <v>20.527939683811301</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -28839,22 +29425,25 @@
         <v>587.89376473551499</v>
       </c>
       <c r="BA161" s="20" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="BB161" s="20" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="BC161" s="20" t="s">
-        <v>579</v>
+        <v>604</v>
+      </c>
+      <c r="BD161" s="20" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -28974,52 +29563,55 @@
         <v>279.45170558869</v>
       </c>
       <c r="AQ162" s="22" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="AR162" s="22" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="AS162" s="22" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="AT162" s="22" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="AU162" s="22" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="AV162" s="22" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="AW162" s="22" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="AX162" s="22" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="AY162" s="22" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="AZ162" s="22" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="BA162" s="22" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="BB162" s="22" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="BC162" s="22" t="s">
-        <v>594</v>
+        <v>620</v>
+      </c>
+      <c r="BD162" s="22" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -29176,15 +29768,18 @@
       </c>
       <c r="BC163" s="20">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD163" s="20">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -29341,15 +29936,18 @@
       </c>
       <c r="BC164" s="22">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD164" s="22">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -29506,15 +30104,18 @@
       </c>
       <c r="BC165" s="20">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD165" s="20">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -29643,43 +30244,46 @@
         <v>585.57667243982996</v>
       </c>
       <c r="AT166" s="22" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="AU166" s="22" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="AV166" s="22" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="AW166" s="22" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="AX166" s="22" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="AY166" s="22" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="AZ166" s="22" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="BA166" s="22" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="BB166" s="22" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="BC166" s="22" t="s">
-        <v>612</v>
+        <v>639</v>
+      </c>
+      <c r="BD166" s="22" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -29836,15 +30440,18 @@
       </c>
       <c r="BC167" s="20">
         <v>29.695140997203101</v>
+      </c>
+      <c r="BD167" s="20" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -30001,15 +30608,18 @@
       </c>
       <c r="BC168" s="22">
         <v>13.231148499252701</v>
+      </c>
+      <c r="BD168" s="22">
+        <v>13.015707678146899</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -30166,15 +30776,18 @@
       </c>
       <c r="BC169" s="20">
         <v>1.28510222845495</v>
+      </c>
+      <c r="BD169" s="20">
+        <v>1.2894568396767501</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -30207,139 +30820,142 @@
         <v>611.21222523736901</v>
       </c>
       <c r="N170" s="22" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="O170" s="22" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="P170" s="22" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="Q170" s="22" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="R170" s="22" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="S170" s="22" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="T170" s="22" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="U170" s="22" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="V170" s="22" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="W170" s="22" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="X170" s="22" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="Y170" s="22" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="Z170" s="22" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="AA170" s="22" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="AB170" s="22" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="AC170" s="22" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="AD170" s="22" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="AE170" s="22" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="AF170" s="22" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="AG170" s="22" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="AH170" s="22" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="AI170" s="22" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="AJ170" s="22" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="AK170" s="22" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="AL170" s="22" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="AM170" s="22" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="AN170" s="22" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="AO170" s="22" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="AP170" s="22" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="AQ170" s="22" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="AR170" s="22" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="AS170" s="22" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="AT170" s="22" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="AU170" s="22" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="AV170" s="22" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="AW170" s="22" t="s">
-        <v>656</v>
+        <v>685</v>
       </c>
       <c r="AX170" s="22" t="s">
-        <v>657</v>
+        <v>686</v>
       </c>
       <c r="AY170" s="22" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
       <c r="AZ170" s="22" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="BA170" s="22" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
       <c r="BB170" s="22" t="s">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="BC170" s="22" t="s">
-        <v>662</v>
+        <v>691</v>
+      </c>
+      <c r="BD170" s="22" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -30494,17 +31110,20 @@
       <c r="BB171" s="20">
         <v>39.062617372838297</v>
       </c>
-      <c r="BC171" s="20" t="s">
-        <v>665</v>
+      <c r="BC171" s="20">
+        <v>39.314587412186199</v>
+      </c>
+      <c r="BD171" s="20" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -30661,15 +31280,18 @@
       </c>
       <c r="BC172" s="22">
         <v>17.337897544955801</v>
+      </c>
+      <c r="BD172" s="22" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>669</v>
+        <v>700</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -30826,15 +31448,18 @@
       </c>
       <c r="BC173" s="20">
         <v>3177.1955635342802</v>
+      </c>
+      <c r="BD173" s="20" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -30991,15 +31616,18 @@
       </c>
       <c r="BC174" s="22">
         <v>45.954775988152001</v>
+      </c>
+      <c r="BD174" s="22">
+        <v>46.137391790446998</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -31156,15 +31784,18 @@
       </c>
       <c r="BC175" s="20">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD175" s="20">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -31321,15 +31952,18 @@
       </c>
       <c r="BC176" s="22">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD176" s="22">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -31481,20 +32115,23 @@
       <c r="BA177" s="20">
         <v>3.19455131208138</v>
       </c>
-      <c r="BB177" s="20" t="s">
-        <v>678</v>
+      <c r="BB177" s="20">
+        <v>3.21015757740573</v>
       </c>
       <c r="BC177" s="20" t="s">
-        <v>679</v>
+        <v>710</v>
+      </c>
+      <c r="BD177" s="20" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -31651,15 +32288,18 @@
       </c>
       <c r="BC178" s="22">
         <v>9.3419819465218197</v>
+      </c>
+      <c r="BD178" s="22">
+        <v>9.2172815847198102</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -31816,15 +32456,18 @@
       </c>
       <c r="BC179" s="20">
         <v>4.0967843153720498</v>
+      </c>
+      <c r="BD179" s="20">
+        <v>4.1306283016608001</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -31981,15 +32624,18 @@
       </c>
       <c r="BC180" s="22">
         <v>20.187213094171501</v>
+      </c>
+      <c r="BD180" s="22" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -32146,15 +32792,18 @@
       </c>
       <c r="BC181" s="20">
         <v>4962.3138366125504</v>
+      </c>
+      <c r="BD181" s="20">
+        <v>4832.3331268648099</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -32311,15 +32960,18 @@
       </c>
       <c r="BC182" s="22">
         <v>40.4396583553591</v>
+      </c>
+      <c r="BD182" s="22">
+        <v>39.918445395829998</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -32476,15 +33128,18 @@
       </c>
       <c r="BC183" s="20">
         <v>5.0765733367762804</v>
+      </c>
+      <c r="BD183" s="20">
+        <v>5.0111431150400696</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -32641,15 +33296,18 @@
       </c>
       <c r="BC184" s="22">
         <v>1.0491341074196801</v>
+      </c>
+      <c r="BD184" s="22">
+        <v>1.0544578969790499</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -32806,15 +33464,18 @@
       </c>
       <c r="BC185" s="20">
         <v>1.3823208541256</v>
+      </c>
+      <c r="BD185" s="20">
+        <v>1.3645045922505299</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -32971,15 +33632,18 @@
       </c>
       <c r="BC186" s="22">
         <v>58.393379840827798</v>
+      </c>
+      <c r="BD186" s="22" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -33136,15 +33800,18 @@
       </c>
       <c r="BC187" s="20">
         <v>15497.1803673841</v>
+      </c>
+      <c r="BD187" s="20">
+        <v>15438.911442606601</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -33291,25 +33958,28 @@
         <v>155.83999681520299</v>
       </c>
       <c r="AZ188" s="22" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="BA188" s="22" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="BB188" s="22" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="BC188" s="22" t="s">
-        <v>705</v>
+        <v>739</v>
+      </c>
+      <c r="BD188" s="22" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -33333,148 +34003,151 @@
         <v>118479.385723806</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="L189" s="20" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="M189" s="20" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="N189" s="20" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="O189" s="20" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="P189" s="20" t="s">
-        <v>713</v>
+        <v>748</v>
       </c>
       <c r="Q189" s="20" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="R189" s="20" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="S189" s="20" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="T189" s="20" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="U189" s="20" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="V189" s="20" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
       <c r="W189" s="20" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="X189" s="20" t="s">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="Y189" s="20" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="Z189" s="20" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
       <c r="AA189" s="20" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="AB189" s="20" t="s">
-        <v>725</v>
+        <v>760</v>
       </c>
       <c r="AC189" s="20" t="s">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="AD189" s="20" t="s">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="AE189" s="20" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="AF189" s="20" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="AG189" s="20" t="s">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="AH189" s="20" t="s">
-        <v>731</v>
+        <v>766</v>
       </c>
       <c r="AI189" s="20" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
       <c r="AJ189" s="20" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="AK189" s="20" t="s">
-        <v>734</v>
+        <v>769</v>
       </c>
       <c r="AL189" s="20" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="AM189" s="20" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="AN189" s="20" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="AO189" s="20" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="AP189" s="20" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="AQ189" s="20" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="AR189" s="20" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="AS189" s="20" t="s">
-        <v>742</v>
+        <v>777</v>
       </c>
       <c r="AT189" s="20" t="s">
-        <v>743</v>
+        <v>778</v>
       </c>
       <c r="AU189" s="20" t="s">
-        <v>744</v>
+        <v>779</v>
       </c>
       <c r="AV189" s="20" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="AW189" s="20" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
       <c r="AX189" s="20" t="s">
-        <v>747</v>
+        <v>782</v>
       </c>
       <c r="AY189" s="20" t="s">
-        <v>748</v>
+        <v>783</v>
       </c>
       <c r="AZ189" s="20" t="s">
-        <v>749</v>
+        <v>784</v>
       </c>
       <c r="BA189" s="20" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="BB189" s="20" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
       <c r="BC189" s="20" t="s">
-        <v>752</v>
+        <v>787</v>
+      </c>
+      <c r="BD189" s="20" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>753</v>
+        <v>789</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -33631,15 +34304,18 @@
       </c>
       <c r="BC190" s="22">
         <v>32004.7226802761</v>
+      </c>
+      <c r="BD190" s="22" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>755</v>
+        <v>792</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>756</v>
+        <v>793</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -33796,15 +34472,18 @@
       </c>
       <c r="BC191" s="20">
         <v>1715.12574750517</v>
+      </c>
+      <c r="BD191" s="20">
+        <v>1317.38370033148</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>758</v>
+        <v>795</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -33960,58 +34639,61 @@
         <v>25.354343295843702</v>
       </c>
       <c r="BC192" s="22" t="s">
-        <v>759</v>
+        <v>796</v>
+      </c>
+      <c r="BD192" s="22" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>760</v>
+        <v>798</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>761</v>
+        <v>799</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
       </c>
       <c r="E193" s="19" t="s">
-        <v>762</v>
+        <v>800</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>763</v>
+        <v>801</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>764</v>
+        <v>802</v>
       </c>
       <c r="H193" s="20" t="s">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>766</v>
+        <v>804</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>767</v>
+        <v>805</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>768</v>
+        <v>806</v>
       </c>
       <c r="L193" s="20" t="s">
-        <v>769</v>
+        <v>807</v>
       </c>
       <c r="M193" s="20" t="s">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>771</v>
+        <v>809</v>
       </c>
       <c r="O193" s="20" t="s">
-        <v>772</v>
+        <v>810</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="Q193" s="20" t="s">
-        <v>774</v>
+        <v>812</v>
       </c>
       <c r="R193" s="20">
         <v>3.4824096119743699</v>
@@ -34126,15 +34808,18 @@
       </c>
       <c r="BC193" s="20">
         <v>183.978052820561</v>
+      </c>
+      <c r="BD193" s="20" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="194" ht="24.000000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>776</v>
+        <v>815</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -34291,15 +34976,18 @@
       </c>
       <c r="BC194" s="22">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD194" s="22">
+        <v>827.32055680978203</v>
       </c>
     </row>
     <row r="195" ht="24.000000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>778</v>
+        <v>817</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -34456,15 +35144,18 @@
       </c>
       <c r="BC195" s="20">
         <v>3.7322663061391301</v>
+      </c>
+      <c r="BD195" s="20">
+        <v>3.6841623990764298</v>
       </c>
     </row>
     <row r="196" ht="24.000000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="23" t="s">
-        <v>779</v>
+        <v>818</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="D196" s="25" t="str">
         <v/>
@@ -34621,6 +35312,9 @@
       </c>
       <c r="BC196" s="22">
         <v>822.89374562897899</v>
+      </c>
+      <c r="BD196" s="22">
+        <v>827.32055680978203</v>
       </c>
     </row>
   </sheetData>

--- a/FOREX/data/FOREX_4M.xlsx
+++ b/FOREX/data/FOREX_4M.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -188,6 +188,9 @@
     <t>2022M04</t>
   </si>
   <si>
+    <t>2022M05</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -239,9 +245,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Andorra, Principality of</t>
   </si>
   <si>
@@ -374,6 +377,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Armenia, Rep. of</t>
   </si>
   <si>
@@ -518,18 +524,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
@@ -596,6 +611,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Comoros, Union of the</t>
   </si>
   <si>
@@ -608,9 +626,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Congo, Rep. of</t>
   </si>
   <si>
@@ -623,6 +638,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Côte d'Ivoire</t>
   </si>
   <si>
@@ -677,6 +695,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -692,6 +713,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -755,6 +779,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -791,6 +818,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -806,6 +836,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -869,6 +902,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -890,6 +926,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -902,6 +941,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -941,6 +983,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -983,6 +1028,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -1013,9 +1061,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Kiribati</t>
   </si>
   <si>
@@ -1046,6 +1091,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lao People's Dem. Rep.</t>
   </si>
   <si>
@@ -1055,6 +1103,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -1097,6 +1148,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -1154,15 +1208,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -1190,6 +1244,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -1247,6 +1304,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -1271,6 +1331,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -1280,6 +1343,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1307,6 +1373,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
@@ -1352,6 +1421,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -1373,9 +1445,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -1406,6 +1475,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -1436,12 +1508,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -1487,6 +1565,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -1496,6 +1577,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -1505,6 +1589,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -1535,15 +1622,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
@@ -1553,6 +1631,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -1613,6 +1694,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1643,6 +1727,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -1664,6 +1751,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1808,6 +1898,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -1832,6 +1925,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -1880,6 +1976,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>St. Kitts and Nevis</t>
   </si>
   <si>
@@ -1937,6 +2036,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
@@ -1946,6 +2048,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2093,6 +2198,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Taiwan Province of China</t>
   </si>
   <si>
@@ -2120,6 +2228,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -2225,18 +2336,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
@@ -2381,6 +2480,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
@@ -2390,6 +2492,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Yemen, Rep. of</t>
   </si>
   <si>
@@ -2405,13 +2510,13 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -2977,9 +3082,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BD196"/>
+  <dimension ref="A1:BE196"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -3041,6 +3146,7 @@
     <col min="54" max="54" width="9.710938" customWidth="1"/>
     <col min="55" max="55" width="9.710938" customWidth="1"/>
     <col min="56" max="56" width="9.710938" customWidth="1"/>
+    <col min="57" max="57" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -3100,6 +3206,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -3160,6 +3267,7 @@
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -3220,6 +3328,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -3278,6 +3387,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -3338,6 +3448,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -3396,6 +3507,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -3561,17 +3673,20 @@
       <c r="BC7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BD7" s="10" t="s">
+      <c r="BD7" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -3700,46 +3815,49 @@
         <v>111.60884510278601</v>
       </c>
       <c r="AT8" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU8" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW8" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AY8" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AZ8" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BB8" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BC8" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BD8" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="BE8" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3899,15 +4017,18 @@
       </c>
       <c r="BD9" s="20">
         <v>152.40151790846201</v>
+      </c>
+      <c r="BE9" s="20">
+        <v>152.89885096852001</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -4065,119 +4186,122 @@
       <c r="BC10" s="22">
         <v>196.965239719332</v>
       </c>
-      <c r="BD10" s="22" t="s">
-        <v>75</v>
+      <c r="BD10" s="22">
+        <v>195.899741102061</v>
+      </c>
+      <c r="BE10" s="22">
+        <v>195.34485487698001</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH11" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ11" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK11" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL11" s="20">
         <v>1.2007745785770401</v>
@@ -4235,15 +4359,18 @@
       </c>
       <c r="BD11" s="20">
         <v>1.26124205825958</v>
+      </c>
+      <c r="BE11" s="20">
+        <v>1.2685392701062199</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -4401,17 +4528,20 @@
       <c r="BC12" s="22">
         <v>638.155261157626</v>
       </c>
-      <c r="BD12" s="22" t="s">
-        <v>113</v>
+      <c r="BD12" s="22">
+        <v>573.87530878564201</v>
+      </c>
+      <c r="BE12" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -4571,15 +4701,18 @@
       </c>
       <c r="BD13" s="20">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE13" s="20">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -4739,15 +4872,18 @@
       </c>
       <c r="BD14" s="22">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE14" s="22">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -4907,15 +5043,18 @@
       </c>
       <c r="BD15" s="20">
         <v>154.51295231450999</v>
+      </c>
+      <c r="BE15" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -5075,15 +5214,18 @@
       </c>
       <c r="BD16" s="22">
         <v>642.67321601680896</v>
+      </c>
+      <c r="BE16" s="22">
+        <v>612.63827073291395</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -5243,15 +5385,18 @@
       </c>
       <c r="BD17" s="20">
         <v>2.4424632201284502</v>
+      </c>
+      <c r="BE17" s="20">
+        <v>2.4020444377185401</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -5411,15 +5556,18 @@
       </c>
       <c r="BD18" s="22">
         <v>1.84454828286655</v>
+      </c>
+      <c r="BE18" s="22">
+        <v>1.9028988469680499</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -5577,17 +5725,20 @@
       <c r="BC19" s="20">
         <v>2.3499454520135199</v>
       </c>
-      <c r="BD19" s="20" t="s">
-        <v>128</v>
+      <c r="BD19" s="20">
+        <v>2.3196578068259002</v>
+      </c>
+      <c r="BE19" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -5747,15 +5898,18 @@
       </c>
       <c r="BD20" s="22">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE20" s="22">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -5915,15 +6069,18 @@
       </c>
       <c r="BD21" s="20">
         <v>0.51305372668619897</v>
+      </c>
+      <c r="BE21" s="20">
+        <v>0.504563524347582</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -6083,15 +6240,18 @@
       </c>
       <c r="BD22" s="22">
         <v>117.66095808884501</v>
+      </c>
+      <c r="BE22" s="22">
+        <v>116.992570459787</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -6251,15 +6411,18 @@
       </c>
       <c r="BD23" s="20">
         <v>2.7290091845010598</v>
+      </c>
+      <c r="BE23" s="20">
+        <v>2.6838485337637401</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -6417,17 +6580,20 @@
       <c r="BC24" s="22">
         <v>4.4172062893583597</v>
       </c>
-      <c r="BD24" s="22" t="s">
-        <v>139</v>
+      <c r="BD24" s="22">
+        <v>3.8223867142714099</v>
+      </c>
+      <c r="BE24" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -6587,15 +6753,18 @@
       </c>
       <c r="BD25" s="20">
         <v>2.7290091845010598</v>
+      </c>
+      <c r="BE25" s="20">
+        <v>2.6838485337637401</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -6755,15 +6924,18 @@
       </c>
       <c r="BD26" s="22">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE26" s="22">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -6923,15 +7095,18 @@
       </c>
       <c r="BD27" s="20">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE27" s="20">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -7090,16 +7265,19 @@
         <v>105.394322867498</v>
       </c>
       <c r="BD28" s="22">
-        <v>103.950355301263</v>
+        <v>103.93135836510599</v>
+      </c>
+      <c r="BE28" s="22">
+        <v>103.74303503114901</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -7257,17 +7435,20 @@
       <c r="BC29" s="20">
         <v>9.5518371020079105</v>
       </c>
-      <c r="BD29" s="20" t="s">
-        <v>150</v>
+      <c r="BD29" s="20">
+        <v>9.4287267324511603</v>
+      </c>
+      <c r="BE29" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -7425,17 +7606,20 @@
       <c r="BC30" s="22">
         <v>2.4550824128555702</v>
       </c>
-      <c r="BD30" s="22" t="s">
-        <v>153</v>
+      <c r="BD30" s="22">
+        <v>2.4591076290786602</v>
+      </c>
+      <c r="BE30" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -7595,15 +7779,18 @@
       </c>
       <c r="BD31" s="20">
         <v>15.9659317834642</v>
+      </c>
+      <c r="BE31" s="20">
+        <v>16.297133451573501</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -7763,15 +7950,18 @@
       </c>
       <c r="BD32" s="22">
         <v>6.4998327863475396</v>
+      </c>
+      <c r="BE32" s="22">
+        <v>6.6608021295801798</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -7931,15 +8121,18 @@
       </c>
       <c r="BD33" s="20">
         <v>1.8641861739326699</v>
+      </c>
+      <c r="BE33" s="20">
+        <v>1.8557890038042799</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -8099,15 +8292,18 @@
       </c>
       <c r="BD34" s="22">
         <v>2.46497754590058</v>
+      </c>
+      <c r="BE34" s="22">
+        <v>2.4822915088780801</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -8267,15 +8463,18 @@
       </c>
       <c r="BD35" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE35" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -8431,19 +8630,22 @@
         <v>2820.7459121564898</v>
       </c>
       <c r="BC36" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BD36" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="BE36" s="22" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -8603,15 +8805,18 @@
       </c>
       <c r="BD37" s="20">
         <v>138.730819299622</v>
+      </c>
+      <c r="BE37" s="20" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -8771,15 +8976,18 @@
       </c>
       <c r="BD38" s="22">
         <v>5553.3744982572198</v>
+      </c>
+      <c r="BE38" s="22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -8939,15 +9147,18 @@
       </c>
       <c r="BD39" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE39" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -9107,15 +9318,18 @@
       </c>
       <c r="BD40" s="22">
         <v>1.7233764816155399</v>
+      </c>
+      <c r="BE40" s="22">
+        <v>1.72600535746791</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -9275,15 +9489,18 @@
       </c>
       <c r="BD41" s="20">
         <v>1.13708261186013</v>
+      </c>
+      <c r="BE41" s="20">
+        <v>1.11826574932067</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -9443,15 +9660,18 @@
       </c>
       <c r="BD42" s="22">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE42" s="22">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -9611,15 +9831,18 @@
       </c>
       <c r="BD43" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE43" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -9779,15 +10002,18 @@
       </c>
       <c r="BD44" s="22">
         <v>1112.2390767490299</v>
+      </c>
+      <c r="BE44" s="22">
+        <v>1141.5513304088499</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -9947,15 +10173,18 @@
       </c>
       <c r="BD45" s="20">
         <v>10.7018095170209</v>
+      </c>
+      <c r="BE45" s="20">
+        <v>10.5341054950227</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -10115,15 +10344,18 @@
       </c>
       <c r="BD46" s="22">
         <v>11.0205045740915</v>
+      </c>
+      <c r="BE46" s="22">
+        <v>10.848833702955799</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -10283,15 +10515,18 @@
       </c>
       <c r="BD47" s="20">
         <v>8.7785690206562492</v>
+      </c>
+      <c r="BE47" s="20">
+        <v>9.0143091665655994</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -10447,19 +10682,22 @@
         <v>5518.3573020860304</v>
       </c>
       <c r="BC48" s="22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="BD48" s="22" t="s">
-        <v>193</v>
+        <v>198</v>
+      </c>
+      <c r="BE48" s="22" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -10619,15 +10857,18 @@
       </c>
       <c r="BD49" s="20">
         <v>620.49041760733598</v>
+      </c>
+      <c r="BE49" s="20">
+        <v>624.08041050080101</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -10785,17 +11026,20 @@
       <c r="BC50" s="22">
         <v>2764.5199257839599</v>
       </c>
-      <c r="BD50" s="22" t="s">
-        <v>198</v>
+      <c r="BD50" s="22">
+        <v>2733.75901848905</v>
+      </c>
+      <c r="BE50" s="22">
+        <v>2690.0190018782801</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -10955,15 +11199,18 @@
       </c>
       <c r="BD51" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE51" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -11123,15 +11370,18 @@
       </c>
       <c r="BD52" s="22">
         <v>898.70093058478199</v>
+      </c>
+      <c r="BE52" s="22" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -11291,15 +11541,18 @@
       </c>
       <c r="BD53" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE53" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -11459,15 +11712,18 @@
       </c>
       <c r="BD54" s="22">
         <v>9.4976574109378795</v>
+      </c>
+      <c r="BE54" s="22">
+        <v>9.5791465612844497</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -11627,15 +11883,18 @@
       </c>
       <c r="BD55" s="20">
         <v>2.4424632201284502</v>
+      </c>
+      <c r="BE55" s="20">
+        <v>2.4020444377185401</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -11795,15 +12054,18 @@
       </c>
       <c r="BD56" s="22">
         <v>2.4424632201284502</v>
+      </c>
+      <c r="BE56" s="22">
+        <v>2.4020444377185401</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -11963,15 +12225,18 @@
       </c>
       <c r="BD57" s="20">
         <v>30.828252252716201</v>
+      </c>
+      <c r="BE57" s="20">
+        <v>31.3996859207688</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -12130,16 +12395,19 @@
         <v>9.3342597995685406</v>
       </c>
       <c r="BD58" s="22">
-        <v>9.3872839989753292</v>
+        <v>9.3872836851392698</v>
+      </c>
+      <c r="BE58" s="22">
+        <v>9.4424854099417193</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -12299,15 +12567,18 @@
       </c>
       <c r="BD59" s="20">
         <v>242.501120639356</v>
+      </c>
+      <c r="BE59" s="20">
+        <v>238.488122634512</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -12467,15 +12738,18 @@
       </c>
       <c r="BD60" s="22">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE60" s="22">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -12635,15 +12909,18 @@
       </c>
       <c r="BD61" s="20">
         <v>75.321881546362306</v>
+      </c>
+      <c r="BE61" s="20" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -12803,15 +13080,18 @@
       </c>
       <c r="BD62" s="22">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE62" s="22">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -12970,16 +13250,19 @@
         <v>23.0622144137939</v>
       </c>
       <c r="BD63" s="20" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="BE63" s="20" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -13139,15 +13422,18 @@
       </c>
       <c r="BD64" s="22">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE64" s="22">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -13307,15 +13593,18 @@
       </c>
       <c r="BD65" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE65" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -13475,15 +13764,18 @@
       </c>
       <c r="BD66" s="22">
         <v>20.569906728176701</v>
+      </c>
+      <c r="BE66" s="22">
+        <v>20.2295083232442</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -13643,15 +13935,18 @@
       </c>
       <c r="BD67" s="20">
         <v>20.527939683811301</v>
+      </c>
+      <c r="BE67" s="20">
+        <v>21.322882122927599</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -13780,46 +14075,49 @@
         <v>61.273317781734001</v>
       </c>
       <c r="AT68" s="22" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AU68" s="22" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AV68" s="22" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AW68" s="22" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AY68" s="22" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AZ68" s="22" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="BA68" s="22" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="BB68" s="22" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="BC68" s="22" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="BD68" s="22" t="s">
-        <v>246</v>
+        <v>254</v>
+      </c>
+      <c r="BE68" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -13979,15 +14277,18 @@
       </c>
       <c r="BD69" s="20">
         <v>1.26124205825958</v>
+      </c>
+      <c r="BE69" s="20">
+        <v>1.2685392701062199</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -14147,15 +14448,18 @@
       </c>
       <c r="BD70" s="22">
         <v>2.8969796998070998</v>
+      </c>
+      <c r="BE70" s="22">
+        <v>2.9322082172847699</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -14315,15 +14619,18 @@
       </c>
       <c r="BD71" s="20">
         <v>150.506158923615</v>
+      </c>
+      <c r="BE71" s="20">
+        <v>151.37694761853501</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -14483,15 +14790,18 @@
       </c>
       <c r="BD72" s="22">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE72" s="22">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -14647,19 +14957,22 @@
         <v>73.929887793488305</v>
       </c>
       <c r="BC73" s="20" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="BD73" s="20" t="s">
-        <v>258</v>
+        <v>267</v>
+      </c>
+      <c r="BE73" s="20" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -14819,15 +15132,18 @@
       </c>
       <c r="BD74" s="22">
         <v>4.1839804312178002</v>
+      </c>
+      <c r="BE74" s="22">
+        <v>3.9857834574925199</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -14986,16 +15302,19 @@
         <v>9.7405238985960594</v>
       </c>
       <c r="BD75" s="20" t="s">
-        <v>263</v>
+        <v>273</v>
+      </c>
+      <c r="BE75" s="20" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -15155,15 +15474,18 @@
       </c>
       <c r="BD76" s="22">
         <v>1.0544578969790499</v>
+      </c>
+      <c r="BE76" s="22">
+        <v>1.07869991389356</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -15323,15 +15645,18 @@
       </c>
       <c r="BD77" s="20">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE77" s="20">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -15491,15 +15816,18 @@
       </c>
       <c r="BD78" s="22">
         <v>10.4532854731114</v>
+      </c>
+      <c r="BE78" s="22">
+        <v>10.293303894952</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -15659,15 +15987,18 @@
       </c>
       <c r="BD79" s="20">
         <v>1.0544578969790499</v>
+      </c>
+      <c r="BE79" s="20">
+        <v>1.07869991389356</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -15796,46 +16127,49 @@
         <v>14111.720714393399</v>
       </c>
       <c r="AT80" s="22" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AU80" s="22" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AV80" s="22" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AW80" s="22" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AX80" s="22" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AY80" s="22" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AZ80" s="22" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="BA80" s="22" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="BB80" s="22" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="BC80" s="22" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="BD80" s="22" t="s">
-        <v>284</v>
+        <v>295</v>
+      </c>
+      <c r="BE80" s="22" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -15995,15 +16329,18 @@
       </c>
       <c r="BD81" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE81" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -16161,17 +16498,20 @@
       <c r="BC82" s="22">
         <v>288.21389808518802</v>
       </c>
-      <c r="BD82" s="22" t="s">
-        <v>289</v>
+      <c r="BD82" s="22">
+        <v>284.499207484235</v>
+      </c>
+      <c r="BE82" s="22" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -16331,15 +16671,18 @@
       </c>
       <c r="BD83" s="20">
         <v>144.949413884504</v>
+      </c>
+      <c r="BE83" s="20" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -16499,15 +16842,18 @@
       </c>
       <c r="BD84" s="22">
         <v>33.208395515884199</v>
+      </c>
+      <c r="BE84" s="22">
+        <v>32.711033484712502</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -16667,15 +17013,18 @@
       </c>
       <c r="BD85" s="20">
         <v>472.95093671995602</v>
+      </c>
+      <c r="BE85" s="20" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -16835,15 +17184,18 @@
       </c>
       <c r="BD86" s="22">
         <v>176.512314053529</v>
+      </c>
+      <c r="BE86" s="22">
+        <v>175.78249378819001</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -17002,16 +17354,19 @@
         <v>105.394322867498</v>
       </c>
       <c r="BD87" s="20">
-        <v>103.950355301263</v>
+        <v>103.93135836510599</v>
+      </c>
+      <c r="BE87" s="20">
+        <v>103.74303503114901</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -17171,15 +17526,18 @@
       </c>
       <c r="BD88" s="22">
         <v>19606.210278533199</v>
+      </c>
+      <c r="BE88" s="22">
+        <v>19602.833269075101</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -17339,15 +17697,18 @@
       </c>
       <c r="BD89" s="20">
         <v>57309.192874522298</v>
+      </c>
+      <c r="BE89" s="20">
+        <v>56360.819209038396</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -17500,22 +17861,25 @@
         <v>2029.6315548699699</v>
       </c>
       <c r="BB90" s="22" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="BC90" s="22" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="BD90" s="22" t="s">
-        <v>308</v>
+        <v>322</v>
+      </c>
+      <c r="BE90" s="22" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -17675,15 +18039,18 @@
       </c>
       <c r="BD91" s="20">
         <v>1.0544578969790499</v>
+      </c>
+      <c r="BE91" s="20">
+        <v>1.07869991389356</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -17843,15 +18210,18 @@
       </c>
       <c r="BD92" s="22">
         <v>4.4240271113189404</v>
+      </c>
+      <c r="BE92" s="22">
+        <v>4.5383878705944802</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -17989,37 +18359,40 @@
         <v>218.40300610627901</v>
       </c>
       <c r="AW93" s="20" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="AX93" s="20" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AY93" s="20" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="AZ93" s="20" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="BA93" s="20" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="BB93" s="20" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="BC93" s="20" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="BD93" s="20" t="s">
-        <v>322</v>
+        <v>337</v>
+      </c>
+      <c r="BE93" s="20" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -18179,15 +18552,18 @@
       </c>
       <c r="BD94" s="22">
         <v>172.23426727477701</v>
+      </c>
+      <c r="BE94" s="22">
+        <v>172.94496297529</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -18347,15 +18723,18 @@
       </c>
       <c r="BD95" s="20">
         <v>1.0544578969790499</v>
+      </c>
+      <c r="BE95" s="20">
+        <v>1.07869991389356</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -18515,15 +18894,18 @@
       </c>
       <c r="BD96" s="22">
         <v>0.96879826049787598</v>
+      </c>
+      <c r="BE96" s="22">
+        <v>0.95276622948612599</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -18683,15 +19065,18 @@
       </c>
       <c r="BD97" s="20">
         <v>618.55722175900996</v>
+      </c>
+      <c r="BE97" s="20">
+        <v>577.98020098868903</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -18849,17 +19234,20 @@
       <c r="BC98" s="22">
         <v>158.021066834012</v>
       </c>
-      <c r="BD98" s="22" t="s">
-        <v>333</v>
+      <c r="BD98" s="22">
+        <v>157.46845075578901</v>
+      </c>
+      <c r="BE98" s="22">
+        <v>156.044854272962</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -19019,15 +19407,18 @@
       </c>
       <c r="BD99" s="20">
         <v>1.84454828286655</v>
+      </c>
+      <c r="BE99" s="20">
+        <v>1.9028988469680499</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -19186,16 +19577,19 @@
         <v>1687.8552325129799</v>
       </c>
       <c r="BD100" s="22">
-        <v>1681.53099015765</v>
+        <v>1681.5335892140199</v>
+      </c>
+      <c r="BE100" s="22">
+        <v>1704.95503880142</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -19355,15 +19749,18 @@
       </c>
       <c r="BD101" s="20">
         <v>1.26124205825958</v>
+      </c>
+      <c r="BE101" s="20">
+        <v>1.2685392701062199</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -19523,15 +19920,18 @@
       </c>
       <c r="BD102" s="22">
         <v>0.41659930500928999</v>
+      </c>
+      <c r="BE102" s="22">
+        <v>0.41117075661978503</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -19691,105 +20091,108 @@
       </c>
       <c r="BD103" s="20">
         <v>114.74830023127301</v>
+      </c>
+      <c r="BE103" s="20" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
       </c>
       <c r="E104" s="21">
-        <v>11936.0362521891</v>
+        <v>11920.2214717104</v>
       </c>
       <c r="F104" s="22">
-        <v>12044.513843569101</v>
+        <v>12017.790769802999</v>
       </c>
       <c r="G104" s="22">
-        <v>12075.2261774487</v>
+        <v>12043.5747630183</v>
       </c>
       <c r="H104" s="22">
-        <v>12070.0290021003</v>
+        <v>12035.060452179199</v>
       </c>
       <c r="I104" s="22">
-        <v>11952.8707062589</v>
+        <v>11869.0456830032</v>
       </c>
       <c r="J104" s="22">
-        <v>11954.1926217738</v>
+        <v>11850.1605784893</v>
       </c>
       <c r="K104" s="22">
-        <v>12002.1265341955</v>
+        <v>11832.050531667001</v>
       </c>
       <c r="L104" s="22">
-        <v>12045.359548854</v>
+        <v>11819.115126746799</v>
       </c>
       <c r="M104" s="22">
-        <v>12097.724508407</v>
+        <v>11888.5328644251</v>
       </c>
       <c r="N104" s="22">
-        <v>11996.2451987286</v>
+        <v>11836.293363528701</v>
       </c>
       <c r="O104" s="22">
-        <v>11965.8372833781</v>
+        <v>11804.458798547301</v>
       </c>
       <c r="P104" s="22">
-        <v>11933.284263961201</v>
+        <v>11816.196106317</v>
       </c>
       <c r="Q104" s="22">
-        <v>11973.407319465599</v>
+        <v>11903.5075924827</v>
       </c>
       <c r="R104" s="22">
-        <v>11980.6634409935</v>
+        <v>11908.0774024933</v>
       </c>
       <c r="S104" s="22">
-        <v>12035.622490195101</v>
+        <v>11916.462217316201</v>
       </c>
       <c r="T104" s="22">
-        <v>12068.115509130201</v>
+        <v>11917.0827737421</v>
       </c>
       <c r="U104" s="22">
-        <v>12059.037573854501</v>
+        <v>11904.1975760518</v>
       </c>
       <c r="V104" s="22">
-        <v>12093.4675289967</v>
+        <v>11963.6312310675</v>
       </c>
       <c r="W104" s="22">
-        <v>12103.4729920134</v>
+        <v>11962.7211978093</v>
       </c>
       <c r="X104" s="22">
-        <v>12181.3921800108</v>
+        <v>11942.9028716827</v>
       </c>
       <c r="Y104" s="22">
-        <v>12249.606362804499</v>
+        <v>12022.801744663</v>
       </c>
       <c r="Z104" s="22">
-        <v>12259.2835657629</v>
+        <v>12086.7133592756</v>
       </c>
       <c r="AA104" s="22">
-        <v>12393.623403769399</v>
+        <v>12155.745975733</v>
       </c>
       <c r="AB104" s="22">
-        <v>12442.3730315421</v>
+        <v>12213.6939851018</v>
       </c>
       <c r="AC104" s="22">
-        <v>12451.566818150501</v>
+        <v>12235.1862690406</v>
       </c>
       <c r="AD104" s="22">
-        <v>12376.3474123052</v>
+        <v>12160.0623686781</v>
       </c>
       <c r="AE104" s="22">
-        <v>12511.1848751092</v>
+        <v>12205.5263352358</v>
       </c>
       <c r="AF104" s="22">
-        <v>12638.240527972001</v>
+        <v>12202.8770464018</v>
       </c>
       <c r="AG104" s="22">
-        <v>12676.5613953186</v>
+        <v>12238.908480799901</v>
       </c>
       <c r="AH104" s="22">
         <v>12415.595139746199</v>
@@ -19858,16 +20261,19 @@
         <v>15745.1371906193</v>
       </c>
       <c r="BD104" s="22" t="s">
-        <v>346</v>
+        <v>362</v>
+      </c>
+      <c r="BE104" s="22" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -20027,15 +20433,18 @@
       </c>
       <c r="BD105" s="20">
         <v>2056.9906728176702</v>
+      </c>
+      <c r="BE105" s="20">
+        <v>2022.9508323244199</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -20195,15 +20604,18 @@
       </c>
       <c r="BD106" s="22">
         <v>20.527939683811301</v>
+      </c>
+      <c r="BE106" s="22">
+        <v>21.322882122927599</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -20341,37 +20753,40 @@
         <v>244.12468651827299</v>
       </c>
       <c r="AW107" s="20" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="AX107" s="20" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="AY107" s="20" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="AZ107" s="20" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="BA107" s="20" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="BB107" s="20" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="BC107" s="20" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="BD107" s="20" t="s">
-        <v>360</v>
+        <v>377</v>
+      </c>
+      <c r="BE107" s="20" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -20482,64 +20897,67 @@
         <v>1.9381163522996301</v>
       </c>
       <c r="AN108" s="22" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AO108" s="22" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="AP108" s="22" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="AQ108" s="22" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="AR108" s="22" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="AS108" s="22" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="AT108" s="22" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="AU108" s="22" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="AV108" s="22" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="AW108" s="22" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="AX108" s="22" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="AY108" s="22" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AZ108" s="22" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="BA108" s="22" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="BB108" s="22" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="BC108" s="22" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="BD108" s="22" t="s">
-        <v>379</v>
+        <v>397</v>
+      </c>
+      <c r="BE108" s="22" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -20697,17 +21115,20 @@
       <c r="BC109" s="20">
         <v>5511.4030962542902</v>
       </c>
-      <c r="BD109" s="20" t="s">
-        <v>382</v>
+      <c r="BD109" s="20">
+        <v>5431.5182534999904</v>
+      </c>
+      <c r="BE109" s="20">
+        <v>5342.7372761634697</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -20848,34 +21269,37 @@
         <v>1165.7044779849</v>
       </c>
       <c r="AX110" s="22" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="AY110" s="22" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="AZ110" s="22" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="BA110" s="22" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="BB110" s="22" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="BC110" s="22" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="BD110" s="22" t="s">
-        <v>391</v>
+        <v>409</v>
+      </c>
+      <c r="BE110" s="22" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -21035,15 +21459,18 @@
       </c>
       <c r="BD111" s="20">
         <v>5.8218225833879602</v>
+      </c>
+      <c r="BE111" s="20">
+        <v>5.8835402108516703</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -21203,15 +21630,18 @@
       </c>
       <c r="BD112" s="22">
         <v>20.995632160958898</v>
+      </c>
+      <c r="BE112" s="22">
+        <v>20.640959618621999</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -21371,15 +21801,18 @@
       </c>
       <c r="BD113" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE113" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -21508,46 +21941,49 @@
         <v>51.80477936554</v>
       </c>
       <c r="AT114" s="22" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="AU114" s="22" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="AV114" s="22" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="AW114" s="22" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="AX114" s="22" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="AY114" s="22" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="AZ114" s="22" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="BA114" s="22" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="BB114" s="22" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="BC114" s="22" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="BD114" s="22" t="s">
-        <v>410</v>
+        <v>429</v>
+      </c>
+      <c r="BE114" s="22" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -21707,15 +22143,18 @@
       </c>
       <c r="BD115" s="20">
         <v>59.568539578370697</v>
+      </c>
+      <c r="BE115" s="20">
+        <v>58.115519380413197</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -21875,15 +22314,18 @@
       </c>
       <c r="BD116" s="22">
         <v>27.354905813142501</v>
+      </c>
+      <c r="BE116" s="22">
+        <v>26.986231199420999</v>
       </c>
     </row>
     <row r="117" ht="24.000000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -22043,15 +22485,18 @@
       </c>
       <c r="BD117" s="20">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE117" s="20">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -22211,15 +22656,18 @@
       </c>
       <c r="BD118" s="22">
         <v>25.1443037616779</v>
+      </c>
+      <c r="BE118" s="22" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -22378,16 +22826,19 @@
         <v>4011.2601241273001</v>
       </c>
       <c r="BD119" s="20" t="s">
-        <v>421</v>
+        <v>442</v>
+      </c>
+      <c r="BE119" s="20" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -22547,15 +22998,18 @@
       </c>
       <c r="BD120" s="22">
         <v>1.26124205825958</v>
+      </c>
+      <c r="BE120" s="22">
+        <v>1.2685392701062199</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -22715,15 +23169,18 @@
       </c>
       <c r="BD121" s="20">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE121" s="20">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -22881,17 +23338,20 @@
       <c r="BC122" s="22">
         <v>13.4560701324909</v>
       </c>
-      <c r="BD122" s="22" t="s">
-        <v>428</v>
+      <c r="BD122" s="22">
+        <v>13.402437006003201</v>
+      </c>
+      <c r="BE122" s="22" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -23051,15 +23511,18 @@
       </c>
       <c r="BD123" s="20">
         <v>87.096328123351299</v>
+      </c>
+      <c r="BE123" s="20" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -23182,52 +23645,55 @@
         <v>2044.2286967290399</v>
       </c>
       <c r="AR124" s="22" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="AS124" s="22" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="AT124" s="22" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="AU124" s="22" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="AV124" s="22" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="AW124" s="22" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="AX124" s="22" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="AY124" s="22" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="AZ124" s="22" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="BA124" s="22" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="BB124" s="22" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="BC124" s="22" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="BD124" s="22" t="s">
-        <v>445</v>
+        <v>468</v>
+      </c>
+      <c r="BE124" s="22" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -23386,16 +23852,19 @@
         <v>20.705231145605701</v>
       </c>
       <c r="BD125" s="20">
-        <v>20.515872346323601</v>
+        <v>20.404528771595999</v>
+      </c>
+      <c r="BE125" s="20">
+        <v>21.300632273069301</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -23555,15 +24024,18 @@
       </c>
       <c r="BD126" s="22">
         <v>1.84454828286655</v>
+      </c>
+      <c r="BE126" s="22">
+        <v>1.9028988469680499</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -23718,20 +24190,23 @@
       <c r="BB127" s="20">
         <v>167.40058867268499</v>
       </c>
-      <c r="BC127" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="BD127" s="20" t="s">
-        <v>453</v>
+      <c r="BC127" s="20">
+        <v>167.25851948110699</v>
+      </c>
+      <c r="BD127" s="20">
+        <v>165.91557139011101</v>
+      </c>
+      <c r="BE127" s="20" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -23891,15 +24366,18 @@
       </c>
       <c r="BD128" s="22">
         <v>150.506158923615</v>
+      </c>
+      <c r="BE128" s="22">
+        <v>151.37694761853501</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -24059,15 +24537,18 @@
       </c>
       <c r="BD129" s="20">
         <v>2.0119620212734102</v>
+      </c>
+      <c r="BE129" s="20">
+        <v>2.0954147427360401</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -24217,25 +24698,28 @@
         <v>49.609658615622301</v>
       </c>
       <c r="BA130" s="22" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="BB130" s="22" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="BC130" s="22" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="BD130" s="22" t="s">
-        <v>463</v>
+        <v>486</v>
+      </c>
+      <c r="BE130" s="22" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -24395,15 +24879,18 @@
       </c>
       <c r="BD131" s="20">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE131" s="20">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -24547,31 +25034,34 @@
         <v>581.30277410599001</v>
       </c>
       <c r="AY132" s="22" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="AZ132" s="22" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="BA132" s="22" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="BB132" s="22" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="BC132" s="22" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="BD132" s="22" t="s">
-        <v>473</v>
+        <v>497</v>
+      </c>
+      <c r="BE132" s="22" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -24731,15 +25221,18 @@
       </c>
       <c r="BD133" s="20">
         <v>77.464699558032507</v>
+      </c>
+      <c r="BE133" s="20" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -24898,16 +25391,19 @@
         <v>12.2197163504703</v>
       </c>
       <c r="BD134" s="22">
-        <v>12.1583780367603</v>
+        <v>12.1440908710297</v>
+      </c>
+      <c r="BE134" s="22">
+        <v>12.861352565132201</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -25067,15 +25563,18 @@
       </c>
       <c r="BD135" s="20">
         <v>0.52465201572032905</v>
+      </c>
+      <c r="BE135" s="20">
+        <v>0.51596988061607796</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -25235,15 +25734,18 @@
       </c>
       <c r="BD136" s="22">
         <v>252.222776844621</v>
+      </c>
+      <c r="BE136" s="22">
+        <v>263.12600873229502</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -25403,15 +25905,18 @@
       </c>
       <c r="BD137" s="20">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE137" s="20">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -25571,15 +26076,18 @@
       </c>
       <c r="BD138" s="22">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE138" s="22">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -25732,22 +26240,25 @@
         <v>4.9113891224923698</v>
       </c>
       <c r="BB139" s="20" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="BC139" s="20" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="BD139" s="20" t="s">
-        <v>490</v>
+        <v>516</v>
+      </c>
+      <c r="BE139" s="20" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -25906,16 +26417,19 @@
         <v>9625.0228776114509</v>
       </c>
       <c r="BD140" s="22" t="s">
-        <v>493</v>
+        <v>520</v>
+      </c>
+      <c r="BE140" s="22" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -26074,16 +26588,19 @@
         <v>5.16819716904212</v>
       </c>
       <c r="BD141" s="20" t="s">
-        <v>496</v>
+        <v>524</v>
+      </c>
+      <c r="BE141" s="20" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -26243,15 +26760,18 @@
       </c>
       <c r="BD142" s="22">
         <v>70.921490686813499</v>
+      </c>
+      <c r="BE142" s="22">
+        <v>70.265502981401596</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -26411,15 +26931,18 @@
       </c>
       <c r="BD143" s="20">
         <v>5.8535882502955499</v>
+      </c>
+      <c r="BE143" s="20">
+        <v>5.9027222727332704</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -26579,15 +27102,18 @@
       </c>
       <c r="BD144" s="22">
         <v>4.9667967157919302</v>
+      </c>
+      <c r="BE144" s="22">
+        <v>4.8846043314500003</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -26747,15 +27273,18 @@
       </c>
       <c r="BD145" s="20">
         <v>6.2273260581129701</v>
+      </c>
+      <c r="BE145" s="20">
+        <v>6.2769849507666198</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -26907,23 +27436,26 @@
       <c r="BA146" s="22">
         <v>106.196201883577</v>
       </c>
-      <c r="BB146" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="BC146" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="BD146" s="22" t="s">
-        <v>509</v>
+      <c r="BB146" s="22">
+        <v>108.358728264989</v>
+      </c>
+      <c r="BC146" s="22">
+        <v>143.320132012426</v>
+      </c>
+      <c r="BD146" s="22">
+        <v>106.17060136796201</v>
+      </c>
+      <c r="BE146" s="22">
+        <v>86.344640835820201</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -27082,16 +27614,19 @@
         <v>1408.0254241949001</v>
       </c>
       <c r="BD147" s="20" t="s">
-        <v>512</v>
+        <v>538</v>
+      </c>
+      <c r="BE147" s="20" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -27251,15 +27786,18 @@
       </c>
       <c r="BD148" s="22">
         <v>3.54926240711344</v>
+      </c>
+      <c r="BE148" s="22">
+        <v>3.5881698568215201</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -27419,15 +27957,18 @@
       </c>
       <c r="BD149" s="20">
         <v>1.26124205825958</v>
+      </c>
+      <c r="BE149" s="20">
+        <v>1.2685392701062199</v>
       </c>
     </row>
     <row r="150" ht="24.000000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -27547,55 +28088,58 @@
         <v>29.153641875437401</v>
       </c>
       <c r="AQ150" s="22" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="AR150" s="22" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="AS150" s="22" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="AT150" s="22" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="AU150" s="22" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="AV150" s="22" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="AW150" s="22" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="AX150" s="22" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="AY150" s="22" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="AZ150" s="22" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="BA150" s="22" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="BB150" s="22" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="BC150" s="22" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="BD150" s="22" t="s">
-        <v>532</v>
+        <v>559</v>
+      </c>
+      <c r="BE150" s="22" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -27755,15 +28299,18 @@
       </c>
       <c r="BD151" s="20">
         <v>5.1168922209394898</v>
+      </c>
+      <c r="BE151" s="20">
+        <v>5.0322160008069998</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -27923,15 +28470,18 @@
       </c>
       <c r="BD152" s="22">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE152" s="22">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -28091,15 +28641,18 @@
       </c>
       <c r="BD153" s="20">
         <v>148.39151181275599</v>
+      </c>
+      <c r="BE153" s="20">
+        <v>149.126836046742</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -28259,15 +28812,18 @@
       </c>
       <c r="BD154" s="22">
         <v>19.554162260985201</v>
+      </c>
+      <c r="BE154" s="22">
+        <v>19.0683306611196</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -28427,15 +28983,18 @@
       </c>
       <c r="BD155" s="20">
         <v>16701.413403733201</v>
+      </c>
+      <c r="BE155" s="20" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -28595,15 +29154,18 @@
       </c>
       <c r="BD156" s="22">
         <v>1.86336747117732</v>
+      </c>
+      <c r="BE156" s="22">
+        <v>1.8537341822706099</v>
       </c>
     </row>
     <row r="157" ht="24.000000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -28763,15 +29325,18 @@
       </c>
       <c r="BD157" s="20">
         <v>2.4424632201284502</v>
+      </c>
+      <c r="BE157" s="20">
+        <v>2.4020444377185401</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -28930,16 +29495,19 @@
         <v>11.131803675202899</v>
       </c>
       <c r="BD158" s="22" t="s">
-        <v>549</v>
+        <v>578</v>
+      </c>
+      <c r="BE158" s="22" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -28963,151 +29531,154 @@
         <v>33343.625668374101</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="L159" s="20" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="P159" s="20" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="R159" s="20" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="S159" s="20" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="T159" s="20" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="U159" s="20" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="V159" s="20" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="W159" s="20" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="X159" s="20" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="Y159" s="20" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="Z159" s="20" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="AA159" s="20" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="AB159" s="20" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="AC159" s="20" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="AD159" s="20" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="AE159" s="20" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="AF159" s="20" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="AG159" s="20" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="AH159" s="20" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="AI159" s="20" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="AJ159" s="20" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="AK159" s="20" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="AL159" s="20" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="AM159" s="20" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="AN159" s="20" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="AO159" s="20" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="AP159" s="20" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="AQ159" s="20" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="AR159" s="20" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="AS159" s="20" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="AT159" s="20" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="AU159" s="20" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="AV159" s="20" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="AW159" s="20" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="AX159" s="20" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="AY159" s="20" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="AZ159" s="20" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="BA159" s="20" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="BB159" s="20" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="BC159" s="20" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="BD159" s="20" t="s">
-        <v>597</v>
+        <v>627</v>
+      </c>
+      <c r="BE159" s="20" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -29267,15 +29838,18 @@
       </c>
       <c r="BD160" s="22">
         <v>20.527939683811301</v>
+      </c>
+      <c r="BE160" s="22">
+        <v>21.322882122927599</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -29425,25 +29999,28 @@
         <v>587.89376473551499</v>
       </c>
       <c r="BA161" s="20" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="BB161" s="20" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="BC161" s="20" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="BD161" s="20" t="s">
-        <v>605</v>
+        <v>636</v>
+      </c>
+      <c r="BE161" s="20" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -29563,55 +30140,58 @@
         <v>279.45170558869</v>
       </c>
       <c r="AQ162" s="22" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="AR162" s="22" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="AS162" s="22" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="AT162" s="22" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="AU162" s="22" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="AV162" s="22" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="AW162" s="22" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="AX162" s="22" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="AY162" s="22" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="AZ162" s="22" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="BA162" s="22" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="BB162" s="22" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="BC162" s="22" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="BD162" s="22" t="s">
-        <v>621</v>
+        <v>653</v>
+      </c>
+      <c r="BE162" s="22" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -29771,15 +30351,18 @@
       </c>
       <c r="BD163" s="20">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE163" s="20">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -29939,15 +30522,18 @@
       </c>
       <c r="BD164" s="22">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE164" s="22">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -30107,15 +30693,18 @@
       </c>
       <c r="BD165" s="20">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE165" s="20">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -30244,46 +30833,49 @@
         <v>585.57667243982996</v>
       </c>
       <c r="AT166" s="22" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="AU166" s="22" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="AV166" s="22" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="AW166" s="22" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
       <c r="AX166" s="22" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="AY166" s="22" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="AZ166" s="22" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="BA166" s="22" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="BB166" s="22" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="BC166" s="22" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="BD166" s="22" t="s">
-        <v>640</v>
+        <v>673</v>
+      </c>
+      <c r="BE166" s="22" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -30442,16 +31034,19 @@
         <v>29.695140997203101</v>
       </c>
       <c r="BD167" s="20" t="s">
-        <v>643</v>
+        <v>677</v>
+      </c>
+      <c r="BE167" s="20" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -30611,15 +31206,18 @@
       </c>
       <c r="BD168" s="22">
         <v>13.015707678146899</v>
+      </c>
+      <c r="BE168" s="22">
+        <v>13.315206940200801</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -30778,16 +31376,19 @@
         <v>1.28510222845495</v>
       </c>
       <c r="BD169" s="20">
-        <v>1.2894568396767501</v>
+        <v>1.2879695296711999</v>
+      </c>
+      <c r="BE169" s="20">
+        <v>1.3161063502629899</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -30820,142 +31421,145 @@
         <v>611.21222523736901</v>
       </c>
       <c r="N170" s="22" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="O170" s="22" t="s">
-        <v>651</v>
+        <v>686</v>
       </c>
       <c r="P170" s="22" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="Q170" s="22" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="R170" s="22" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="S170" s="22" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="T170" s="22" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="U170" s="22" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="V170" s="22" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
       <c r="W170" s="22" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="X170" s="22" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="Y170" s="22" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
       <c r="Z170" s="22" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
       <c r="AA170" s="22" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="AB170" s="22" t="s">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="AC170" s="22" t="s">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="AD170" s="22" t="s">
-        <v>666</v>
+        <v>701</v>
       </c>
       <c r="AE170" s="22" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="AF170" s="22" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="AG170" s="22" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="AH170" s="22" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="AI170" s="22" t="s">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="AJ170" s="22" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="AK170" s="22" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="AL170" s="22" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="AM170" s="22" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="AN170" s="22" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="AO170" s="22" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="AP170" s="22" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="AQ170" s="22" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="AR170" s="22" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="AS170" s="22" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="AT170" s="22" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="AU170" s="22" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="AV170" s="22" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="AW170" s="22" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="AX170" s="22" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="AY170" s="22" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="AZ170" s="22" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="BA170" s="22" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="BB170" s="22" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="BC170" s="22" t="s">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="BD170" s="22" t="s">
-        <v>692</v>
+        <v>727</v>
+      </c>
+      <c r="BE170" s="22" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -31113,17 +31717,20 @@
       <c r="BC171" s="20">
         <v>39.314587412186199</v>
       </c>
-      <c r="BD171" s="20" t="s">
-        <v>695</v>
+      <c r="BD171" s="20">
+        <v>39.772579854918398</v>
+      </c>
+      <c r="BE171" s="20" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -31281,17 +31888,20 @@
       <c r="BC172" s="22">
         <v>17.337897544955801</v>
       </c>
-      <c r="BD172" s="22" t="s">
-        <v>698</v>
+      <c r="BD172" s="22">
+        <v>17.079776882118299</v>
+      </c>
+      <c r="BE172" s="22" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -31450,16 +32060,19 @@
         <v>3177.1955635342802</v>
       </c>
       <c r="BD173" s="20" t="s">
-        <v>701</v>
+        <v>737</v>
+      </c>
+      <c r="BE173" s="20" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -31619,15 +32232,18 @@
       </c>
       <c r="BD174" s="22">
         <v>46.137391790446998</v>
+      </c>
+      <c r="BE174" s="22">
+        <v>46.176249671741999</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>704</v>
+        <v>741</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -31787,15 +32403,18 @@
       </c>
       <c r="BD175" s="20">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE175" s="20">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>706</v>
+        <v>743</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>707</v>
+        <v>744</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -31955,15 +32574,18 @@
       </c>
       <c r="BD176" s="22">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE176" s="22">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>708</v>
+        <v>745</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -32118,20 +32740,23 @@
       <c r="BB177" s="20">
         <v>3.21015757740573</v>
       </c>
-      <c r="BC177" s="20" t="s">
-        <v>710</v>
+      <c r="BC177" s="20">
+        <v>3.12925705017989</v>
       </c>
       <c r="BD177" s="20" t="s">
-        <v>711</v>
+        <v>747</v>
+      </c>
+      <c r="BE177" s="20" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -32291,15 +32916,18 @@
       </c>
       <c r="BD178" s="22">
         <v>9.2172815847198102</v>
+      </c>
+      <c r="BE178" s="22">
+        <v>9.0546971401626699</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -32459,15 +33087,18 @@
       </c>
       <c r="BD179" s="20">
         <v>4.1306283016608001</v>
+      </c>
+      <c r="BE179" s="20">
+        <v>4.1669432335215797</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -32625,17 +33256,20 @@
       <c r="BC180" s="22">
         <v>20.187213094171501</v>
       </c>
-      <c r="BD180" s="22" t="s">
-        <v>718</v>
+      <c r="BD180" s="22">
+        <v>20.055993363597398</v>
+      </c>
+      <c r="BE180" s="22" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>719</v>
+        <v>756</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -32795,15 +33429,18 @@
       </c>
       <c r="BD181" s="20">
         <v>4832.3331268648099</v>
+      </c>
+      <c r="BE181" s="20">
+        <v>4875.3022402342904</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -32963,15 +33600,18 @@
       </c>
       <c r="BD182" s="22">
         <v>39.918445395829998</v>
+      </c>
+      <c r="BE182" s="22">
+        <v>39.257860235202401</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -33131,15 +33771,18 @@
       </c>
       <c r="BD183" s="20">
         <v>5.0111431150400696</v>
+      </c>
+      <c r="BE183" s="20">
+        <v>4.9282168701236602</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -33299,15 +33942,18 @@
       </c>
       <c r="BD184" s="22">
         <v>1.0544578969790499</v>
+      </c>
+      <c r="BE184" s="22">
+        <v>1.07869991389356</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>727</v>
+        <v>764</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -33467,15 +34113,18 @@
       </c>
       <c r="BD185" s="20">
         <v>1.3645045922505299</v>
+      </c>
+      <c r="BE185" s="20">
+        <v>1.3419242668818701</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>730</v>
+        <v>767</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -33633,17 +34282,20 @@
       <c r="BC186" s="22">
         <v>58.393379840827798</v>
       </c>
-      <c r="BD186" s="22" t="s">
-        <v>731</v>
+      <c r="BD186" s="22">
+        <v>56.147999466517099</v>
+      </c>
+      <c r="BE186" s="22" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -33803,15 +34455,18 @@
       </c>
       <c r="BD187" s="20">
         <v>15438.911442606601</v>
+      </c>
+      <c r="BE187" s="20">
+        <v>14921.4069781665</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>734</v>
+        <v>771</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>735</v>
+        <v>772</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -33957,29 +34612,32 @@
       <c r="AY188" s="22">
         <v>155.83999681520299</v>
       </c>
-      <c r="AZ188" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="BA188" s="22" t="s">
-        <v>737</v>
-      </c>
-      <c r="BB188" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="BC188" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="BD188" s="22" t="s">
-        <v>740</v>
+      <c r="AZ188" s="22">
+        <v>157.80780674301499</v>
+      </c>
+      <c r="BA188" s="22">
+        <v>157.90533496888401</v>
+      </c>
+      <c r="BB188" s="22">
+        <v>158.59862582422801</v>
+      </c>
+      <c r="BC188" s="22">
+        <v>154.31815319201999</v>
+      </c>
+      <c r="BD188" s="22">
+        <v>152.68806387283399</v>
+      </c>
+      <c r="BE188" s="22" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -34003,151 +34661,154 @@
         <v>118479.385723806</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="L189" s="20" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
       <c r="M189" s="20" t="s">
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="N189" s="20" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="O189" s="20" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="P189" s="20" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="Q189" s="20" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="R189" s="20" t="s">
-        <v>750</v>
+        <v>783</v>
       </c>
       <c r="S189" s="20" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="T189" s="20" t="s">
-        <v>752</v>
+        <v>785</v>
       </c>
       <c r="U189" s="20" t="s">
-        <v>753</v>
+        <v>786</v>
       </c>
       <c r="V189" s="20" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="W189" s="20" t="s">
-        <v>755</v>
+        <v>788</v>
       </c>
       <c r="X189" s="20" t="s">
-        <v>756</v>
+        <v>789</v>
       </c>
       <c r="Y189" s="20" t="s">
-        <v>757</v>
+        <v>790</v>
       </c>
       <c r="Z189" s="20" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="AA189" s="20" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="AB189" s="20" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="AC189" s="20" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="AD189" s="20" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="AE189" s="20" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="AF189" s="20" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="AG189" s="20" t="s">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="AH189" s="20" t="s">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="AI189" s="20" t="s">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="AJ189" s="20" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="AK189" s="20" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
       <c r="AL189" s="20" t="s">
-        <v>770</v>
+        <v>803</v>
       </c>
       <c r="AM189" s="20" t="s">
-        <v>771</v>
+        <v>804</v>
       </c>
       <c r="AN189" s="20" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="AO189" s="20" t="s">
-        <v>773</v>
+        <v>806</v>
       </c>
       <c r="AP189" s="20" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
       <c r="AQ189" s="20" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="AR189" s="20" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="AS189" s="20" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="AT189" s="20" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="AU189" s="20" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="AV189" s="20" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="AW189" s="20" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="AX189" s="20" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="AY189" s="20" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="AZ189" s="20" t="s">
-        <v>784</v>
+        <v>817</v>
       </c>
       <c r="BA189" s="20" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="BB189" s="20" t="s">
-        <v>786</v>
+        <v>819</v>
       </c>
       <c r="BC189" s="20" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="BD189" s="20" t="s">
-        <v>788</v>
+        <v>821</v>
+      </c>
+      <c r="BE189" s="20" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -34306,16 +34967,19 @@
         <v>32004.7226802761</v>
       </c>
       <c r="BD190" s="22" t="s">
-        <v>791</v>
+        <v>825</v>
+      </c>
+      <c r="BE190" s="22" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -34475,15 +35139,18 @@
       </c>
       <c r="BD191" s="20">
         <v>1317.38370033148</v>
+      </c>
+      <c r="BE191" s="20">
+        <v>1332.46586519433</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>795</v>
+        <v>830</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -34638,62 +35305,65 @@
       <c r="BB192" s="22">
         <v>25.354343295843702</v>
       </c>
-      <c r="BC192" s="22" t="s">
-        <v>796</v>
-      </c>
-      <c r="BD192" s="22" t="s">
-        <v>797</v>
+      <c r="BC192" s="22">
+        <v>24.900693397435901</v>
+      </c>
+      <c r="BD192" s="22">
+        <v>23.733992308065002</v>
+      </c>
+      <c r="BE192" s="22" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
       </c>
       <c r="E193" s="19" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="H193" s="20" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="L193" s="20" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="M193" s="20" t="s">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="O193" s="20" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="Q193" s="20" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="R193" s="20">
         <v>3.4824096119743699</v>
@@ -34810,16 +35480,19 @@
         <v>183.978052820561</v>
       </c>
       <c r="BD193" s="20" t="s">
-        <v>813</v>
+        <v>847</v>
+      </c>
+      <c r="BE193" s="20" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="194" ht="24.000000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>814</v>
+        <v>849</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>815</v>
+        <v>850</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -34979,15 +35652,18 @@
       </c>
       <c r="BD194" s="22">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE194" s="22">
+        <v>832.10721400106797</v>
       </c>
     </row>
     <row r="195" ht="24.000000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>816</v>
+        <v>851</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -35147,15 +35823,18 @@
       </c>
       <c r="BD195" s="20">
         <v>3.6841623990764298</v>
+      </c>
+      <c r="BE195" s="20">
+        <v>3.62319552058104</v>
       </c>
     </row>
     <row r="196" ht="24.000000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="23" t="s">
-        <v>818</v>
+        <v>853</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="D196" s="25" t="str">
         <v/>
@@ -35315,6 +35994,9 @@
       </c>
       <c r="BD196" s="22">
         <v>827.32055680978203</v>
+      </c>
+      <c r="BE196" s="22">
+        <v>832.10721400106797</v>
       </c>
     </row>
   </sheetData>

--- a/FOREX/data/FOREX_4M.xlsx
+++ b/FOREX/data/FOREX_4M.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="829">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Armenia, Rep. of</t>
   </si>
   <si>
@@ -533,9 +530,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -713,9 +707,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -815,12 +806,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -941,9 +926,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -1004,33 +986,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -1091,9 +1046,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Lao People's Dem. Rep.</t>
   </si>
   <si>
@@ -1103,9 +1055,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -1331,9 +1280,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -1517,9 +1463,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -1586,12 +1529,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -1628,12 +1565,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -1748,12 +1679,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -2487,9 +2412,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -3084,7 +3006,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:BE196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -5044,17 +4966,17 @@
       <c r="BD15" s="20">
         <v>154.51295231450999</v>
       </c>
-      <c r="BE15" s="20" t="s">
-        <v>121</v>
+      <c r="BE15" s="20">
+        <v>157.91026714319</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -5222,10 +5144,10 @@
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -5393,10 +5315,10 @@
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -5564,10 +5486,10 @@
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -5729,16 +5651,16 @@
         <v>2.3196578068259002</v>
       </c>
       <c r="BE19" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -5906,10 +5828,10 @@
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -6077,10 +5999,10 @@
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -6248,10 +6170,10 @@
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -6419,10 +6341,10 @@
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -6584,16 +6506,16 @@
         <v>3.8223867142714099</v>
       </c>
       <c r="BE24" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -6761,10 +6683,10 @@
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -6932,10 +6854,10 @@
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -7103,10 +7025,10 @@
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -7274,10 +7196,10 @@
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -7439,16 +7361,16 @@
         <v>9.4287267324511603</v>
       </c>
       <c r="BE29" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -7610,16 +7532,16 @@
         <v>2.4591076290786602</v>
       </c>
       <c r="BE30" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -7787,10 +7709,10 @@
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -7958,10 +7880,10 @@
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -8129,10 +8051,10 @@
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -8300,10 +8222,10 @@
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -8471,10 +8393,10 @@
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -8630,22 +8552,22 @@
         <v>2820.7459121564898</v>
       </c>
       <c r="BC36" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD36" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="BD36" s="22" t="s">
+      <c r="BE36" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="BE36" s="22" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>172</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -8806,17 +8728,17 @@
       <c r="BD37" s="20">
         <v>138.730819299622</v>
       </c>
-      <c r="BE37" s="20" t="s">
-        <v>173</v>
+      <c r="BE37" s="20">
+        <v>140.026121596563</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -8978,16 +8900,16 @@
         <v>5553.3744982572198</v>
       </c>
       <c r="BE38" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -9155,10 +9077,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -9326,10 +9248,10 @@
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -9497,10 +9419,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -9668,10 +9590,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -9839,10 +9761,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -10010,10 +9932,10 @@
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -10181,10 +10103,10 @@
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -10352,10 +10274,10 @@
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -10523,10 +10445,10 @@
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -10682,22 +10604,22 @@
         <v>5518.3573020860304</v>
       </c>
       <c r="BC48" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD48" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE48" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="BD48" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE48" s="22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -10865,10 +10787,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -11036,10 +10958,10 @@
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -11207,10 +11129,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -11372,16 +11294,16 @@
         <v>898.70093058478199</v>
       </c>
       <c r="BE52" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -11549,10 +11471,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -11720,10 +11642,10 @@
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -11891,10 +11813,10 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -12062,10 +11984,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -12233,10 +12155,10 @@
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -12404,10 +12326,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -12575,10 +12497,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -12746,10 +12668,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -12911,16 +12833,16 @@
         <v>75.321881546362306</v>
       </c>
       <c r="BE61" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -13088,10 +13010,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -13249,20 +13171,20 @@
       <c r="BC63" s="20">
         <v>23.0622144137939</v>
       </c>
-      <c r="BD63" s="20" t="s">
-        <v>232</v>
+      <c r="BD63" s="20">
+        <v>25.049317564778899</v>
       </c>
       <c r="BE63" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -13430,10 +13352,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -13601,10 +13523,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -13772,10 +13694,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -13934,19 +13856,19 @@
         <v>20.705235383801501</v>
       </c>
       <c r="BD67" s="20">
-        <v>20.527939683811301</v>
+        <v>20.404539278281302</v>
       </c>
       <c r="BE67" s="20">
-        <v>21.322882122927599</v>
+        <v>21.338014659949099</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -14075,49 +13997,49 @@
         <v>61.273317781734001</v>
       </c>
       <c r="AT68" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU68" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV68" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW68" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="AU68" s="22" t="s">
+      <c r="AX68" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AV68" s="22" t="s">
+      <c r="AY68" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AW68" s="22" t="s">
+      <c r="AZ68" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AX68" s="22" t="s">
+      <c r="BA68" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AY68" s="22" t="s">
+      <c r="BB68" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AZ68" s="22" t="s">
+      <c r="BC68" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="BA68" s="22" t="s">
+      <c r="BD68" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="BB68" s="22" t="s">
+      <c r="BE68" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="BC68" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="BD68" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE68" s="22" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -14285,10 +14207,10 @@
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -14456,10 +14378,10 @@
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -14627,10 +14549,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -14798,10 +14720,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -14956,23 +14878,23 @@
       <c r="BB73" s="20">
         <v>73.929887793488305</v>
       </c>
-      <c r="BC73" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD73" s="20" t="s">
-        <v>267</v>
+      <c r="BC73" s="20">
+        <v>73.334260687199105</v>
+      </c>
+      <c r="BD73" s="20">
+        <v>72.381081766732393</v>
       </c>
       <c r="BE73" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -15140,10 +15062,10 @@
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -15302,19 +15224,19 @@
         <v>9.7405238985960594</v>
       </c>
       <c r="BD75" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="BE75" s="20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -15482,10 +15404,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -15653,10 +15575,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -15824,10 +15746,10 @@
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -15995,10 +15917,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -16127,49 +16049,49 @@
         <v>14111.720714393399</v>
       </c>
       <c r="AT80" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU80" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="AV80" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="AW80" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX80" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY80" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="AU80" s="22" t="s">
+      <c r="AZ80" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="AV80" s="22" t="s">
+      <c r="BA80" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="AW80" s="22" t="s">
+      <c r="BB80" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="AX80" s="22" t="s">
+      <c r="BC80" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="AY80" s="22" t="s">
+      <c r="BD80" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="AZ80" s="22" t="s">
+      <c r="BE80" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="BA80" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="BB80" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="BC80" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="BD80" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="BE80" s="22" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -16337,10 +16259,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -16502,16 +16424,16 @@
         <v>284.499207484235</v>
       </c>
       <c r="BE82" s="22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -16673,16 +16595,16 @@
         <v>144.949413884504</v>
       </c>
       <c r="BE83" s="20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -16850,10 +16772,10 @@
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -17014,17 +16936,17 @@
       <c r="BD85" s="20">
         <v>472.95093671995602</v>
       </c>
-      <c r="BE85" s="20" t="s">
-        <v>309</v>
+      <c r="BE85" s="20">
+        <v>487.95050192358502</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -17192,10 +17114,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -17363,10 +17285,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -17534,10 +17456,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -17705,10 +17627,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -17861,25 +17783,25 @@
         <v>2029.6315548699699</v>
       </c>
       <c r="BB90" s="22" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="BC90" s="22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="BD90" s="22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="BE90" s="22" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -18047,10 +17969,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -18218,10 +18140,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -18358,41 +18280,41 @@
       <c r="AV93" s="20">
         <v>218.40300610627901</v>
       </c>
-      <c r="AW93" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="AX93" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="AY93" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="AZ93" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="BA93" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="BB93" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="BC93" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="BD93" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="BE93" s="20" t="s">
-        <v>338</v>
+      <c r="AW93" s="20">
+        <v>211.7382391491</v>
+      </c>
+      <c r="AX93" s="20">
+        <v>213.671025180745</v>
+      </c>
+      <c r="AY93" s="20">
+        <v>218.290862902908</v>
+      </c>
+      <c r="AZ93" s="20">
+        <v>215.66936886929901</v>
+      </c>
+      <c r="BA93" s="20">
+        <v>217.13268991539601</v>
+      </c>
+      <c r="BB93" s="20">
+        <v>219.00353242901701</v>
+      </c>
+      <c r="BC93" s="20">
+        <v>211.983486630448</v>
+      </c>
+      <c r="BD93" s="20">
+        <v>210.67048535916501</v>
+      </c>
+      <c r="BE93" s="20">
+        <v>207.54251513013699</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -18560,10 +18482,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -18731,10 +18653,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -18902,10 +18824,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -19073,10 +18995,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -19244,10 +19166,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -19415,10 +19337,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -19586,10 +19508,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -19757,10 +19679,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -19928,10 +19850,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -20092,17 +20014,17 @@
       <c r="BD103" s="20">
         <v>114.74830023127301</v>
       </c>
-      <c r="BE103" s="20" t="s">
-        <v>359</v>
+      <c r="BE103" s="20">
+        <v>109.207801067671</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -20260,20 +20182,20 @@
       <c r="BC104" s="22">
         <v>15745.1371906193</v>
       </c>
-      <c r="BD104" s="22" t="s">
-        <v>362</v>
+      <c r="BD104" s="22">
+        <v>16106.005760439901</v>
       </c>
       <c r="BE104" s="22" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -20441,10 +20363,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -20603,19 +20525,19 @@
         <v>20.705235383801501</v>
       </c>
       <c r="BD106" s="22">
-        <v>20.527939683811301</v>
+        <v>20.404539278281302</v>
       </c>
       <c r="BE106" s="22">
-        <v>21.322882122927599</v>
+        <v>21.338014659949099</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -20753,40 +20675,40 @@
         <v>244.12468651827299</v>
       </c>
       <c r="AW107" s="20" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="AX107" s="20" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="AY107" s="20" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="AZ107" s="20" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="BA107" s="20" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="BB107" s="20" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="BC107" s="20" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="BD107" s="20" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="BE107" s="20" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -20897,67 +20819,67 @@
         <v>1.9381163522996301</v>
       </c>
       <c r="AN108" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AO108" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP108" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ108" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR108" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="AS108" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT108" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU108" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="AV108" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="AW108" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX108" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY108" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="AZ108" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA108" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB108" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="BC108" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="BD108" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE108" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="AO108" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP108" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ108" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR108" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="AS108" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT108" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="AU108" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="AV108" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW108" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="AX108" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="AY108" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="AZ108" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="BA108" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="BB108" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="BC108" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="BD108" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="BE108" s="22" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -21125,10 +21047,10 @@
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -21269,37 +21191,37 @@
         <v>1165.7044779849</v>
       </c>
       <c r="AX110" s="22" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="AY110" s="22" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="AZ110" s="22" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="BA110" s="22" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="BB110" s="22" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="BC110" s="22" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="BD110" s="22" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="BE110" s="22" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -21467,10 +21389,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -21638,10 +21560,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -21809,10 +21731,10 @@
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -21941,49 +21863,49 @@
         <v>51.80477936554</v>
       </c>
       <c r="AT114" s="22" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="AU114" s="22" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="AV114" s="22" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="AW114" s="22" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AX114" s="22" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AY114" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="AZ114" s="22" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="BA114" s="22" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="BB114" s="22" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="BC114" s="22" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="BD114" s="22" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="BE114" s="22" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -22151,10 +22073,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -22322,10 +22244,10 @@
     <row r="117" ht="24.000000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -22493,10 +22415,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -22657,17 +22579,17 @@
       <c r="BD118" s="22">
         <v>25.1443037616779</v>
       </c>
-      <c r="BE118" s="22" t="s">
-        <v>439</v>
+      <c r="BE118" s="22">
+        <v>25.3951072673912</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -22826,19 +22748,19 @@
         <v>4011.2601241273001</v>
       </c>
       <c r="BD119" s="20" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="BE119" s="20" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -23006,10 +22928,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -23177,10 +23099,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -23342,16 +23264,16 @@
         <v>13.402437006003201</v>
       </c>
       <c r="BE122" s="22" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -23513,16 +23435,16 @@
         <v>87.096328123351299</v>
       </c>
       <c r="BE123" s="20" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -23645,55 +23567,55 @@
         <v>2044.2286967290399</v>
       </c>
       <c r="AR124" s="22" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="AS124" s="22" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AT124" s="22" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="AU124" s="22" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="AV124" s="22" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="AW124" s="22" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="AX124" s="22" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="AY124" s="22" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="AZ124" s="22" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="BA124" s="22" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="BB124" s="22" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="BC124" s="22" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="BD124" s="22" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="BE124" s="22" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -23861,10 +23783,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -24032,10 +23954,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -24197,16 +24119,16 @@
         <v>165.91557139011101</v>
       </c>
       <c r="BE127" s="20" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -24374,10 +24296,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -24545,10 +24467,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -24698,28 +24620,28 @@
         <v>49.609658615622301</v>
       </c>
       <c r="BA130" s="22" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="BB130" s="22" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="BC130" s="22" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="BD130" s="22" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="BE130" s="22" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -24887,10 +24809,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -25034,34 +24956,34 @@
         <v>581.30277410599001</v>
       </c>
       <c r="AY132" s="22" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="AZ132" s="22" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="BA132" s="22" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="BB132" s="22" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="BC132" s="22" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="BD132" s="22" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="BE132" s="22" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -25222,17 +25144,17 @@
       <c r="BD133" s="20">
         <v>77.464699558032507</v>
       </c>
-      <c r="BE133" s="20" t="s">
-        <v>501</v>
+      <c r="BE133" s="20">
+        <v>78.329327189734798</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -25394,16 +25316,16 @@
         <v>12.1440908710297</v>
       </c>
       <c r="BE134" s="22">
-        <v>12.861352565132201</v>
+        <v>12.869053719397099</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -25571,10 +25493,10 @@
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -25742,10 +25664,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -25913,10 +25835,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -26084,10 +26006,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -26240,25 +26162,25 @@
         <v>4.9113891224923698</v>
       </c>
       <c r="BB139" s="20" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="BC139" s="20" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="BD139" s="20" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="BE139" s="20" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -26417,19 +26339,19 @@
         <v>9625.0228776114509</v>
       </c>
       <c r="BD140" s="22" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="BE140" s="22" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -26587,20 +26509,20 @@
       <c r="BC141" s="20">
         <v>5.16819716904212</v>
       </c>
-      <c r="BD141" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="BE141" s="20" t="s">
-        <v>525</v>
+      <c r="BD141" s="20">
+        <v>5.1028880948611199</v>
+      </c>
+      <c r="BE141" s="20">
+        <v>5.0423414293661999</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -26768,10 +26690,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -26939,10 +26861,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -27110,10 +27032,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -27281,10 +27203,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -27452,10 +27374,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -27613,20 +27535,20 @@
       <c r="BC147" s="20">
         <v>1408.0254241949001</v>
       </c>
-      <c r="BD147" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="BE147" s="20" t="s">
-        <v>539</v>
+      <c r="BD147" s="20">
+        <v>1391.0709399437701</v>
+      </c>
+      <c r="BE147" s="20">
+        <v>1370.27657698497</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -27794,10 +27716,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -27965,10 +27887,10 @@
     <row r="150" ht="24.000000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -28088,58 +28010,58 @@
         <v>29.153641875437401</v>
       </c>
       <c r="AQ150" s="22" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="AR150" s="22" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="AS150" s="22" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AT150" s="22" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="AU150" s="22" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="AV150" s="22" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="AW150" s="22" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="AX150" s="22" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="AY150" s="22" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="AZ150" s="22" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="BA150" s="22" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="BB150" s="22" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="BC150" s="22" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="BD150" s="22" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="BE150" s="22" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -28307,10 +28229,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -28478,10 +28400,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -28649,10 +28571,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -28820,10 +28742,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -28985,16 +28907,16 @@
         <v>16701.413403733201</v>
       </c>
       <c r="BE155" s="20" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -29162,10 +29084,10 @@
     <row r="157" ht="24.000000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -29333,10 +29255,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -29494,20 +29416,20 @@
       <c r="BC158" s="22">
         <v>11.131803675202899</v>
       </c>
-      <c r="BD158" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="BE158" s="22" t="s">
-        <v>579</v>
+      <c r="BD158" s="22">
+        <v>10.952518211261401</v>
+      </c>
+      <c r="BE158" s="22">
+        <v>10.890714292425701</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -29531,154 +29453,154 @@
         <v>33343.625668374101</v>
       </c>
       <c r="K159" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="L159" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="M159" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="N159" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="O159" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="P159" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q159" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="R159" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="S159" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="T159" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="U159" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="V159" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="W159" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="X159" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y159" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z159" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA159" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB159" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC159" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD159" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE159" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF159" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG159" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH159" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="AI159" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="AJ159" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="L159" s="20" t="s">
+      <c r="AK159" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="M159" s="20" t="s">
+      <c r="AL159" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="N159" s="20" t="s">
+      <c r="AM159" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="O159" s="20" t="s">
+      <c r="AN159" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="P159" s="20" t="s">
+      <c r="AO159" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="Q159" s="20" t="s">
+      <c r="AP159" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="R159" s="20" t="s">
+      <c r="AQ159" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="S159" s="20" t="s">
+      <c r="AR159" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="T159" s="20" t="s">
+      <c r="AS159" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="U159" s="20" t="s">
+      <c r="AT159" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="V159" s="20" t="s">
+      <c r="AU159" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="W159" s="20" t="s">
+      <c r="AV159" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="X159" s="20" t="s">
+      <c r="AW159" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="Y159" s="20" t="s">
+      <c r="AX159" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="Z159" s="20" t="s">
+      <c r="AY159" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="AA159" s="20" t="s">
+      <c r="AZ159" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="AB159" s="20" t="s">
+      <c r="BA159" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="AC159" s="20" t="s">
+      <c r="BB159" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="AD159" s="20" t="s">
+      <c r="BC159" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="AE159" s="20" t="s">
+      <c r="BD159" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="AF159" s="20" t="s">
+      <c r="BE159" s="20" t="s">
         <v>603</v>
-      </c>
-      <c r="AG159" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH159" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI159" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ159" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="AK159" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="AL159" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="AM159" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="AN159" s="20" t="s">
-        <v>611</v>
-      </c>
-      <c r="AO159" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="AP159" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="AQ159" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="AR159" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS159" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="AT159" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="AU159" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="AV159" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="AW159" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="AX159" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="AY159" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="AZ159" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="BA159" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="BB159" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="BC159" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="BD159" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="BE159" s="20" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -29837,19 +29759,19 @@
         <v>20.705235383801501</v>
       </c>
       <c r="BD160" s="22">
-        <v>20.527939683811301</v>
+        <v>20.404539278281302</v>
       </c>
       <c r="BE160" s="22">
-        <v>21.322882122927599</v>
+        <v>21.338014659949099</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -29999,28 +29921,28 @@
         <v>587.89376473551499</v>
       </c>
       <c r="BA161" s="20" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="BB161" s="20" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="BC161" s="20" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="BD161" s="20" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="BE161" s="20" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -30140,58 +30062,58 @@
         <v>279.45170558869</v>
       </c>
       <c r="AQ162" s="22" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="AR162" s="22" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="AS162" s="22" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="AT162" s="22" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="AU162" s="22" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="AV162" s="22" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="AW162" s="22" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="AX162" s="22" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="AY162" s="22" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="AZ162" s="22" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="BA162" s="22" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="BB162" s="22" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="BC162" s="22" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="BD162" s="22" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="BE162" s="22" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -30359,10 +30281,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -30530,10 +30452,10 @@
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -30701,10 +30623,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -30833,49 +30755,49 @@
         <v>585.57667243982996</v>
       </c>
       <c r="AT166" s="22" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="AU166" s="22" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="AV166" s="22" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="AW166" s="22" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="AX166" s="22" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="AY166" s="22" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="AZ166" s="22" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="BA166" s="22" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="BB166" s="22" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="BC166" s="22" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="BD166" s="22" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="BE166" s="22" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -31034,19 +30956,19 @@
         <v>29.695140997203101</v>
       </c>
       <c r="BD167" s="20" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="BE167" s="20" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -31214,10 +31136,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -31385,10 +31307,10 @@
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -31421,145 +31343,145 @@
         <v>611.21222523736901</v>
       </c>
       <c r="N170" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="O170" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="P170" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q170" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="R170" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="S170" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="T170" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="U170" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="V170" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="W170" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="X170" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y170" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z170" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA170" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB170" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC170" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD170" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE170" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="AF170" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="AG170" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="AH170" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="AI170" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="AJ170" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="AK170" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="AL170" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="AM170" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="O170" s="22" t="s">
+      <c r="AN170" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="P170" s="22" t="s">
+      <c r="AO170" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="Q170" s="22" t="s">
+      <c r="AP170" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="R170" s="22" t="s">
+      <c r="AQ170" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="S170" s="22" t="s">
+      <c r="AR170" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="T170" s="22" t="s">
+      <c r="AS170" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="U170" s="22" t="s">
+      <c r="AT170" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="V170" s="22" t="s">
+      <c r="AU170" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="W170" s="22" t="s">
+      <c r="AV170" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="X170" s="22" t="s">
+      <c r="AW170" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="Y170" s="22" t="s">
+      <c r="AX170" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="Z170" s="22" t="s">
+      <c r="AY170" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="AA170" s="22" t="s">
+      <c r="AZ170" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="AB170" s="22" t="s">
+      <c r="BA170" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="AC170" s="22" t="s">
+      <c r="BB170" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="AD170" s="22" t="s">
+      <c r="BC170" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="AE170" s="22" t="s">
+      <c r="BD170" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="AF170" s="22" t="s">
+      <c r="BE170" s="22" t="s">
         <v>703</v>
-      </c>
-      <c r="AG170" s="22" t="s">
-        <v>704</v>
-      </c>
-      <c r="AH170" s="22" t="s">
-        <v>705</v>
-      </c>
-      <c r="AI170" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="AJ170" s="22" t="s">
-        <v>707</v>
-      </c>
-      <c r="AK170" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="AL170" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="AM170" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="AN170" s="22" t="s">
-        <v>711</v>
-      </c>
-      <c r="AO170" s="22" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP170" s="22" t="s">
-        <v>713</v>
-      </c>
-      <c r="AQ170" s="22" t="s">
-        <v>714</v>
-      </c>
-      <c r="AR170" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="AS170" s="22" t="s">
-        <v>716</v>
-      </c>
-      <c r="AT170" s="22" t="s">
-        <v>717</v>
-      </c>
-      <c r="AU170" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="AV170" s="22" t="s">
-        <v>719</v>
-      </c>
-      <c r="AW170" s="22" t="s">
-        <v>720</v>
-      </c>
-      <c r="AX170" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="AY170" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="AZ170" s="22" t="s">
-        <v>723</v>
-      </c>
-      <c r="BA170" s="22" t="s">
-        <v>724</v>
-      </c>
-      <c r="BB170" s="22" t="s">
-        <v>725</v>
-      </c>
-      <c r="BC170" s="22" t="s">
-        <v>726</v>
-      </c>
-      <c r="BD170" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="BE170" s="22" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -31721,16 +31643,16 @@
         <v>39.772579854918398</v>
       </c>
       <c r="BE171" s="20" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -31892,16 +31814,16 @@
         <v>17.079776882118299</v>
       </c>
       <c r="BE172" s="22" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -32060,19 +31982,19 @@
         <v>3177.1955635342802</v>
       </c>
       <c r="BD173" s="20" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="BE173" s="20" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -32240,10 +32162,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -32411,10 +32333,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -32582,10 +32504,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -32744,19 +32666,19 @@
         <v>3.12925705017989</v>
       </c>
       <c r="BD177" s="20" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="BE177" s="20" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -32924,10 +32846,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -33095,10 +33017,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -33260,16 +33182,16 @@
         <v>20.055993363597398</v>
       </c>
       <c r="BE180" s="22" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -33437,10 +33359,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -33608,10 +33530,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -33779,10 +33701,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -33950,10 +33872,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -34121,10 +34043,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -34286,16 +34208,16 @@
         <v>56.147999466517099</v>
       </c>
       <c r="BE186" s="22" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -34463,10 +34385,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -34628,16 +34550,16 @@
         <v>152.68806387283399</v>
       </c>
       <c r="BE188" s="22" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -34661,154 +34583,154 @@
         <v>118479.385723806</v>
       </c>
       <c r="K189" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="L189" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="M189" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="N189" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="O189" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="P189" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q189" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="R189" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="S189" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="T189" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="U189" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="V189" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="W189" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="X189" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y189" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z189" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="AA189" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="AB189" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="AC189" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD189" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE189" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="AF189" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="AG189" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="AH189" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="AI189" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ189" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="L189" s="20" t="s">
+      <c r="AK189" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="M189" s="20" t="s">
+      <c r="AL189" s="20" t="s">
         <v>778</v>
       </c>
-      <c r="N189" s="20" t="s">
+      <c r="AM189" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="O189" s="20" t="s">
+      <c r="AN189" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="P189" s="20" t="s">
+      <c r="AO189" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="Q189" s="20" t="s">
+      <c r="AP189" s="20" t="s">
         <v>782</v>
       </c>
-      <c r="R189" s="20" t="s">
+      <c r="AQ189" s="20" t="s">
         <v>783</v>
       </c>
-      <c r="S189" s="20" t="s">
+      <c r="AR189" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="T189" s="20" t="s">
+      <c r="AS189" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="U189" s="20" t="s">
+      <c r="AT189" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="V189" s="20" t="s">
+      <c r="AU189" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="W189" s="20" t="s">
+      <c r="AV189" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="X189" s="20" t="s">
+      <c r="AW189" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="Y189" s="20" t="s">
+      <c r="AX189" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="Z189" s="20" t="s">
+      <c r="AY189" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="AA189" s="20" t="s">
+      <c r="AZ189" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="AB189" s="20" t="s">
+      <c r="BA189" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="AC189" s="20" t="s">
+      <c r="BB189" s="20" t="s">
         <v>794</v>
       </c>
-      <c r="AD189" s="20" t="s">
+      <c r="BC189" s="20" t="s">
         <v>795</v>
       </c>
-      <c r="AE189" s="20" t="s">
+      <c r="BD189" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="AF189" s="20" t="s">
+      <c r="BE189" s="20" t="s">
         <v>797</v>
-      </c>
-      <c r="AG189" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="AH189" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="AI189" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="AJ189" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="AK189" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="AL189" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="AM189" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="AN189" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="AO189" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="AP189" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="AQ189" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="AR189" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="AS189" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="AT189" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="AU189" s="20" t="s">
-        <v>812</v>
-      </c>
-      <c r="AV189" s="20" t="s">
-        <v>813</v>
-      </c>
-      <c r="AW189" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="AX189" s="20" t="s">
-        <v>815</v>
-      </c>
-      <c r="AY189" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="AZ189" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="BA189" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="BB189" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="BC189" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="BD189" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="BE189" s="20" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -34966,20 +34888,20 @@
       <c r="BC190" s="22">
         <v>32004.7226802761</v>
       </c>
-      <c r="BD190" s="22" t="s">
-        <v>825</v>
+      <c r="BD190" s="22">
+        <v>31537.685480319102</v>
       </c>
       <c r="BE190" s="22" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -35147,10 +35069,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -35312,58 +35234,58 @@
         <v>23.733992308065002</v>
       </c>
       <c r="BE192" s="22" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
       </c>
       <c r="E193" s="19" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="H193" s="20" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
       <c r="L193" s="20" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="M193" s="20" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
       <c r="O193" s="20" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="Q193" s="20" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="R193" s="20">
         <v>3.4824096119743699</v>
@@ -35480,19 +35402,19 @@
         <v>183.978052820561</v>
       </c>
       <c r="BD193" s="20" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="BE193" s="20" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
     </row>
     <row r="194" ht="24.000000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -35660,10 +35582,10 @@
     <row r="195" ht="24.000000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -35831,10 +35753,10 @@
     <row r="196" ht="24.000000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="23" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="D196" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_4M.xlsx
+++ b/FOREX/data/FOREX_4M.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="844">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -191,6 +191,15 @@
     <t>2022M05</t>
   </si>
   <si>
+    <t>2022M06</t>
+  </si>
+  <si>
+    <t>2022M07</t>
+  </si>
+  <si>
+    <t>2022M08</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -233,6 +242,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -356,9 +374,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Anguilla</t>
   </si>
   <si>
@@ -521,15 +536,18 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -539,6 +557,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
@@ -608,6 +629,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Comoros, Union of the</t>
   </si>
   <si>
@@ -632,9 +662,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Côte d'Ivoire</t>
   </si>
   <si>
@@ -689,9 +716,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -740,39 +764,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -806,6 +797,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -890,6 +890,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -914,6 +923,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -962,12 +980,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -986,6 +998,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -1016,6 +1031,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Kiribati</t>
   </si>
   <si>
@@ -1055,6 +1073,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -1100,6 +1121,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -1115,51 +1145,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Madagascar, Rep. of</t>
   </si>
   <si>
@@ -1196,6 +1181,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -1229,33 +1223,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -1319,9 +1286,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
@@ -1370,6 +1334,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -1391,6 +1364,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -1415,15 +1391,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -1457,6 +1424,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>North Macedonia, Republic of</t>
   </si>
   <si>
@@ -1511,6 +1487,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -1523,12 +1508,24 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -1628,6 +1625,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1658,9 +1664,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -1679,6 +1682,15 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1826,6 +1838,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -1841,18 +1862,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -1904,6 +1913,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>St. Kitts and Nevis</t>
   </si>
   <si>
@@ -1964,18 +1982,21 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2126,6 +2147,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Taiwan Province of China</t>
   </si>
   <si>
@@ -2144,18 +2174,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -2186,6 +2213,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -2204,9 +2234,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -2261,6 +2288,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
@@ -2408,6 +2444,15 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
@@ -2423,6 +2468,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
@@ -2432,16 +2480,13 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -3004,7 +3049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BE196"/>
+  <dimension ref="A1:BH196"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -3069,6 +3114,9 @@
     <col min="55" max="55" width="9.710938" customWidth="1"/>
     <col min="56" max="56" width="9.710938" customWidth="1"/>
     <col min="57" max="57" width="9.710938" customWidth="1"/>
+    <col min="58" max="58" width="9.710938" customWidth="1"/>
+    <col min="59" max="59" width="9.710938" customWidth="1"/>
+    <col min="60" max="60" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -3129,6 +3177,9 @@
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -3190,6 +3241,9 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -3251,6 +3305,9 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -3310,6 +3367,9 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -3371,6 +3431,9 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -3430,6 +3493,9 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -3598,17 +3664,26 @@
       <c r="BD7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BE7" s="10" t="s">
+      <c r="BE7" s="9" t="s">
         <v>58</v>
+      </c>
+      <c r="BF7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH7" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -3737,49 +3812,58 @@
         <v>111.60884510278601</v>
       </c>
       <c r="AT8" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU8" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW8" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY8" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ8" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BA8" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BB8" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BC8" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BD8" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="BE8" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="BF8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH8" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3942,15 +4026,24 @@
       </c>
       <c r="BE9" s="20">
         <v>152.89885096852001</v>
+      </c>
+      <c r="BF9" s="20">
+        <v>151.559036594281</v>
+      </c>
+      <c r="BG9" s="20">
+        <v>151.816341205295</v>
+      </c>
+      <c r="BH9" s="20">
+        <v>151.79766630252001</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -4113,117 +4206,126 @@
       </c>
       <c r="BE10" s="22">
         <v>195.34485487698001</v>
+      </c>
+      <c r="BF10" s="22">
+        <v>195.12787678206899</v>
+      </c>
+      <c r="BG10" s="22">
+        <v>192.66967222118001</v>
+      </c>
+      <c r="BH10" s="22">
+        <v>187.266419534313</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AH11" s="20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AJ11" s="20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AK11" s="20" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AL11" s="20">
         <v>1.2007745785770401</v>
@@ -4284,15 +4386,24 @@
       </c>
       <c r="BE11" s="20">
         <v>1.2685392701062199</v>
+      </c>
+      <c r="BF11" s="20">
+        <v>1.26660294145941</v>
+      </c>
+      <c r="BG11" s="20">
+        <v>1.2936769211847901</v>
+      </c>
+      <c r="BH11" s="20">
+        <v>1.2979369405869501</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -4453,17 +4564,26 @@
       <c r="BD12" s="22">
         <v>573.87530878564201</v>
       </c>
-      <c r="BE12" s="22" t="s">
-        <v>114</v>
+      <c r="BE12" s="22">
+        <v>552.29792369905397</v>
+      </c>
+      <c r="BF12" s="22">
+        <v>576.29229933697695</v>
+      </c>
+      <c r="BG12" s="22">
+        <v>566.85822933669499</v>
+      </c>
+      <c r="BH12" s="22">
+        <v>564.82943064608298</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -4626,15 +4746,24 @@
       </c>
       <c r="BE13" s="20">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF13" s="20">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG13" s="20">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH13" s="20">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -4797,15 +4926,24 @@
       </c>
       <c r="BE14" s="22">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF14" s="22">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG14" s="22">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH14" s="22">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -4968,15 +5106,24 @@
       </c>
       <c r="BE15" s="20">
         <v>157.91026714319</v>
+      </c>
+      <c r="BF15" s="20">
+        <v>164.128734176725</v>
+      </c>
+      <c r="BG15" s="20">
+        <v>169.01653087646699</v>
+      </c>
+      <c r="BH15" s="20">
+        <v>177.737490945122</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -5139,15 +5286,24 @@
       </c>
       <c r="BE16" s="22">
         <v>612.63827073291395</v>
+      </c>
+      <c r="BF16" s="22">
+        <v>565.67684345133398</v>
+      </c>
+      <c r="BG16" s="22">
+        <v>541.24981511630995</v>
+      </c>
+      <c r="BH16" s="22">
+        <v>533.40634878436197</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -5310,15 +5466,24 @@
       </c>
       <c r="BE17" s="20">
         <v>2.4020444377185401</v>
+      </c>
+      <c r="BF17" s="20">
+        <v>2.39550265345486</v>
+      </c>
+      <c r="BG17" s="20">
+        <v>2.3571103370411799</v>
+      </c>
+      <c r="BH17" s="20">
+        <v>2.3531464681866301</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -5481,15 +5646,24 @@
       </c>
       <c r="BE18" s="22">
         <v>1.9028988469680499</v>
+      </c>
+      <c r="BF18" s="22">
+        <v>1.90356498810146</v>
+      </c>
+      <c r="BG18" s="22">
+        <v>1.92100490192358</v>
+      </c>
+      <c r="BH18" s="22">
+        <v>1.8887907759407701</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -5650,17 +5824,26 @@
       <c r="BD19" s="20">
         <v>2.3196578068259002</v>
       </c>
-      <c r="BE19" s="20" t="s">
-        <v>129</v>
+      <c r="BE19" s="20">
+        <v>2.2812712536991699</v>
+      </c>
+      <c r="BF19" s="20">
+        <v>2.2750583859627098</v>
+      </c>
+      <c r="BG19" s="20">
+        <v>2.2385964094804498</v>
+      </c>
+      <c r="BH19" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -5823,15 +6006,24 @@
       </c>
       <c r="BE20" s="22">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF20" s="22">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG20" s="22">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH20" s="22">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -5994,15 +6186,24 @@
       </c>
       <c r="BE21" s="20">
         <v>0.504563524347582</v>
+      </c>
+      <c r="BF21" s="20">
+        <v>0.50318938418939996</v>
+      </c>
+      <c r="BG21" s="20">
+        <v>0.495124852920383</v>
+      </c>
+      <c r="BH21" s="20">
+        <v>0.49429221901574</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -6165,15 +6366,24 @@
       </c>
       <c r="BE22" s="22">
         <v>116.992570459787</v>
+      </c>
+      <c r="BF22" s="22">
+        <v>123.16722413745001</v>
+      </c>
+      <c r="BG22" s="22">
+        <v>123.632817585757</v>
+      </c>
+      <c r="BH22" s="22">
+        <v>124.763504394886</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -6336,15 +6546,24 @@
       </c>
       <c r="BE23" s="20">
         <v>2.6838485337637401</v>
+      </c>
+      <c r="BF23" s="20">
+        <v>2.6765392776031902</v>
+      </c>
+      <c r="BG23" s="20">
+        <v>2.63364283468289</v>
+      </c>
+      <c r="BH23" s="20">
+        <v>2.62921393093478</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -6505,17 +6724,26 @@
       <c r="BD24" s="22">
         <v>3.8223867142714099</v>
       </c>
-      <c r="BE24" s="22" t="s">
-        <v>140</v>
+      <c r="BE24" s="22">
+        <v>3.4024489786789802</v>
+      </c>
+      <c r="BF24" s="22">
+        <v>3.4265055831876099</v>
+      </c>
+      <c r="BG24" s="22">
+        <v>3.4250525065051001</v>
+      </c>
+      <c r="BH24" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -6678,15 +6906,24 @@
       </c>
       <c r="BE25" s="20">
         <v>2.6838485337637401</v>
+      </c>
+      <c r="BF25" s="20">
+        <v>2.6765392776031902</v>
+      </c>
+      <c r="BG25" s="20">
+        <v>2.63364283468289</v>
+      </c>
+      <c r="BH25" s="20">
+        <v>2.62921393093478</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -6849,15 +7086,24 @@
       </c>
       <c r="BE26" s="22">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF26" s="22">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG26" s="22">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH26" s="22">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -7020,15 +7266,24 @@
       </c>
       <c r="BE27" s="20">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF27" s="20">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG27" s="20">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH27" s="20">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -7190,16 +7445,25 @@
         <v>103.93135836510599</v>
       </c>
       <c r="BE28" s="22">
-        <v>103.74303503114901</v>
+        <v>103.75661142021301</v>
+      </c>
+      <c r="BF28" s="22">
+        <v>104.48483632636</v>
+      </c>
+      <c r="BG28" s="22">
+        <v>104.821029028865</v>
+      </c>
+      <c r="BH28" s="22">
+        <v>104.58361940861499</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -7360,17 +7624,26 @@
       <c r="BD29" s="20">
         <v>9.4287267324511603</v>
       </c>
-      <c r="BE29" s="20" t="s">
-        <v>151</v>
+      <c r="BE29" s="20">
+        <v>9.2726966841537095</v>
+      </c>
+      <c r="BF29" s="20">
+        <v>9.2474432041190298</v>
+      </c>
+      <c r="BG29" s="20">
+        <v>9.0992359938293799</v>
+      </c>
+      <c r="BH29" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -7531,17 +7804,26 @@
       <c r="BD30" s="22">
         <v>2.4591076290786602</v>
       </c>
-      <c r="BE30" s="22" t="s">
-        <v>154</v>
+      <c r="BE30" s="22">
+        <v>2.48366745741831</v>
+      </c>
+      <c r="BF30" s="22">
+        <v>2.4741095786268801</v>
+      </c>
+      <c r="BG30" s="22">
+        <v>2.5267891059040499</v>
+      </c>
+      <c r="BH30" s="22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -7704,15 +7986,24 @@
       </c>
       <c r="BE31" s="20">
         <v>16.297133451573501</v>
+      </c>
+      <c r="BF31" s="20">
+        <v>16.2602437653672</v>
+      </c>
+      <c r="BG31" s="20">
+        <v>16.638960383101299</v>
+      </c>
+      <c r="BH31" s="20">
+        <v>16.617683729080198</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -7871,19 +8162,28 @@
         <v>6.8670684060187304</v>
       </c>
       <c r="BD32" s="22">
-        <v>6.4998327863475396</v>
+        <v>6.4915156919820198</v>
       </c>
       <c r="BE32" s="22">
-        <v>6.6608021295801798</v>
+        <v>6.6484966840528701</v>
+      </c>
+      <c r="BF32" s="22">
+        <v>6.7564008438788603</v>
+      </c>
+      <c r="BG32" s="22">
+        <v>7.0680076046893099</v>
+      </c>
+      <c r="BH32" s="22">
+        <v>6.7577206733980599</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -8046,15 +8346,24 @@
       </c>
       <c r="BE33" s="20">
         <v>1.8557890038042799</v>
+      </c>
+      <c r="BF33" s="20">
+        <v>1.85168085394641</v>
+      </c>
+      <c r="BG33" s="20">
+        <v>1.83679304438029</v>
+      </c>
+      <c r="BH33" s="20">
+        <v>1.81982237326892</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -8217,15 +8526,24 @@
       </c>
       <c r="BE34" s="22">
         <v>2.4822915088780801</v>
+      </c>
+      <c r="BF34" s="22">
+        <v>2.47753858231339</v>
+      </c>
+      <c r="BG34" s="22">
+        <v>2.53053571770505</v>
+      </c>
+      <c r="BH34" s="22">
+        <v>2.53890043240717</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -8388,15 +8706,24 @@
       </c>
       <c r="BE35" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF35" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG35" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH35" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -8551,23 +8878,32 @@
       <c r="BB36" s="22">
         <v>2820.7459121564898</v>
       </c>
-      <c r="BC36" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD36" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE36" s="22" t="s">
-        <v>169</v>
+      <c r="BC36" s="22">
+        <v>2789.5006449203102</v>
+      </c>
+      <c r="BD36" s="22">
+        <v>2759.84767053822</v>
+      </c>
+      <c r="BE36" s="22">
+        <v>2719.9785027252601</v>
+      </c>
+      <c r="BF36" s="22">
+        <v>2718.4921183923102</v>
+      </c>
+      <c r="BG36" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH36" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -8730,15 +9066,24 @@
       </c>
       <c r="BE37" s="20">
         <v>140.026121596563</v>
+      </c>
+      <c r="BF37" s="20">
+        <v>139.56374728257501</v>
+      </c>
+      <c r="BG37" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH37" s="20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -8899,17 +9244,26 @@
       <c r="BD38" s="22">
         <v>5553.3744982572198</v>
       </c>
-      <c r="BE38" s="22" t="s">
-        <v>174</v>
+      <c r="BE38" s="22">
+        <v>5491.4354712978502</v>
+      </c>
+      <c r="BF38" s="22">
+        <v>5476.1770574821503</v>
+      </c>
+      <c r="BG38" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH38" s="22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -9072,15 +9426,24 @@
       </c>
       <c r="BE39" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF39" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG39" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH39" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -9243,15 +9606,24 @@
       </c>
       <c r="BE40" s="22">
         <v>1.72600535746791</v>
+      </c>
+      <c r="BF40" s="22">
+        <v>1.7079331697795701</v>
+      </c>
+      <c r="BG40" s="22">
+        <v>1.70391269198147</v>
+      </c>
+      <c r="BH40" s="22">
+        <v>1.6986932923735201</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -9414,15 +9786,24 @@
       </c>
       <c r="BE41" s="20">
         <v>1.11826574932067</v>
+      </c>
+      <c r="BF41" s="20">
+        <v>1.11522023810253</v>
+      </c>
+      <c r="BG41" s="20">
+        <v>1.0973467917131501</v>
+      </c>
+      <c r="BH41" s="20">
+        <v>1.09550142253294</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -9585,15 +9966,24 @@
       </c>
       <c r="BE42" s="22">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF42" s="22">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG42" s="22">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH42" s="22">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -9756,15 +10146,24 @@
       </c>
       <c r="BE43" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF43" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG43" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH43" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -9927,15 +10326,24 @@
       </c>
       <c r="BE44" s="22">
         <v>1141.5513304088499</v>
+      </c>
+      <c r="BF44" s="22">
+        <v>1146.66746155705</v>
+      </c>
+      <c r="BG44" s="22">
+        <v>1251.0025245193001</v>
+      </c>
+      <c r="BH44" s="22">
+        <v>1188.8677969635401</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -10098,15 +10506,24 @@
       </c>
       <c r="BE45" s="20">
         <v>10.5341054950227</v>
+      </c>
+      <c r="BF45" s="20">
+        <v>10.5040783949537</v>
+      </c>
+      <c r="BG45" s="20">
+        <v>10.3370481261303</v>
+      </c>
+      <c r="BH45" s="20">
+        <v>10.315720858022599</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -10269,15 +10686,24 @@
       </c>
       <c r="BE46" s="22">
         <v>10.848833702955799</v>
+      </c>
+      <c r="BF46" s="22">
+        <v>10.8181635878323</v>
+      </c>
+      <c r="BG46" s="22">
+        <v>10.6456728785341</v>
+      </c>
+      <c r="BH46" s="22">
+        <v>10.6240711240218</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -10440,15 +10866,24 @@
       </c>
       <c r="BE47" s="20">
         <v>9.0143091665655994</v>
+      </c>
+      <c r="BF47" s="20">
+        <v>8.9611739456829795</v>
+      </c>
+      <c r="BG47" s="20">
+        <v>8.8692728856119594</v>
+      </c>
+      <c r="BH47" s="20">
+        <v>8.9421852064075509</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -10604,22 +11039,31 @@
         <v>5518.3573020860304</v>
       </c>
       <c r="BC48" s="22" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="BD48" s="22" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="BE48" s="22" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="BF48" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG48" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH48" s="22" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -10782,15 +11226,24 @@
       </c>
       <c r="BE49" s="20">
         <v>624.08041050080101</v>
+      </c>
+      <c r="BF49" s="20">
+        <v>623.12779925316602</v>
+      </c>
+      <c r="BG49" s="20">
+        <v>636.447324142208</v>
+      </c>
+      <c r="BH49" s="20">
+        <v>638.54311630244297</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -10953,15 +11406,24 @@
       </c>
       <c r="BE50" s="22">
         <v>2690.0190018782801</v>
+      </c>
+      <c r="BF50" s="22">
+        <v>2682.7412205902901</v>
+      </c>
+      <c r="BG50" s="22">
+        <v>2640.2073211304801</v>
+      </c>
+      <c r="BH50" s="22">
+        <v>2639.8956981268602</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -11124,15 +11586,24 @@
       </c>
       <c r="BE51" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF51" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG51" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH51" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -11293,17 +11764,26 @@
       <c r="BD52" s="22">
         <v>898.70093058478199</v>
       </c>
-      <c r="BE52" s="22" t="s">
-        <v>206</v>
+      <c r="BE52" s="22">
+        <v>903.12044259644301</v>
+      </c>
+      <c r="BF52" s="22">
+        <v>922.11149794250105</v>
+      </c>
+      <c r="BG52" s="22">
+        <v>897.12069695756099</v>
+      </c>
+      <c r="BH52" s="22">
+        <v>866.64361624853905</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -11466,15 +11946,24 @@
       </c>
       <c r="BE53" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF53" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG53" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH53" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -11637,15 +12126,24 @@
       </c>
       <c r="BE54" s="22">
         <v>9.5791465612844497</v>
+      </c>
+      <c r="BF54" s="22">
+        <v>9.4960615845370295</v>
+      </c>
+      <c r="BG54" s="22">
+        <v>9.7086306588824005</v>
+      </c>
+      <c r="BH54" s="22">
+        <v>9.7448238619151706</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -11808,15 +12306,24 @@
       </c>
       <c r="BE55" s="20">
         <v>2.4020444377185401</v>
+      </c>
+      <c r="BF55" s="20">
+        <v>2.39550265345486</v>
+      </c>
+      <c r="BG55" s="20">
+        <v>2.3571103370411799</v>
+      </c>
+      <c r="BH55" s="20">
+        <v>2.3531464681866301</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -11979,15 +12486,24 @@
       </c>
       <c r="BE56" s="22">
         <v>2.4020444377185401</v>
+      </c>
+      <c r="BF56" s="22">
+        <v>2.39550265345486</v>
+      </c>
+      <c r="BG56" s="22">
+        <v>2.3571103370411799</v>
+      </c>
+      <c r="BH56" s="22">
+        <v>2.3531464681866301</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -12150,15 +12666,24 @@
       </c>
       <c r="BE57" s="20">
         <v>31.3996859207688</v>
+      </c>
+      <c r="BF57" s="20">
+        <v>31.315509547957301</v>
+      </c>
+      <c r="BG57" s="20">
+        <v>31.810454978717299</v>
+      </c>
+      <c r="BH57" s="20">
+        <v>31.8936795892044</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -12321,15 +12846,24 @@
       </c>
       <c r="BE58" s="22">
         <v>9.4424854099417193</v>
+      </c>
+      <c r="BF58" s="22">
+        <v>9.4303464159969295</v>
+      </c>
+      <c r="BG58" s="22">
+        <v>9.6294635396268298</v>
+      </c>
+      <c r="BH58" s="22">
+        <v>9.6570856127025699</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -12492,15 +13026,24 @@
       </c>
       <c r="BE59" s="20">
         <v>238.488122634512</v>
+      </c>
+      <c r="BF59" s="20">
+        <v>237.838618477458</v>
+      </c>
+      <c r="BG59" s="20">
+        <v>234.02681911133899</v>
+      </c>
+      <c r="BH59" s="20">
+        <v>233.63326450983001</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -12663,15 +13206,24 @@
       </c>
       <c r="BE60" s="22">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF60" s="22">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG60" s="22">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH60" s="22">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -12832,17 +13384,26 @@
       <c r="BD61" s="20">
         <v>75.321881546362306</v>
       </c>
-      <c r="BE61" s="20" t="s">
-        <v>225</v>
+      <c r="BE61" s="20">
+        <v>74.239544601558904</v>
+      </c>
+      <c r="BF61" s="20">
+        <v>73.6004138442797</v>
+      </c>
+      <c r="BG61" s="20">
+        <v>72.057784778341201</v>
+      </c>
+      <c r="BH61" s="20">
+        <v>70.8266850963971</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -13005,15 +13566,24 @@
       </c>
       <c r="BE62" s="22">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF62" s="22">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG62" s="22">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH62" s="22">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -13174,17 +13744,26 @@
       <c r="BD63" s="20">
         <v>25.049317564778899</v>
       </c>
-      <c r="BE63" s="20" t="s">
-        <v>230</v>
+      <c r="BE63" s="20">
+        <v>24.6654030003881</v>
+      </c>
+      <c r="BF63" s="20">
+        <v>24.993026702678499</v>
+      </c>
+      <c r="BG63" s="20">
+        <v>24.8351284790518</v>
+      </c>
+      <c r="BH63" s="20" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -13347,15 +13926,24 @@
       </c>
       <c r="BE64" s="22">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF64" s="22">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG64" s="22">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH64" s="22">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -13518,15 +14106,24 @@
       </c>
       <c r="BE65" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF65" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG65" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH65" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -13689,15 +14286,24 @@
       </c>
       <c r="BE66" s="22">
         <v>20.2295083232442</v>
+      </c>
+      <c r="BF66" s="22">
+        <v>20.174414804934099</v>
+      </c>
+      <c r="BG66" s="22">
+        <v>19.851082866422299</v>
+      </c>
+      <c r="BH66" s="22">
+        <v>19.8177000044209</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -13860,15 +14466,24 @@
       </c>
       <c r="BE67" s="20">
         <v>21.338014659949099</v>
+      </c>
+      <c r="BF67" s="20">
+        <v>21.106190040725</v>
+      </c>
+      <c r="BG67" s="20">
+        <v>22.182426106729402</v>
+      </c>
+      <c r="BH67" s="20">
+        <v>21.955271844472598</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -13996,50 +14611,59 @@
       <c r="AS68" s="22">
         <v>61.273317781734001</v>
       </c>
-      <c r="AT68" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU68" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV68" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="AW68" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="AX68" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="AY68" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="AZ68" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="BA68" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="BB68" s="22" t="s">
+      <c r="AT68" s="22">
+        <v>62.295352722809703</v>
+      </c>
+      <c r="AU68" s="22">
+        <v>62.636223721381498</v>
+      </c>
+      <c r="AV68" s="22">
+        <v>63.857290748153801</v>
+      </c>
+      <c r="AW68" s="22">
+        <v>65.078295507454698</v>
+      </c>
+      <c r="AX68" s="22">
+        <v>65.947987452348599</v>
+      </c>
+      <c r="AY68" s="22">
+        <v>66.785069866800896</v>
+      </c>
+      <c r="AZ68" s="22">
+        <v>67.873990317567603</v>
+      </c>
+      <c r="BA68" s="22">
+        <v>69.300137631999306</v>
+      </c>
+      <c r="BB68" s="22">
+        <v>70.597712441295897</v>
+      </c>
+      <c r="BC68" s="22">
+        <v>70.342852464316607</v>
+      </c>
+      <c r="BD68" s="22">
+        <v>69.865364132411599</v>
+      </c>
+      <c r="BE68" s="22">
+        <v>69.092459883506805</v>
+      </c>
+      <c r="BF68" s="22">
+        <v>69.312464094595498</v>
+      </c>
+      <c r="BG68" s="22">
+        <v>68.569361808771106</v>
+      </c>
+      <c r="BH68" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="BC68" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="BD68" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="BE68" s="22" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -14202,15 +14826,24 @@
       </c>
       <c r="BE69" s="20">
         <v>1.2685392701062199</v>
+      </c>
+      <c r="BF69" s="20">
+        <v>1.26660294145941</v>
+      </c>
+      <c r="BG69" s="20">
+        <v>1.2936769211847901</v>
+      </c>
+      <c r="BH69" s="20">
+        <v>1.2979369405869501</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -14373,15 +15006,24 @@
       </c>
       <c r="BE70" s="22">
         <v>2.9322082172847699</v>
+      </c>
+      <c r="BF70" s="22">
+        <v>2.93442383700026</v>
+      </c>
+      <c r="BG70" s="22">
+        <v>2.9336900004914002</v>
+      </c>
+      <c r="BH70" s="22">
+        <v>2.90707611797492</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -14544,15 +15186,24 @@
       </c>
       <c r="BE71" s="20">
         <v>151.37694761853501</v>
+      </c>
+      <c r="BF71" s="20">
+        <v>151.145882229351</v>
+      </c>
+      <c r="BG71" s="20">
+        <v>154.37666625574701</v>
+      </c>
+      <c r="BH71" s="20">
+        <v>154.88502161303899</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -14715,15 +15366,24 @@
       </c>
       <c r="BE72" s="22">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF72" s="22">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG72" s="22">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH72" s="22">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -14885,6 +15545,15 @@
         <v>72.381081766732393</v>
       </c>
       <c r="BE73" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF73" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG73" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH73" s="20" t="s">
         <v>263</v>
       </c>
     </row>
@@ -15058,6 +15727,15 @@
       <c r="BE74" s="22">
         <v>3.9857834574925199</v>
       </c>
+      <c r="BF74" s="22">
+        <v>3.9539176478393099</v>
+      </c>
+      <c r="BG74" s="22">
+        <v>3.7489905751710899</v>
+      </c>
+      <c r="BH74" s="22">
+        <v>3.6472455649927298</v>
+      </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
@@ -15223,10 +15901,19 @@
       <c r="BC75" s="20">
         <v>9.7405238985960594</v>
       </c>
-      <c r="BD75" s="20" t="s">
+      <c r="BD75" s="20">
+        <v>9.7047660114634393</v>
+      </c>
+      <c r="BE75" s="20">
+        <v>9.5625523258001905</v>
+      </c>
+      <c r="BF75" s="20">
+        <v>9.6232293186945093</v>
+      </c>
+      <c r="BG75" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="BE75" s="20" t="s">
+      <c r="BH75" s="20" t="s">
         <v>269</v>
       </c>
     </row>
@@ -15400,6 +16087,15 @@
       <c r="BE76" s="22">
         <v>1.07869991389356</v>
       </c>
+      <c r="BF76" s="22">
+        <v>1.08779601783239</v>
+      </c>
+      <c r="BG76" s="22">
+        <v>1.0988254385813001</v>
+      </c>
+      <c r="BH76" s="22">
+        <v>1.09534399237547</v>
+      </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
@@ -15571,6 +16267,15 @@
       <c r="BE77" s="20">
         <v>3.62319552058104</v>
       </c>
+      <c r="BF77" s="20">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG77" s="20">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH77" s="20">
+        <v>3.5494388067619602</v>
+      </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
@@ -15742,6 +16447,15 @@
       <c r="BE78" s="22">
         <v>10.293303894952</v>
       </c>
+      <c r="BF78" s="22">
+        <v>10.355289576511799</v>
+      </c>
+      <c r="BG78" s="22">
+        <v>10.1842573370762</v>
+      </c>
+      <c r="BH78" s="22">
+        <v>10.1623062251526</v>
+      </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
@@ -15913,6 +16627,15 @@
       <c r="BE79" s="20">
         <v>1.07869991389356</v>
       </c>
+      <c r="BF79" s="20">
+        <v>1.08779601783239</v>
+      </c>
+      <c r="BG79" s="20">
+        <v>1.0988254385813001</v>
+      </c>
+      <c r="BH79" s="20">
+        <v>1.09534399237547</v>
+      </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
@@ -16084,14 +16807,23 @@
       <c r="BE80" s="22" t="s">
         <v>291</v>
       </c>
+      <c r="BF80" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="BG80" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH80" s="22" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -16254,15 +16986,24 @@
       </c>
       <c r="BE81" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF81" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG81" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH81" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -16423,17 +17164,26 @@
       <c r="BD82" s="22">
         <v>284.499207484235</v>
       </c>
-      <c r="BE82" s="22" t="s">
-        <v>296</v>
+      <c r="BE82" s="22">
+        <v>279.79120964486901</v>
+      </c>
+      <c r="BF82" s="22">
+        <v>279.029219690133</v>
+      </c>
+      <c r="BG82" s="22">
+        <v>274.55726551569097</v>
+      </c>
+      <c r="BH82" s="22" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -16595,16 +17345,25 @@
         <v>144.949413884504</v>
       </c>
       <c r="BE83" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
+      </c>
+      <c r="BF83" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG83" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH83" s="20" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -16767,15 +17526,24 @@
       </c>
       <c r="BE84" s="22">
         <v>32.711033484712502</v>
+      </c>
+      <c r="BF84" s="22">
+        <v>32.644265306235802</v>
+      </c>
+      <c r="BG84" s="22">
+        <v>32.1717406110103</v>
+      </c>
+      <c r="BH84" s="22">
+        <v>32.151536887639701</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -16938,15 +17706,24 @@
       </c>
       <c r="BE85" s="20">
         <v>487.95050192358502</v>
+      </c>
+      <c r="BF85" s="20">
+        <v>502.69422442304301</v>
+      </c>
+      <c r="BG85" s="20">
+        <v>522.55424304360497</v>
+      </c>
+      <c r="BH85" s="20">
+        <v>522.25390917123104</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -17109,15 +17886,24 @@
       </c>
       <c r="BE86" s="22">
         <v>175.78249378819001</v>
+      </c>
+      <c r="BF86" s="22">
+        <v>175.538151982328</v>
+      </c>
+      <c r="BG86" s="22">
+        <v>179.90915849973101</v>
+      </c>
+      <c r="BH86" s="22">
+        <v>182.06171129344199</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -17279,16 +18065,25 @@
         <v>103.93135836510599</v>
       </c>
       <c r="BE87" s="20">
-        <v>103.74303503114901</v>
+        <v>103.75661142021301</v>
+      </c>
+      <c r="BF87" s="20">
+        <v>104.48483632636</v>
+      </c>
+      <c r="BG87" s="20">
+        <v>104.821029028865</v>
+      </c>
+      <c r="BH87" s="20">
+        <v>104.58361940861499</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -17451,15 +18246,24 @@
       </c>
       <c r="BE88" s="22">
         <v>19602.833269075101</v>
+      </c>
+      <c r="BF88" s="22">
+        <v>19657.271729310702</v>
+      </c>
+      <c r="BG88" s="22">
+        <v>19731.754390756199</v>
+      </c>
+      <c r="BH88" s="22">
+        <v>19522.750602808301</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -17622,15 +18426,24 @@
       </c>
       <c r="BE89" s="20">
         <v>56360.819209038396</v>
+      </c>
+      <c r="BF89" s="20">
+        <v>56207.324829666999</v>
+      </c>
+      <c r="BG89" s="20">
+        <v>55306.499528340697</v>
+      </c>
+      <c r="BH89" s="20">
+        <v>55213.4925496305</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -17782,26 +18595,35 @@
       <c r="BA90" s="22">
         <v>2029.6315548699699</v>
       </c>
-      <c r="BB90" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="BC90" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="BD90" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="BE90" s="22" t="s">
-        <v>317</v>
+      <c r="BB90" s="22">
+        <v>2031.5195003986801</v>
+      </c>
+      <c r="BC90" s="22">
+        <v>2004.36523848212</v>
+      </c>
+      <c r="BD90" s="22">
+        <v>1978.5316587632699</v>
+      </c>
+      <c r="BE90" s="22">
+        <v>1945.7901869787099</v>
+      </c>
+      <c r="BF90" s="22">
+        <v>1940.4909762623099</v>
+      </c>
+      <c r="BG90" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH90" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -17964,15 +18786,24 @@
       </c>
       <c r="BE91" s="20">
         <v>1.07869991389356</v>
+      </c>
+      <c r="BF91" s="20">
+        <v>1.08779601783239</v>
+      </c>
+      <c r="BG91" s="20">
+        <v>1.0988254385813001</v>
+      </c>
+      <c r="BH91" s="20">
+        <v>1.09534399237547</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -18135,15 +18966,24 @@
       </c>
       <c r="BE92" s="22">
         <v>4.5383878705944802</v>
+      </c>
+      <c r="BF92" s="22">
+        <v>4.5689162739943097</v>
+      </c>
+      <c r="BG92" s="22">
+        <v>4.5634759746876599</v>
+      </c>
+      <c r="BH92" s="22">
+        <v>4.3366597517785799</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -18306,15 +19146,24 @@
       </c>
       <c r="BE93" s="20">
         <v>207.54251513013699</v>
+      </c>
+      <c r="BF93" s="20">
+        <v>203.86358696696399</v>
+      </c>
+      <c r="BG93" s="20">
+        <v>199.89481737971599</v>
+      </c>
+      <c r="BH93" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -18477,15 +19326,24 @@
       </c>
       <c r="BE94" s="22">
         <v>172.94496297529</v>
+      </c>
+      <c r="BF94" s="22">
+        <v>179.054742230344</v>
+      </c>
+      <c r="BG94" s="22">
+        <v>180.030972731595</v>
+      </c>
+      <c r="BH94" s="22">
+        <v>177.790433752913</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -18648,15 +19506,24 @@
       </c>
       <c r="BE95" s="20">
         <v>1.07869991389356</v>
+      </c>
+      <c r="BF95" s="20">
+        <v>1.08779601783239</v>
+      </c>
+      <c r="BG95" s="20">
+        <v>1.0988254385813001</v>
+      </c>
+      <c r="BH95" s="20">
+        <v>1.09534399237547</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -18819,15 +19686,24 @@
       </c>
       <c r="BE96" s="22">
         <v>0.95276622948612599</v>
+      </c>
+      <c r="BF96" s="22">
+        <v>0.95017144354913297</v>
+      </c>
+      <c r="BG96" s="22">
+        <v>0.934943206312425</v>
+      </c>
+      <c r="BH96" s="22">
+        <v>0.93337094548184896</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -18990,15 +19866,24 @@
       </c>
       <c r="BE97" s="20">
         <v>577.98020098868903</v>
+      </c>
+      <c r="BF97" s="20">
+        <v>591.98357472388602</v>
+      </c>
+      <c r="BG97" s="20">
+        <v>626.91234036791502</v>
+      </c>
+      <c r="BH97" s="20">
+        <v>623.99134222875296</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -19161,15 +20046,24 @@
       </c>
       <c r="BE98" s="22">
         <v>156.044854272962</v>
+      </c>
+      <c r="BF98" s="22">
+        <v>156.96602080048399</v>
+      </c>
+      <c r="BG98" s="22">
+        <v>155.80995382216199</v>
+      </c>
+      <c r="BH98" s="22" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -19332,15 +20226,24 @@
       </c>
       <c r="BE99" s="20">
         <v>1.9028988469680499</v>
+      </c>
+      <c r="BF99" s="20">
+        <v>1.90356498810146</v>
+      </c>
+      <c r="BG99" s="20">
+        <v>1.92100490192358</v>
+      </c>
+      <c r="BH99" s="20">
+        <v>1.8887907759407701</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -19502,16 +20405,25 @@
         <v>1681.5335892140199</v>
       </c>
       <c r="BE100" s="22">
-        <v>1704.95503880142</v>
+        <v>1704.0827880279501</v>
+      </c>
+      <c r="BF100" s="22">
+        <v>1709.4387231232199</v>
+      </c>
+      <c r="BG100" s="22">
+        <v>1721.6123210322</v>
+      </c>
+      <c r="BH100" s="22">
+        <v>1733.2316026480701</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -19674,15 +20586,24 @@
       </c>
       <c r="BE101" s="20">
         <v>1.2685392701062199</v>
+      </c>
+      <c r="BF101" s="20">
+        <v>1.26660294145941</v>
+      </c>
+      <c r="BG101" s="20">
+        <v>1.2936769211847901</v>
+      </c>
+      <c r="BH101" s="20">
+        <v>1.2979369405869501</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -19845,15 +20766,24 @@
       </c>
       <c r="BE102" s="22">
         <v>0.41117075661978503</v>
+      </c>
+      <c r="BF102" s="22">
+        <v>0.409987268032111</v>
+      </c>
+      <c r="BG102" s="22">
+        <v>0.40458240696634801</v>
+      </c>
+      <c r="BH102" s="22">
+        <v>0.40366044722280597</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -20016,15 +20946,24 @@
       </c>
       <c r="BE103" s="20">
         <v>109.207801067671</v>
+      </c>
+      <c r="BF103" s="20">
+        <v>106.486190994723</v>
+      </c>
+      <c r="BG103" s="20">
+        <v>106.52482077126901</v>
+      </c>
+      <c r="BH103" s="20">
+        <v>107.487451833126</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -20185,17 +21124,26 @@
       <c r="BD104" s="22">
         <v>16106.005760439901</v>
       </c>
-      <c r="BE104" s="22" t="s">
-        <v>346</v>
+      <c r="BE104" s="22">
+        <v>17268.0156586626</v>
+      </c>
+      <c r="BF104" s="22">
+        <v>19445.793900088502</v>
+      </c>
+      <c r="BG104" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="BH104" s="22" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -20358,15 +21306,24 @@
       </c>
       <c r="BE105" s="20">
         <v>2022.9508323244199</v>
+      </c>
+      <c r="BF105" s="20">
+        <v>2017.4414804934099</v>
+      </c>
+      <c r="BG105" s="20">
+        <v>1985.10828664223</v>
+      </c>
+      <c r="BH105" s="20">
+        <v>1981.7700004420899</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -20529,15 +21486,24 @@
       </c>
       <c r="BE106" s="22">
         <v>21.338014659949099</v>
+      </c>
+      <c r="BF106" s="22">
+        <v>21.106190040725</v>
+      </c>
+      <c r="BG106" s="22">
+        <v>22.182426106729402</v>
+      </c>
+      <c r="BH106" s="22">
+        <v>21.955271844472598</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -20675,40 +21641,49 @@
         <v>244.12468651827299</v>
       </c>
       <c r="AW107" s="20" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="AX107" s="20" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AY107" s="20" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AZ107" s="20" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="BA107" s="20" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="BB107" s="20" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="BC107" s="20" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="BD107" s="20" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="BE107" s="20" t="s">
-        <v>361</v>
+        <v>368</v>
+      </c>
+      <c r="BF107" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="BG107" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="BH107" s="20" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -20818,68 +21793,77 @@
       <c r="AM108" s="22">
         <v>1.9381163522996301</v>
       </c>
-      <c r="AN108" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="AO108" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP108" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="AQ108" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="AR108" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AS108" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="AT108" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="AU108" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="AV108" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="AW108" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX108" s="22" t="s">
+      <c r="AN108" s="22">
+        <v>1.93137001765129</v>
+      </c>
+      <c r="AO108" s="22">
+        <v>6.4317092093131896</v>
+      </c>
+      <c r="AP108" s="22">
+        <v>6.4290745400403599</v>
+      </c>
+      <c r="AQ108" s="22">
+        <v>6.4293069429071199</v>
+      </c>
+      <c r="AR108" s="22">
+        <v>6.4324948009151104</v>
+      </c>
+      <c r="AS108" s="22">
+        <v>6.4307345105663796</v>
+      </c>
+      <c r="AT108" s="22">
+        <v>6.4315003964224502</v>
+      </c>
+      <c r="AU108" s="22">
+        <v>6.4264833568855497</v>
+      </c>
+      <c r="AV108" s="22">
+        <v>6.4291902822124598</v>
+      </c>
+      <c r="AW108" s="22">
+        <v>6.4298923229860803</v>
+      </c>
+      <c r="AX108" s="22">
+        <v>6.4327544166377804</v>
+      </c>
+      <c r="AY108" s="22">
+        <v>6.4335423498266398</v>
+      </c>
+      <c r="AZ108" s="22">
+        <v>6.4297246325763302</v>
+      </c>
+      <c r="BA108" s="22">
+        <v>6.4269332994382697</v>
+      </c>
+      <c r="BB108" s="22">
+        <v>6.4324912622278703</v>
+      </c>
+      <c r="BC108" s="22">
+        <v>6.4316624700756</v>
+      </c>
+      <c r="BD108" s="22">
+        <v>6.4254521249077401</v>
+      </c>
+      <c r="BE108" s="22">
+        <v>6.4267436989506397</v>
+      </c>
+      <c r="BF108" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="AY108" s="22" t="s">
+      <c r="BG108" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="AZ108" s="22" t="s">
+      <c r="BH108" s="22" t="s">
         <v>376</v>
-      </c>
-      <c r="BA108" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB108" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="BC108" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD108" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE108" s="22" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -21042,15 +22026,24 @@
       </c>
       <c r="BE109" s="20">
         <v>5342.7372761634697</v>
+      </c>
+      <c r="BF109" s="20">
+        <v>5386.6041214721299</v>
+      </c>
+      <c r="BG109" s="20">
+        <v>5385.8522697832004</v>
+      </c>
+      <c r="BH109" s="20">
+        <v>5370.04994421016</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -21191,37 +22184,46 @@
         <v>1165.7044779849</v>
       </c>
       <c r="AX110" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY110" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ110" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA110" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB110" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="BC110" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="AY110" s="22" t="s">
+      <c r="BD110" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="AZ110" s="22" t="s">
+      <c r="BE110" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="BA110" s="22" t="s">
+      <c r="BF110" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="BB110" s="22" t="s">
+      <c r="BG110" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="BC110" s="22" t="s">
+      <c r="BH110" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="BD110" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="BE110" s="22" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -21384,15 +22386,24 @@
       </c>
       <c r="BE111" s="20">
         <v>5.8835402108516703</v>
+      </c>
+      <c r="BF111" s="20">
+        <v>5.8903555789098299</v>
+      </c>
+      <c r="BG111" s="20">
+        <v>5.8476286203094103</v>
+      </c>
+      <c r="BH111" s="20">
+        <v>5.8708554431911804</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -21555,15 +22566,24 @@
       </c>
       <c r="BE112" s="22">
         <v>20.640959618621999</v>
+      </c>
+      <c r="BF112" s="22">
+        <v>20.600430639952499</v>
+      </c>
+      <c r="BG112" s="22">
+        <v>20.275651578239302</v>
+      </c>
+      <c r="BH112" s="22">
+        <v>20.221623596229801</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -21726,15 +22746,24 @@
       </c>
       <c r="BE113" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF113" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG113" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH113" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -21862,50 +22891,59 @@
       <c r="AS114" s="22">
         <v>51.80477936554</v>
       </c>
-      <c r="AT114" s="22" t="s">
+      <c r="AT114" s="22">
+        <v>51.849342540572003</v>
+      </c>
+      <c r="AU114" s="22">
+        <v>51.350383026183898</v>
+      </c>
+      <c r="AV114" s="22">
+        <v>51.382338964873597</v>
+      </c>
+      <c r="AW114" s="22">
+        <v>51.328327359586197</v>
+      </c>
+      <c r="AX114" s="22">
+        <v>51.0105544908076</v>
+      </c>
+      <c r="AY114" s="22">
+        <v>50.715746328183798</v>
+      </c>
+      <c r="AZ114" s="22">
+        <v>50.613114988171503</v>
+      </c>
+      <c r="BA114" s="22">
+        <v>50.698796494752102</v>
+      </c>
+      <c r="BB114" s="22">
+        <v>50.745956072027703</v>
+      </c>
+      <c r="BC114" s="22">
+        <v>50.178247004759399</v>
+      </c>
+      <c r="BD114" s="22">
+        <v>49.572451836461703</v>
+      </c>
+      <c r="BE114" s="22">
+        <v>48.819204829162302</v>
+      </c>
+      <c r="BF114" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="BG114" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="BH114" s="22" t="s">
         <v>402</v>
-      </c>
-      <c r="AU114" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="AV114" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="AW114" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="AX114" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="AY114" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="AZ114" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="BA114" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="BB114" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC114" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="BD114" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="BE114" s="22" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -22068,15 +23106,24 @@
       </c>
       <c r="BE115" s="20">
         <v>58.115519380413197</v>
+      </c>
+      <c r="BF115" s="20">
+        <v>59.222580152850902</v>
+      </c>
+      <c r="BG115" s="20">
+        <v>59.545742717187998</v>
+      </c>
+      <c r="BH115" s="20">
+        <v>59.2599842500357</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -22239,15 +23286,24 @@
       </c>
       <c r="BE116" s="22">
         <v>26.986231199420999</v>
+      </c>
+      <c r="BF116" s="22">
+        <v>26.730999246314699</v>
+      </c>
+      <c r="BG116" s="22">
+        <v>27.028286319500101</v>
+      </c>
+      <c r="BH116" s="22">
+        <v>26.4788134984442</v>
       </c>
     </row>
     <row r="117" ht="24.000000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -22410,15 +23466,24 @@
       </c>
       <c r="BE117" s="20">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF117" s="20">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG117" s="20">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH117" s="20">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -22581,15 +23646,24 @@
       </c>
       <c r="BE118" s="22">
         <v>25.3951072673912</v>
+      </c>
+      <c r="BF118" s="22">
+        <v>25.5921451663909</v>
+      </c>
+      <c r="BG118" s="22">
+        <v>25.358603488232401</v>
+      </c>
+      <c r="BH118" s="22">
+        <v>25.371358906061001</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -22747,20 +23821,29 @@
       <c r="BC119" s="20">
         <v>4011.2601241273001</v>
       </c>
-      <c r="BD119" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="BE119" s="20" t="s">
-        <v>425</v>
+      <c r="BD119" s="20">
+        <v>4150.6014000709001</v>
+      </c>
+      <c r="BE119" s="20">
+        <v>4173.6778634446</v>
+      </c>
+      <c r="BF119" s="20">
+        <v>4181.0942721044403</v>
+      </c>
+      <c r="BG119" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="BH119" s="20" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -22923,15 +24006,24 @@
       </c>
       <c r="BE120" s="22">
         <v>1.2685392701062199</v>
+      </c>
+      <c r="BF120" s="22">
+        <v>1.26660294145941</v>
+      </c>
+      <c r="BG120" s="22">
+        <v>1.2936769211847901</v>
+      </c>
+      <c r="BH120" s="22">
+        <v>1.2979369405869501</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -23094,15 +24186,24 @@
       </c>
       <c r="BE121" s="20">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF121" s="20">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG121" s="20">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH121" s="20">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -23263,17 +24364,26 @@
       <c r="BD122" s="22">
         <v>13.402437006003201</v>
       </c>
-      <c r="BE122" s="22" t="s">
-        <v>432</v>
+      <c r="BE122" s="22">
+        <v>13.418705899111901</v>
+      </c>
+      <c r="BF122" s="22">
+        <v>13.3720997256942</v>
+      </c>
+      <c r="BG122" s="22">
+        <v>13.490828836556</v>
+      </c>
+      <c r="BH122" s="22" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -23434,17 +24544,26 @@
       <c r="BD123" s="20">
         <v>87.096328123351299</v>
       </c>
-      <c r="BE123" s="20" t="s">
-        <v>435</v>
+      <c r="BE123" s="20">
+        <v>85.655025955069604</v>
+      </c>
+      <c r="BF123" s="20">
+        <v>85.448516437481899</v>
+      </c>
+      <c r="BG123" s="20">
+        <v>84.0922157114246</v>
+      </c>
+      <c r="BH123" s="20">
+        <v>83.963946884402304</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -23567,55 +24686,64 @@
         <v>2044.2286967290399</v>
       </c>
       <c r="AR124" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="AS124" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="AT124" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="AU124" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="AV124" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="AW124" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="AX124" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="AY124" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="AZ124" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="BA124" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="BB124" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="BC124" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="BD124" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="AS124" s="22" t="s">
+      <c r="BE124" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="AT124" s="22" t="s">
+      <c r="BF124" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="AU124" s="22" t="s">
+      <c r="BG124" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="AV124" s="22" t="s">
+      <c r="BH124" s="22" t="s">
         <v>442</v>
-      </c>
-      <c r="AW124" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="AX124" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="AY124" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="AZ124" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA124" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB124" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="BC124" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="BD124" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="BE124" s="22" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -23777,16 +24905,25 @@
         <v>20.404528771595999</v>
       </c>
       <c r="BE125" s="20">
-        <v>21.300632273069301</v>
+        <v>21.3380719601153</v>
+      </c>
+      <c r="BF125" s="20">
+        <v>21.106251954431599</v>
+      </c>
+      <c r="BG125" s="20">
+        <v>22.0516231369416</v>
+      </c>
+      <c r="BH125" s="20">
+        <v>21.949992502409</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -23949,15 +25086,24 @@
       </c>
       <c r="BE126" s="22">
         <v>1.9028988469680499</v>
+      </c>
+      <c r="BF126" s="22">
+        <v>1.90356498810146</v>
+      </c>
+      <c r="BG126" s="22">
+        <v>1.92100490192358</v>
+      </c>
+      <c r="BH126" s="22">
+        <v>1.8887907759407701</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -24118,17 +25264,26 @@
       <c r="BD127" s="20">
         <v>165.91557139011101</v>
       </c>
-      <c r="BE127" s="20" t="s">
-        <v>458</v>
+      <c r="BE127" s="20">
+        <v>164.45974496710599</v>
+      </c>
+      <c r="BF127" s="20">
+        <v>166.21740613799199</v>
+      </c>
+      <c r="BG127" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="BH127" s="20" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -24291,15 +25446,24 @@
       </c>
       <c r="BE128" s="22">
         <v>151.37694761853501</v>
+      </c>
+      <c r="BF128" s="22">
+        <v>151.145882229351</v>
+      </c>
+      <c r="BG128" s="22">
+        <v>154.37666625574701</v>
+      </c>
+      <c r="BH128" s="22">
+        <v>154.88502161303899</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -24462,15 +25626,24 @@
       </c>
       <c r="BE129" s="20">
         <v>2.0954147427360401</v>
+      </c>
+      <c r="BF129" s="20">
+        <v>2.1068378923653501</v>
+      </c>
+      <c r="BG129" s="20">
+        <v>2.1239012640300201</v>
+      </c>
+      <c r="BH129" s="20">
+        <v>2.0983756382790499</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -24619,29 +25792,38 @@
       <c r="AZ130" s="22">
         <v>49.609658615622301</v>
       </c>
-      <c r="BA130" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="BB130" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="BC130" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="BD130" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="BE130" s="22" t="s">
-        <v>469</v>
+      <c r="BA130" s="22">
+        <v>49.763486284431998</v>
+      </c>
+      <c r="BB130" s="22">
+        <v>49.889495471618197</v>
+      </c>
+      <c r="BC130" s="22">
+        <v>49.301579119072898</v>
+      </c>
+      <c r="BD130" s="22">
+        <v>48.746790107690998</v>
+      </c>
+      <c r="BE130" s="22">
+        <v>48.019417966100697</v>
+      </c>
+      <c r="BF130" s="22">
+        <v>48.005739348271398</v>
+      </c>
+      <c r="BG130" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="BH130" s="22" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -24804,15 +25986,24 @@
       </c>
       <c r="BE131" s="20">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF131" s="20">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG131" s="20">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH131" s="20">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -24956,34 +26147,43 @@
         <v>581.30277410599001</v>
       </c>
       <c r="AY132" s="22" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="AZ132" s="22" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="BA132" s="22" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="BB132" s="22" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="BC132" s="22" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="BD132" s="22" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="BE132" s="22" t="s">
-        <v>480</v>
+        <v>469</v>
+      </c>
+      <c r="BF132" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="BG132" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="BH132" s="22" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -25146,15 +26346,24 @@
       </c>
       <c r="BE133" s="20">
         <v>78.329327189734798</v>
+      </c>
+      <c r="BF133" s="20">
+        <v>77.923961566355999</v>
+      </c>
+      <c r="BG133" s="20">
+        <v>79.520870161123796</v>
+      </c>
+      <c r="BH133" s="20">
+        <v>79.741429311321099</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -25317,15 +26526,24 @@
       </c>
       <c r="BE134" s="22">
         <v>12.869053719397099</v>
+      </c>
+      <c r="BF134" s="22">
+        <v>13.061511674703601</v>
+      </c>
+      <c r="BG134" s="22">
+        <v>13.1682141734144</v>
+      </c>
+      <c r="BH134" s="22">
+        <v>12.764833634688401</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -25488,15 +26706,24 @@
       </c>
       <c r="BE135" s="20">
         <v>0.51596988061607796</v>
+      </c>
+      <c r="BF135" s="20">
+        <v>0.51456467611921397</v>
+      </c>
+      <c r="BG135" s="20">
+        <v>0.50631783496778504</v>
+      </c>
+      <c r="BH135" s="20">
+        <v>0.50546637822221197</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -25659,15 +26886,24 @@
       </c>
       <c r="BE136" s="22">
         <v>263.12600873229502</v>
+      </c>
+      <c r="BF136" s="22">
+        <v>274.09046941509899</v>
+      </c>
+      <c r="BG136" s="22">
+        <v>290.25072488311599</v>
+      </c>
+      <c r="BH136" s="22">
+        <v>290.37546028932201</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -25830,15 +27066,24 @@
       </c>
       <c r="BE137" s="20">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF137" s="20">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG137" s="20">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH137" s="20">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -26001,15 +27246,24 @@
       </c>
       <c r="BE138" s="22">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF138" s="22">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG138" s="22">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH138" s="22">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -26162,25 +27416,34 @@
         <v>4.9113891224923698</v>
       </c>
       <c r="BB139" s="20" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="BC139" s="20" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="BD139" s="20" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="BE139" s="20" t="s">
-        <v>498</v>
+        <v>490</v>
+      </c>
+      <c r="BF139" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="BG139" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="BH139" s="20" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -26339,19 +27602,28 @@
         <v>9625.0228776114509</v>
       </c>
       <c r="BD140" s="22" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="BE140" s="22" t="s">
-        <v>502</v>
+        <v>497</v>
+      </c>
+      <c r="BF140" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="BG140" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="BH140" s="22" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -26514,15 +27786,24 @@
       </c>
       <c r="BE141" s="20">
         <v>5.0423414293661999</v>
+      </c>
+      <c r="BF141" s="20">
+        <v>5.01468751796655</v>
+      </c>
+      <c r="BG141" s="20">
+        <v>5.1384797428326703</v>
+      </c>
+      <c r="BH141" s="20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>505</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>506</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -26685,15 +27966,24 @@
       </c>
       <c r="BE142" s="22">
         <v>70.265502981401596</v>
+      </c>
+      <c r="BF142" s="22">
+        <v>71.689157976581498</v>
+      </c>
+      <c r="BG142" s="22">
+        <v>73.600472421647495</v>
+      </c>
+      <c r="BH142" s="22">
+        <v>73.289463525470495</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>507</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>508</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -26856,15 +28146,24 @@
       </c>
       <c r="BE143" s="20">
         <v>5.9027222727332704</v>
+      </c>
+      <c r="BF143" s="20">
+        <v>5.8717918672058804</v>
+      </c>
+      <c r="BG143" s="20">
+        <v>6.1668063795517201</v>
+      </c>
+      <c r="BH143" s="20">
+        <v>6.12317632375402</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>509</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>510</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -27027,15 +28326,24 @@
       </c>
       <c r="BE144" s="22">
         <v>4.8846043314500003</v>
+      </c>
+      <c r="BF144" s="22">
+        <v>4.8713014852378098</v>
+      </c>
+      <c r="BG144" s="22">
+        <v>4.7932299591228604</v>
+      </c>
+      <c r="BH144" s="22">
+        <v>4.7851693543013099</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>511</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>512</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -27198,15 +28506,24 @@
       </c>
       <c r="BE145" s="20">
         <v>6.2769849507666198</v>
+      </c>
+      <c r="BF145" s="20">
+        <v>6.2572135231807398</v>
+      </c>
+      <c r="BG145" s="20">
+        <v>6.3875056490981397</v>
+      </c>
+      <c r="BH145" s="20">
+        <v>6.3553359138555603</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>513</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>514</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -27368,16 +28685,25 @@
         <v>106.17060136796201</v>
       </c>
       <c r="BE146" s="22">
-        <v>86.344640835820201</v>
+        <v>86.741045264257096</v>
+      </c>
+      <c r="BF146" s="22">
+        <v>76.517440175975594</v>
+      </c>
+      <c r="BG146" s="22">
+        <v>76.486650251285596</v>
+      </c>
+      <c r="BH146" s="22">
+        <v>79.334821376901999</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>515</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>516</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -27540,15 +28866,24 @@
       </c>
       <c r="BE147" s="20">
         <v>1370.27657698497</v>
+      </c>
+      <c r="BF147" s="20">
+        <v>1369.2829710799199</v>
+      </c>
+      <c r="BG147" s="20">
+        <v>1351.75583887688</v>
+      </c>
+      <c r="BH147" s="20">
+        <v>1360.25717743322</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>517</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>518</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -27711,15 +29046,24 @@
       </c>
       <c r="BE148" s="22">
         <v>3.5881698568215201</v>
+      </c>
+      <c r="BF148" s="22">
+        <v>3.5873962745511201</v>
+      </c>
+      <c r="BG148" s="22">
+        <v>3.5773006861621002</v>
+      </c>
+      <c r="BH148" s="22">
+        <v>3.55033123093046</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>519</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>520</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -27882,15 +29226,24 @@
       </c>
       <c r="BE149" s="20">
         <v>1.2685392701062199</v>
+      </c>
+      <c r="BF149" s="20">
+        <v>1.26660294145941</v>
+      </c>
+      <c r="BG149" s="20">
+        <v>1.2936769211847901</v>
+      </c>
+      <c r="BH149" s="20">
+        <v>1.2979369405869501</v>
       </c>
     </row>
     <row r="150" ht="24.000000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>521</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>522</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -28010,58 +29363,67 @@
         <v>29.153641875437401</v>
       </c>
       <c r="AQ150" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="AR150" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="AR150" s="22" t="s">
+      <c r="AS150" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="AS150" s="22" t="s">
+      <c r="AT150" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="AT150" s="22" t="s">
+      <c r="AU150" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="AU150" s="22" t="s">
+      <c r="AV150" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="AV150" s="22" t="s">
+      <c r="AW150" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="AW150" s="22" t="s">
+      <c r="AX150" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="AX150" s="22" t="s">
+      <c r="AY150" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="AY150" s="22" t="s">
+      <c r="AZ150" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="AZ150" s="22" t="s">
+      <c r="BA150" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="BA150" s="22" t="s">
+      <c r="BB150" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="BB150" s="22" t="s">
+      <c r="BC150" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="BC150" s="22" t="s">
+      <c r="BD150" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="BD150" s="22" t="s">
+      <c r="BE150" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="BE150" s="22" t="s">
+      <c r="BF150" s="22" t="s">
         <v>537</v>
+      </c>
+      <c r="BG150" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="BH150" s="22" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -28224,15 +29586,24 @@
       </c>
       <c r="BE151" s="20">
         <v>5.0322160008069998</v>
+      </c>
+      <c r="BF151" s="20">
+        <v>5.0185111455059799</v>
+      </c>
+      <c r="BG151" s="20">
+        <v>4.9380803150304198</v>
+      </c>
+      <c r="BH151" s="20">
+        <v>4.9297761205027202</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -28395,15 +29766,24 @@
       </c>
       <c r="BE152" s="22">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF152" s="22">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG152" s="22">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH152" s="22">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -28566,15 +29946,24 @@
       </c>
       <c r="BE153" s="20">
         <v>149.126836046742</v>
+      </c>
+      <c r="BF153" s="20">
+        <v>148.59490317129899</v>
+      </c>
+      <c r="BG153" s="20">
+        <v>151.65345039597</v>
+      </c>
+      <c r="BH153" s="20">
+        <v>152.31969672850701</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -28737,15 +30126,24 @@
       </c>
       <c r="BE154" s="22">
         <v>19.0683306611196</v>
+      </c>
+      <c r="BF154" s="22">
+        <v>18.771472444260102</v>
+      </c>
+      <c r="BG154" s="22">
+        <v>18.424684074859702</v>
+      </c>
+      <c r="BH154" s="22">
+        <v>18.6564216594284</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -28865,10 +30263,10 @@
         <v>14699.0277927671</v>
       </c>
       <c r="AQ155" s="20">
-        <v>14575.120855635099</v>
+        <v>14575.1179358831</v>
       </c>
       <c r="AR155" s="20">
-        <v>14610.1590949991</v>
+        <v>14610.162479319501</v>
       </c>
       <c r="AS155" s="20">
         <v>14745.666144746099</v>
@@ -28883,7 +30281,7 @@
         <v>14654.2365456196</v>
       </c>
       <c r="AW155" s="20">
-        <v>14884.604051889601</v>
+        <v>14884.603406136501</v>
       </c>
       <c r="AX155" s="20">
         <v>15090.9205556826</v>
@@ -28906,17 +30304,26 @@
       <c r="BD155" s="20">
         <v>16701.413403733201</v>
       </c>
-      <c r="BE155" s="20" t="s">
-        <v>548</v>
+      <c r="BE155" s="20">
+        <v>17232.4786285236</v>
+      </c>
+      <c r="BF155" s="20">
+        <v>17558.499141968601</v>
+      </c>
+      <c r="BG155" s="20">
+        <v>18.080945676161001</v>
+      </c>
+      <c r="BH155" s="20">
+        <v>18.378205377234099</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -29079,15 +30486,24 @@
       </c>
       <c r="BE156" s="22">
         <v>1.8537341822706099</v>
+      </c>
+      <c r="BF156" s="22">
+        <v>1.8517636992097699</v>
+      </c>
+      <c r="BG156" s="22">
+        <v>1.8368341950495799</v>
+      </c>
+      <c r="BH156" s="22">
+        <v>1.8198104222965099</v>
       </c>
     </row>
     <row r="157" ht="24.000000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -29250,15 +30666,24 @@
       </c>
       <c r="BE157" s="20">
         <v>2.4020444377185401</v>
+      </c>
+      <c r="BF157" s="20">
+        <v>2.39550265345486</v>
+      </c>
+      <c r="BG157" s="20">
+        <v>2.3571103370411799</v>
+      </c>
+      <c r="BH157" s="20">
+        <v>2.3531464681866301</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -29421,15 +30846,24 @@
       </c>
       <c r="BE158" s="22">
         <v>10.890714292425701</v>
+      </c>
+      <c r="BF158" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="BG158" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="BH158" s="22" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -29453,154 +30887,163 @@
         <v>33343.625668374101</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L159" s="20" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="P159" s="20" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="R159" s="20" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="S159" s="20" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="T159" s="20" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="U159" s="20" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="V159" s="20" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="W159" s="20" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="X159" s="20" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="Y159" s="20" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Z159" s="20" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AA159" s="20" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AB159" s="20" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="AC159" s="20" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="AD159" s="20" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AE159" s="20" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="AF159" s="20" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="AG159" s="20" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AH159" s="20" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="AI159" s="20" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AJ159" s="20" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AK159" s="20" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AL159" s="20" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="AM159" s="20" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AN159" s="20" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AO159" s="20" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AP159" s="20" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AQ159" s="20" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AR159" s="20" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AS159" s="20" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AT159" s="20" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AU159" s="20" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AV159" s="20" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="AW159" s="20" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AX159" s="20" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AY159" s="20" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AZ159" s="20" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="BA159" s="20" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="BB159" s="20" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="BC159" s="20" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="BD159" s="20" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="BE159" s="20" t="s">
-        <v>603</v>
+        <v>607</v>
+      </c>
+      <c r="BF159" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="BG159" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="BH159" s="20" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -29763,15 +31206,24 @@
       </c>
       <c r="BE160" s="22">
         <v>21.338014659949099</v>
+      </c>
+      <c r="BF160" s="22">
+        <v>21.106190040725</v>
+      </c>
+      <c r="BG160" s="22">
+        <v>22.182426106729402</v>
+      </c>
+      <c r="BH160" s="22">
+        <v>21.955271844472598</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -29920,29 +31372,38 @@
       <c r="AZ161" s="20">
         <v>587.89376473551499</v>
       </c>
-      <c r="BA161" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="BB161" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="BC161" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="BD161" s="20" t="s">
-        <v>611</v>
-      </c>
-      <c r="BE161" s="20" t="s">
-        <v>612</v>
+      <c r="BA161" s="20">
+        <v>608.41593242305305</v>
+      </c>
+      <c r="BB161" s="20">
+        <v>606.35505083803002</v>
+      </c>
+      <c r="BC161" s="20">
+        <v>594.70567189613701</v>
+      </c>
+      <c r="BD161" s="20">
+        <v>582.75753347488796</v>
+      </c>
+      <c r="BE161" s="20">
+        <v>597.29277246037304</v>
+      </c>
+      <c r="BF161" s="20">
+        <v>651.629315736526</v>
+      </c>
+      <c r="BG161" s="20">
+        <v>734.16046565686304</v>
+      </c>
+      <c r="BH161" s="20" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -30062,58 +31523,67 @@
         <v>279.45170558869</v>
       </c>
       <c r="AQ162" s="22" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AR162" s="22" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AS162" s="22" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AT162" s="22" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AU162" s="22" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AV162" s="22" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AW162" s="22" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AX162" s="22" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AY162" s="22" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AZ162" s="22" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="BA162" s="22" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="BB162" s="22" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="BC162" s="22" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="BD162" s="22" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="BE162" s="22" t="s">
-        <v>629</v>
+        <v>632</v>
+      </c>
+      <c r="BF162" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="BG162" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="BH162" s="22" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -30276,15 +31746,24 @@
       </c>
       <c r="BE163" s="20">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF163" s="20">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG163" s="20">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH163" s="20">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -30447,15 +31926,24 @@
       </c>
       <c r="BE164" s="22">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF164" s="22">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG164" s="22">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH164" s="22">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -30618,15 +32106,24 @@
       </c>
       <c r="BE165" s="20">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF165" s="20">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG165" s="20">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH165" s="20">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -30755,49 +32252,58 @@
         <v>585.57667243982996</v>
       </c>
       <c r="AT166" s="22" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="AU166" s="22" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AV166" s="22" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="AW166" s="22" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AX166" s="22" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="AY166" s="22" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AZ166" s="22" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="BA166" s="22" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="BB166" s="22" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="BC166" s="22" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="BD166" s="22" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="BE166" s="22" t="s">
-        <v>649</v>
+        <v>655</v>
+      </c>
+      <c r="BF166" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="BG166" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="BH166" s="22" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -30947,28 +32453,37 @@
         <v>30.117841462851001</v>
       </c>
       <c r="BA167" s="20">
-        <v>30.068011663268699</v>
+        <v>30.0680088637769</v>
       </c>
       <c r="BB167" s="20">
         <v>30.0818237760326</v>
       </c>
       <c r="BC167" s="20">
-        <v>29.695140997203101</v>
-      </c>
-      <c r="BD167" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="BE167" s="20" t="s">
-        <v>653</v>
+        <v>29.6951375414009</v>
+      </c>
+      <c r="BD167" s="20">
+        <v>29.404607302428399</v>
+      </c>
+      <c r="BE167" s="20">
+        <v>29.422743632896601</v>
+      </c>
+      <c r="BF167" s="20">
+        <v>30.064683785624698</v>
+      </c>
+      <c r="BG167" s="20">
+        <v>30.7294104361508</v>
+      </c>
+      <c r="BH167" s="20">
+        <v>32.969028086956698</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -31131,15 +32646,24 @@
       </c>
       <c r="BE168" s="22">
         <v>13.315206940200801</v>
+      </c>
+      <c r="BF168" s="22">
+        <v>13.447774528737099</v>
+      </c>
+      <c r="BG168" s="22">
+        <v>13.681849773115699</v>
+      </c>
+      <c r="BH168" s="22">
+        <v>13.6344175639328</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -31301,16 +32825,25 @@
         <v>1.2879695296711999</v>
       </c>
       <c r="BE169" s="20">
-        <v>1.3161063502629899</v>
+        <v>1.3154078433682801</v>
+      </c>
+      <c r="BF169" s="20">
+        <v>1.2976130071748</v>
+      </c>
+      <c r="BG169" s="20">
+        <v>1.2767110369692201</v>
+      </c>
+      <c r="BH169" s="20">
+        <v>1.2586405616557199</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -31343,145 +32876,154 @@
         <v>611.21222523736901</v>
       </c>
       <c r="N170" s="22" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="O170" s="22" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="P170" s="22" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="Q170" s="22" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="R170" s="22" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S170" s="22" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="T170" s="22" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="U170" s="22" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="V170" s="22" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="W170" s="22" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="X170" s="22" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="Y170" s="22" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="Z170" s="22" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="AA170" s="22" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="AB170" s="22" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="AC170" s="22" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="AD170" s="22" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="AE170" s="22" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="AF170" s="22" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="AG170" s="22" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="AH170" s="22" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="AI170" s="22" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="AJ170" s="22" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="AK170" s="22" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="AL170" s="22" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="AM170" s="22" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="AN170" s="22" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="AO170" s="22" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="AP170" s="22" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="AQ170" s="22" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="AR170" s="22" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="AS170" s="22" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="AT170" s="22" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="AU170" s="22" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="AV170" s="22" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="AW170" s="22" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="AX170" s="22" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="AY170" s="22" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="AZ170" s="22" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="BA170" s="22" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="BB170" s="22" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="BC170" s="22" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="BD170" s="22" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="BE170" s="22" t="s">
-        <v>703</v>
+        <v>710</v>
+      </c>
+      <c r="BF170" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="BG170" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="BH170" s="22" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -31642,17 +33184,26 @@
       <c r="BD171" s="20">
         <v>39.772579854918398</v>
       </c>
-      <c r="BE171" s="20" t="s">
-        <v>706</v>
+      <c r="BE171" s="20">
+        <v>39.716932526902603</v>
+      </c>
+      <c r="BF171" s="20">
+        <v>39.655605936968897</v>
+      </c>
+      <c r="BG171" s="20">
+        <v>39.328188450319601</v>
+      </c>
+      <c r="BH171" s="20" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -31813,17 +33364,26 @@
       <c r="BD172" s="22">
         <v>17.079776882118299</v>
       </c>
-      <c r="BE172" s="22" t="s">
-        <v>709</v>
+      <c r="BE172" s="22">
+        <v>16.352152346515702</v>
+      </c>
+      <c r="BF172" s="22">
+        <v>14.6979477890302</v>
+      </c>
+      <c r="BG172" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="BH172" s="22" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -31981,20 +33541,29 @@
       <c r="BC173" s="20">
         <v>3177.1955635342802</v>
       </c>
-      <c r="BD173" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="BE173" s="20" t="s">
-        <v>713</v>
+      <c r="BD173" s="20">
+        <v>3136.5917048864899</v>
+      </c>
+      <c r="BE173" s="20">
+        <v>3086.2384924940602</v>
+      </c>
+      <c r="BF173" s="20">
+        <v>3081.2269331203802</v>
+      </c>
+      <c r="BG173" s="20">
+        <v>3034.5302135900101</v>
+      </c>
+      <c r="BH173" s="20">
+        <v>3029.83200839867</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -32157,15 +33726,24 @@
       </c>
       <c r="BE174" s="22">
         <v>46.176249671741999</v>
+      </c>
+      <c r="BF174" s="22">
+        <v>46.796612729614203</v>
+      </c>
+      <c r="BG174" s="22">
+        <v>47.844709019951701</v>
+      </c>
+      <c r="BH174" s="22">
+        <v>47.162994855749602</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -32328,15 +33906,24 @@
       </c>
       <c r="BE175" s="20">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF175" s="20">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG175" s="20">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH175" s="20">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -32499,15 +34086,24 @@
       </c>
       <c r="BE176" s="22">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF176" s="22">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG176" s="22">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH176" s="22">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -32665,20 +34261,29 @@
       <c r="BC177" s="20">
         <v>3.12925705017989</v>
       </c>
-      <c r="BD177" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="BE177" s="20" t="s">
-        <v>723</v>
+      <c r="BD177" s="20">
+        <v>3.0889251236853901</v>
+      </c>
+      <c r="BE177" s="20">
+        <v>3.03780845121072</v>
+      </c>
+      <c r="BF177" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="BG177" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="BH177" s="20" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -32841,15 +34446,24 @@
       </c>
       <c r="BE178" s="22">
         <v>9.0546971401626699</v>
+      </c>
+      <c r="BF178" s="22">
+        <v>9.0442623842515601</v>
+      </c>
+      <c r="BG178" s="22">
+        <v>8.8969237096524605</v>
+      </c>
+      <c r="BH178" s="22">
+        <v>8.8705865669539801</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -33012,15 +34626,24 @@
       </c>
       <c r="BE179" s="20">
         <v>4.1669432335215797</v>
+      </c>
+      <c r="BF179" s="20">
+        <v>4.1481005724294304</v>
+      </c>
+      <c r="BG179" s="20">
+        <v>4.15746857883041</v>
+      </c>
+      <c r="BH179" s="20">
+        <v>4.1705905979453002</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -33181,17 +34804,26 @@
       <c r="BD180" s="22">
         <v>20.055993363597398</v>
       </c>
-      <c r="BE180" s="22" t="s">
-        <v>730</v>
+      <c r="BE180" s="22">
+        <v>20.862258080988699</v>
+      </c>
+      <c r="BF180" s="22">
+        <v>22.7519265901647</v>
+      </c>
+      <c r="BG180" s="22">
+        <v>22.9175585292687</v>
+      </c>
+      <c r="BH180" s="22">
+        <v>23.695517029487601</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -33354,15 +34986,24 @@
       </c>
       <c r="BE181" s="20">
         <v>4875.3022402342904</v>
+      </c>
+      <c r="BF181" s="20">
+        <v>5015.0058827545499</v>
+      </c>
+      <c r="BG181" s="20">
+        <v>4992.8494260089201</v>
+      </c>
+      <c r="BH181" s="20">
+        <v>5038.16432166901</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -33525,15 +35166,24 @@
       </c>
       <c r="BE182" s="22">
         <v>39.257860235202401</v>
+      </c>
+      <c r="BF182" s="22">
+        <v>39.150944456176802</v>
+      </c>
+      <c r="BG182" s="22">
+        <v>41.940872623641901</v>
+      </c>
+      <c r="BH182" s="22">
+        <v>48.073336277390901</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -33696,15 +35346,24 @@
       </c>
       <c r="BE183" s="20">
         <v>4.9282168701236602</v>
+      </c>
+      <c r="BF183" s="20">
+        <v>4.9147952484988604</v>
+      </c>
+      <c r="BG183" s="20">
+        <v>4.8360266551864504</v>
+      </c>
+      <c r="BH183" s="20">
+        <v>4.8278940806790001</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -33867,15 +35526,24 @@
       </c>
       <c r="BE184" s="22">
         <v>1.07869991389356</v>
+      </c>
+      <c r="BF184" s="22">
+        <v>1.08779601783239</v>
+      </c>
+      <c r="BG184" s="22">
+        <v>1.0988254385813001</v>
+      </c>
+      <c r="BH184" s="22">
+        <v>1.09534399237547</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -34038,15 +35706,24 @@
       </c>
       <c r="BE185" s="20">
         <v>1.3419242668818701</v>
+      </c>
+      <c r="BF185" s="20">
+        <v>1.3382696388016</v>
+      </c>
+      <c r="BG185" s="20">
+        <v>1.3168214173414401</v>
+      </c>
+      <c r="BH185" s="20">
+        <v>1.31460696546739</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -34207,17 +35884,26 @@
       <c r="BD186" s="22">
         <v>56.147999466517099</v>
       </c>
-      <c r="BE186" s="22" t="s">
-        <v>743</v>
+      <c r="BE186" s="22">
+        <v>54.694149269571199</v>
+      </c>
+      <c r="BF186" s="22">
+        <v>53.229674883333502</v>
+      </c>
+      <c r="BG186" s="22">
+        <v>54.108192038559899</v>
+      </c>
+      <c r="BH186" s="22" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -34380,15 +36066,24 @@
       </c>
       <c r="BE187" s="20">
         <v>14921.4069781665</v>
+      </c>
+      <c r="BF187" s="20">
+        <v>14650.519513031</v>
+      </c>
+      <c r="BG187" s="20">
+        <v>14371.655992379499</v>
+      </c>
+      <c r="BH187" s="20">
+        <v>14355.287124120399</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -34550,16 +36245,25 @@
         <v>152.68806387283399</v>
       </c>
       <c r="BE188" s="22" t="s">
-        <v>748</v>
+        <v>757</v>
+      </c>
+      <c r="BF188" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="BG188" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="BH188" s="22" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -34583,154 +36287,163 @@
         <v>118479.385723806</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L189" s="20" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="M189" s="20" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="N189" s="20" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="O189" s="20" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="P189" s="20" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="Q189" s="20" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="R189" s="20" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="S189" s="20" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="T189" s="20" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="U189" s="20" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="V189" s="20" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="W189" s="20" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="X189" s="20" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="Y189" s="20" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="Z189" s="20" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="AA189" s="20" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="AB189" s="20" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="AC189" s="20" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="AD189" s="20" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="AE189" s="20" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="AF189" s="20" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="AG189" s="20" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="AH189" s="20" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="AI189" s="20" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="AJ189" s="20" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="AK189" s="20" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="AL189" s="20" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="AM189" s="20" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="AN189" s="20" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="AO189" s="20" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="AP189" s="20" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="AQ189" s="20" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="AR189" s="20" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="AS189" s="20" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="AT189" s="20" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="AU189" s="20" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="AV189" s="20" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="AW189" s="20" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="AX189" s="20" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="AY189" s="20" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="AZ189" s="20" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="BA189" s="20" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="BB189" s="20" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="BC189" s="20" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="BD189" s="20" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="BE189" s="20" t="s">
-        <v>797</v>
+        <v>809</v>
+      </c>
+      <c r="BF189" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="BG189" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="BH189" s="20" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -34891,17 +36604,26 @@
       <c r="BD190" s="22">
         <v>31537.685480319102</v>
       </c>
-      <c r="BE190" s="22" t="s">
-        <v>800</v>
+      <c r="BE190" s="22">
+        <v>31037.956815388101</v>
+      </c>
+      <c r="BF190" s="22">
+        <v>30890.2476048354</v>
+      </c>
+      <c r="BG190" s="22">
+        <v>30533.138203896098</v>
+      </c>
+      <c r="BH190" s="22" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -35064,15 +36786,24 @@
       </c>
       <c r="BE191" s="20">
         <v>1332.46586519433</v>
+      </c>
+      <c r="BF191" s="20">
+        <v>1462.50567027034</v>
+      </c>
+      <c r="BG191" s="20">
+        <v>1490.32325860374</v>
+      </c>
+      <c r="BH191" s="20" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -35233,59 +36964,68 @@
       <c r="BD192" s="22">
         <v>23.733992308065002</v>
       </c>
-      <c r="BE192" s="22" t="s">
-        <v>805</v>
+      <c r="BE192" s="22">
+        <v>22.932796586986498</v>
+      </c>
+      <c r="BF192" s="22">
+        <v>22.7692908034773</v>
+      </c>
+      <c r="BG192" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="BH192" s="22" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
       </c>
       <c r="E193" s="19" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="H193" s="20" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="L193" s="20" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="M193" s="20" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="O193" s="20" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="Q193" s="20" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="R193" s="20">
         <v>3.4824096119743699</v>
@@ -35401,20 +37141,29 @@
       <c r="BC193" s="20">
         <v>183.978052820561</v>
       </c>
-      <c r="BD193" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="BE193" s="20" t="s">
-        <v>822</v>
+      <c r="BD193" s="20">
+        <v>205.468020746284</v>
+      </c>
+      <c r="BE193" s="20">
+        <v>289.28626988966698</v>
+      </c>
+      <c r="BF193" s="20">
+        <v>451.20451905972999</v>
+      </c>
+      <c r="BG193" s="20">
+        <v>527.79524244924903</v>
+      </c>
+      <c r="BH193" s="20">
+        <v>651.90856110861205</v>
       </c>
     </row>
     <row r="194" ht="24.000000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -35577,15 +37326,24 @@
       </c>
       <c r="BE194" s="22">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF194" s="22">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG194" s="22">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH194" s="22">
+        <v>851.39082173659096</v>
       </c>
     </row>
     <row r="195" ht="24.000000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -35748,15 +37506,24 @@
       </c>
       <c r="BE195" s="20">
         <v>3.62319552058104</v>
+      </c>
+      <c r="BF195" s="20">
+        <v>3.6133280247643098</v>
+      </c>
+      <c r="BG195" s="20">
+        <v>3.5554178268219001</v>
+      </c>
+      <c r="BH195" s="20">
+        <v>3.5494388067619602</v>
       </c>
     </row>
     <row r="196" ht="24.000000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="23" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="D196" s="25" t="str">
         <v/>
@@ -35919,6 +37686,15 @@
       </c>
       <c r="BE196" s="22">
         <v>832.10721400106797</v>
+      </c>
+      <c r="BF196" s="22">
+        <v>830.83706567088802</v>
+      </c>
+      <c r="BG196" s="22">
+        <v>848.59643218961003</v>
+      </c>
+      <c r="BH196" s="22">
+        <v>851.39082173659096</v>
       </c>
     </row>
   </sheetData>
